--- a/Stocks/ACB/HighLow.xlsx
+++ b/Stocks/ACB/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,1442 +417,1442 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>8.159999847412109</v>
+        <v>7.829999923706055</v>
       </c>
       <c r="B2">
-        <v>8.300000190734863</v>
+        <v>7.868000030517578</v>
       </c>
       <c r="C2">
-        <v>7.929999828338623</v>
+        <v>7.171000003814697</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="F2">
-        <v>5588300</v>
+        <v>9616100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>8.100000381469727</v>
+        <v>6.75</v>
       </c>
       <c r="B3">
-        <v>8.435000419616699</v>
+        <v>7.09499979019165</v>
       </c>
       <c r="C3">
-        <v>7.920000076293945</v>
+        <v>6.590000152587891</v>
       </c>
       <c r="D3">
-        <v>8.350000381469727</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="E3">
-        <v>8.350000381469727</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="F3">
-        <v>5015600</v>
+        <v>14690300</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>8.439999580383301</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="B4">
-        <v>8.579999923706055</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C4">
-        <v>8.189999580383301</v>
+        <v>6.65500020980835</v>
       </c>
       <c r="D4">
-        <v>8.550000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E4">
-        <v>8.550000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F4">
-        <v>7112800</v>
+        <v>6923500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>8.590000152587891</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="B5">
-        <v>8.75</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="C5">
-        <v>8.430000305175781</v>
+        <v>6.960000038146973</v>
       </c>
       <c r="D5">
-        <v>8.560000419616699</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E5">
-        <v>8.560000419616699</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F5">
-        <v>4468800</v>
+        <v>5368000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>8.569999694824219</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B6">
-        <v>9.119999885559082</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C6">
-        <v>8.449999809265137</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D6">
-        <v>9.050000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="E6">
-        <v>9.050000190734863</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="F6">
-        <v>7865000</v>
+        <v>4167500</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>9.069999694824219</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="B7">
-        <v>9.079999923706055</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="C7">
-        <v>8.680000305175781</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D7">
-        <v>8.960000038146973</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="E7">
-        <v>8.960000038146973</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="F7">
-        <v>6331300</v>
+        <v>3288800</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>8.789999961853027</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="B8">
-        <v>9.060000419616699</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="C8">
-        <v>8.75</v>
+        <v>7.25</v>
       </c>
       <c r="D8">
-        <v>8.939999580383301</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="E8">
-        <v>8.939999580383301</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="F8">
-        <v>3423500</v>
+        <v>3800400</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>8.890000343322754</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="B9">
-        <v>8.913000106811523</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C9">
-        <v>8.579999923706055</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D9">
-        <v>8.680000305175781</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E9">
-        <v>8.680000305175781</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F9">
-        <v>3774400</v>
+        <v>5975700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>8.510000228881836</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="B10">
-        <v>8.675000190734863</v>
+        <v>8.220999717712402</v>
       </c>
       <c r="C10">
-        <v>8.289999961853027</v>
+        <v>7.620999813079834</v>
       </c>
       <c r="D10">
-        <v>8.670000076293945</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="E10">
-        <v>8.670000076293945</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="F10">
-        <v>3742800</v>
+        <v>6440300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
+        <v>8.180000305175781</v>
+      </c>
+      <c r="B11">
         <v>8.649999618530273</v>
       </c>
-      <c r="B11">
-        <v>8.779999732971191</v>
-      </c>
       <c r="C11">
-        <v>8.550000190734863</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="D11">
-        <v>8.779999732971191</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="E11">
-        <v>8.779999732971191</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="F11">
-        <v>2739400</v>
+        <v>6172100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>8.680000305175781</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="B12">
-        <v>8.779999732971191</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="C12">
-        <v>8.303000450134277</v>
+        <v>8.359999656677246</v>
       </c>
       <c r="D12">
-        <v>8.460000038146973</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="E12">
-        <v>8.460000038146973</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="F12">
-        <v>4637300</v>
+        <v>6299700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>8.479999542236328</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="B13">
-        <v>9.260000228881836</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="C13">
-        <v>8.385000228881836</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="D13">
-        <v>8.899999618530273</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="E13">
-        <v>8.899999618530273</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="F13">
-        <v>10389300</v>
+        <v>22521100</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>8.859999656677246</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="B14">
-        <v>8.890000343322754</v>
+        <v>9.949999809265137</v>
       </c>
       <c r="C14">
-        <v>8.399999618530273</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="D14">
-        <v>8.399999618530273</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="E14">
-        <v>8.399999618530273</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="F14">
-        <v>4195900</v>
+        <v>8241500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>7.920000076293945</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="B15">
-        <v>8.324999809265137</v>
+        <v>10.10999965667725</v>
       </c>
       <c r="C15">
-        <v>7.800000190734863</v>
+        <v>9.340000152587891</v>
       </c>
       <c r="D15">
-        <v>8.170000076293945</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="E15">
-        <v>8.170000076293945</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="F15">
-        <v>5993200</v>
+        <v>10223000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>8.109999656677246</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="B16">
-        <v>8.180000305175781</v>
+        <v>10.58399963378906</v>
       </c>
       <c r="C16">
-        <v>7.659999847412109</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="D16">
-        <v>7.710000038146973</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="E16">
-        <v>7.710000038146973</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="F16">
-        <v>6781400</v>
+        <v>13876100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>7.829999923706055</v>
+        <v>9.76099967956543</v>
       </c>
       <c r="B17">
-        <v>7.868000030517578</v>
+        <v>9.789999961853027</v>
       </c>
       <c r="C17">
-        <v>7.171000003814697</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="D17">
-        <v>7.320000171661377</v>
+        <v>9.159999847412109</v>
       </c>
       <c r="E17">
-        <v>7.320000171661377</v>
+        <v>9.159999847412109</v>
       </c>
       <c r="F17">
-        <v>9616100</v>
+        <v>6768900</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6.75</v>
+        <v>9.131999969482422</v>
       </c>
       <c r="B18">
-        <v>7.09499979019165</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="C18">
-        <v>6.590000152587891</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="D18">
-        <v>6.860000133514404</v>
+        <v>9.920000076293945</v>
       </c>
       <c r="E18">
-        <v>6.860000133514404</v>
+        <v>9.920000076293945</v>
       </c>
       <c r="F18">
-        <v>14690300</v>
+        <v>7112000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.849999904632568</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="B19">
-        <v>7.079999923706055</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="C19">
-        <v>6.65500020980835</v>
+        <v>9.689999580383301</v>
       </c>
       <c r="D19">
-        <v>7.019999980926514</v>
+        <v>10.05000019073486</v>
       </c>
       <c r="E19">
-        <v>7.019999980926514</v>
+        <v>10.05000019073486</v>
       </c>
       <c r="F19">
-        <v>6923500</v>
+        <v>5814400</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>7.099999904632568</v>
+        <v>10.05000019073486</v>
       </c>
       <c r="B20">
-        <v>7.460000038146973</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C20">
-        <v>6.960000038146973</v>
+        <v>9.970000267028809</v>
       </c>
       <c r="D20">
-        <v>7.380000114440918</v>
+        <v>10.22999954223633</v>
       </c>
       <c r="E20">
-        <v>7.380000114440918</v>
+        <v>10.22999954223633</v>
       </c>
       <c r="F20">
-        <v>5368000</v>
+        <v>13299600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>7.090000152587891</v>
+        <v>10.25</v>
       </c>
       <c r="B21">
-        <v>7.239999771118164</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="C21">
-        <v>7.010000228881836</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="D21">
-        <v>7.239999771118164</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="E21">
-        <v>7.239999771118164</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="F21">
-        <v>4167500</v>
+        <v>4860500</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>7.289999961853027</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="B22">
-        <v>7.420000076293945</v>
+        <v>10.01299953460693</v>
       </c>
       <c r="C22">
-        <v>7.139999866485596</v>
+        <v>9.692999839782715</v>
       </c>
       <c r="D22">
-        <v>7.320000171661377</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="E22">
-        <v>7.320000171661377</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="F22">
-        <v>3288800</v>
+        <v>3499200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>7.349999904632568</v>
+        <v>9.729999542236328</v>
       </c>
       <c r="B23">
-        <v>7.679999828338623</v>
+        <v>9.869999885559082</v>
       </c>
       <c r="C23">
-        <v>7.25</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="D23">
-        <v>7.599999904632568</v>
+        <v>9.670000076293945</v>
       </c>
       <c r="E23">
-        <v>7.599999904632568</v>
+        <v>9.670000076293945</v>
       </c>
       <c r="F23">
-        <v>3800400</v>
+        <v>3555900</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>7.659999847412109</v>
+        <v>9.619999885559082</v>
       </c>
       <c r="B24">
-        <v>7.659999847412109</v>
+        <v>9.75</v>
       </c>
       <c r="C24">
-        <v>7.179999828338623</v>
+        <v>9.295000076293945</v>
       </c>
       <c r="D24">
-        <v>7.610000133514404</v>
+        <v>9.340000152587891</v>
       </c>
       <c r="E24">
-        <v>7.610000133514404</v>
+        <v>9.340000152587891</v>
       </c>
       <c r="F24">
-        <v>5975700</v>
+        <v>3573100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>7.650000095367432</v>
+        <v>9.25</v>
       </c>
       <c r="B25">
-        <v>8.220999717712402</v>
+        <v>9.5</v>
       </c>
       <c r="C25">
-        <v>7.620999813079834</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D25">
-        <v>8.069999694824219</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="E25">
-        <v>8.069999694824219</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="F25">
-        <v>6440300</v>
+        <v>3794600</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>8.180000305175781</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="B26">
-        <v>8.649999618530273</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="C26">
-        <v>7.980000019073486</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="D26">
-        <v>8.489999771118164</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="E26">
-        <v>8.489999771118164</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="F26">
-        <v>6172100</v>
+        <v>3274800</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>8.699999809265137</v>
+        <v>9.010000228881836</v>
       </c>
       <c r="B27">
-        <v>8.979999542236328</v>
+        <v>9.074999809265137</v>
       </c>
       <c r="C27">
-        <v>8.359999656677246</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="D27">
-        <v>8.970000267028809</v>
+        <v>8.729999542236328</v>
       </c>
       <c r="E27">
-        <v>8.970000267028809</v>
+        <v>8.729999542236328</v>
       </c>
       <c r="F27">
-        <v>6299700</v>
+        <v>5126000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>9.029999732971191</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="B28">
-        <v>9.659999847412109</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="C28">
-        <v>8.869999885559082</v>
+        <v>8.461999893188477</v>
       </c>
       <c r="D28">
-        <v>9.659999847412109</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="E28">
-        <v>9.659999847412109</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="F28">
-        <v>22521100</v>
+        <v>4343400</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>9.659999847412109</v>
+        <v>8.937000274658203</v>
       </c>
       <c r="B29">
-        <v>9.949999809265137</v>
+        <v>8.982999801635742</v>
       </c>
       <c r="C29">
-        <v>9.279999732971191</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="D29">
-        <v>9.369999885559082</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="E29">
-        <v>9.369999885559082</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="F29">
-        <v>8241500</v>
+        <v>2898900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>9.350000381469727</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="B30">
-        <v>10.10999965667725</v>
+        <v>9.25</v>
       </c>
       <c r="C30">
-        <v>9.340000152587891</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="D30">
-        <v>10.10000038146973</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="E30">
-        <v>10.10000038146973</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="F30">
-        <v>10223000</v>
+        <v>2958900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>10.14999961853027</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B31">
-        <v>10.58399963378906</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="C31">
-        <v>9.630000114440918</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="D31">
-        <v>9.659999847412109</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="E31">
-        <v>9.659999847412109</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="F31">
-        <v>13876100</v>
+        <v>3728600</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>9.76099967956543</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="B32">
-        <v>9.789999961853027</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="C32">
-        <v>9.130000114440918</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="D32">
-        <v>9.159999847412109</v>
+        <v>9.109999656677246</v>
       </c>
       <c r="E32">
-        <v>9.159999847412109</v>
+        <v>9.109999656677246</v>
       </c>
       <c r="F32">
-        <v>6768900</v>
+        <v>2780700</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>9.131999969482422</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="B33">
-        <v>9.979999542236328</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="C33">
-        <v>9.069999694824219</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D33">
-        <v>9.920000076293945</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E33">
-        <v>9.920000076293945</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F33">
-        <v>7112000</v>
+        <v>3627400</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>9.989999771118164</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B34">
-        <v>10.15999984741211</v>
+        <v>9.520999908447266</v>
       </c>
       <c r="C34">
-        <v>9.689999580383301</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="D34">
-        <v>10.05000019073486</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="E34">
-        <v>10.05000019073486</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="F34">
-        <v>5814400</v>
+        <v>3493900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>10.05000019073486</v>
+        <v>9.043999671936035</v>
       </c>
       <c r="B35">
-        <v>10.64000034332275</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="C35">
-        <v>9.970000267028809</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="D35">
-        <v>10.22999954223633</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="E35">
-        <v>10.22999954223633</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="F35">
-        <v>13299600</v>
+        <v>3795900</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>10.25</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="B36">
-        <v>10.27999973297119</v>
+        <v>9.140000343322754</v>
       </c>
       <c r="C36">
-        <v>9.699999809265137</v>
+        <v>8.670000076293945</v>
       </c>
       <c r="D36">
-        <v>9.890000343322754</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="E36">
-        <v>9.890000343322754</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="F36">
-        <v>4860500</v>
+        <v>3419000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>9.960000038146973</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="B37">
-        <v>10.01299953460693</v>
+        <v>8.960000038146973</v>
       </c>
       <c r="C37">
-        <v>9.692999839782715</v>
+        <v>8.564999580383301</v>
       </c>
       <c r="D37">
-        <v>9.819999694824219</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E37">
-        <v>9.819999694824219</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="F37">
-        <v>3499200</v>
+        <v>3052000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>9.729999542236328</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="B38">
-        <v>9.869999885559082</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C38">
-        <v>9.539999961853027</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="D38">
-        <v>9.670000076293945</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="E38">
-        <v>9.670000076293945</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="F38">
-        <v>3555900</v>
+        <v>3915400</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>9.619999885559082</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="B39">
-        <v>9.75</v>
+        <v>8.460000038146973</v>
       </c>
       <c r="C39">
-        <v>9.295000076293945</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="D39">
-        <v>9.340000152587891</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="E39">
-        <v>9.340000152587891</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="F39">
-        <v>3573100</v>
+        <v>4593900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>9.25</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="B40">
-        <v>9.5</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="C40">
-        <v>9.149999618530273</v>
+        <v>7.769999980926514</v>
       </c>
       <c r="D40">
-        <v>9.260000228881836</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="E40">
-        <v>9.260000228881836</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="F40">
-        <v>3794600</v>
+        <v>4588500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>9.260000228881836</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B41">
-        <v>9.399999618530273</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="C41">
-        <v>9.029999732971191</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D41">
-        <v>9.039999961853027</v>
+        <v>8.239999771118164</v>
       </c>
       <c r="E41">
-        <v>9.039999961853027</v>
+        <v>8.239999771118164</v>
       </c>
       <c r="F41">
-        <v>3274800</v>
+        <v>1871800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>9.010000228881836</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B42">
-        <v>9.074999809265137</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="C42">
-        <v>8.600000381469727</v>
+        <v>7.995999813079834</v>
       </c>
       <c r="D42">
-        <v>8.729999542236328</v>
+        <v>8.329999923706055</v>
       </c>
       <c r="E42">
-        <v>8.729999542236328</v>
+        <v>8.329999923706055</v>
       </c>
       <c r="F42">
-        <v>5126000</v>
+        <v>3214700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>8.689999580383301</v>
+        <v>8.520000457763672</v>
       </c>
       <c r="B43">
-        <v>8.979999542236328</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="C43">
-        <v>8.461999893188477</v>
+        <v>8.329999923706055</v>
       </c>
       <c r="D43">
-        <v>8.970000267028809</v>
+        <v>8.369999885559082</v>
       </c>
       <c r="E43">
-        <v>8.970000267028809</v>
+        <v>8.369999885559082</v>
       </c>
       <c r="F43">
-        <v>4343400</v>
+        <v>5024400</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>8.937000274658203</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="B44">
-        <v>8.982999801635742</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="C44">
-        <v>8.739999771118164</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="D44">
-        <v>8.909999847412109</v>
+        <v>7.510000228881836</v>
       </c>
       <c r="E44">
-        <v>8.909999847412109</v>
+        <v>7.510000228881836</v>
       </c>
       <c r="F44">
-        <v>2898900</v>
+        <v>9441500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>8.979999542236328</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="B45">
-        <v>9.25</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="C45">
-        <v>8.939999580383301</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="D45">
-        <v>9.020000457763672</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="E45">
-        <v>9.020000457763672</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="F45">
-        <v>2958900</v>
+        <v>6965900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>9.130000114440918</v>
+        <v>7.409999847412109</v>
       </c>
       <c r="B46">
-        <v>9.430000305175781</v>
+        <v>7.429999828338623</v>
       </c>
       <c r="C46">
-        <v>9.090000152587891</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D46">
-        <v>9.350000381469727</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E46">
-        <v>9.350000381469727</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F46">
-        <v>3728600</v>
+        <v>5386000</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>9.310000419616699</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="B47">
-        <v>9.369999885559082</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="C47">
-        <v>9.079999923706055</v>
+        <v>6.704999923706055</v>
       </c>
       <c r="D47">
-        <v>9.109999656677246</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E47">
-        <v>9.109999656677246</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F47">
-        <v>2780700</v>
+        <v>4908000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>9.149999618530273</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="B48">
-        <v>9.539999961853027</v>
+        <v>7.34499979019165</v>
       </c>
       <c r="C48">
-        <v>9.119999885559082</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D48">
-        <v>9.279999732971191</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E48">
-        <v>9.279999732971191</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F48">
-        <v>3627400</v>
+        <v>4087800</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>9.319999694824219</v>
+        <v>7.34499979019165</v>
       </c>
       <c r="B49">
-        <v>9.520999908447266</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C49">
-        <v>8.979999542236328</v>
+        <v>7.25</v>
       </c>
       <c r="D49">
-        <v>9.090000152587891</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="E49">
-        <v>9.090000152587891</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="F49">
-        <v>3493900</v>
+        <v>2993400</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>9.043999671936035</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="B50">
-        <v>9.319999694824219</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C50">
-        <v>8.920000076293945</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D50">
-        <v>9.039999961853027</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E50">
-        <v>9.039999961853027</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F50">
-        <v>3795900</v>
+        <v>3545000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>9.039999961853027</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B51">
-        <v>9.140000343322754</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="C51">
-        <v>8.670000076293945</v>
+        <v>6.932000160217285</v>
       </c>
       <c r="D51">
-        <v>8.880000114440918</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E51">
-        <v>8.880000114440918</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F51">
-        <v>3419000</v>
+        <v>2989800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>8.930000305175781</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="B52">
-        <v>8.960000038146973</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="C52">
-        <v>8.564999580383301</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D52">
-        <v>8.619999885559082</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E52">
-        <v>8.619999885559082</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F52">
-        <v>3052000</v>
+        <v>3247000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>8.600000381469727</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="B53">
-        <v>8.789999961853027</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C53">
-        <v>8.279999732971191</v>
+        <v>6.633999824523926</v>
       </c>
       <c r="D53">
-        <v>8.310000419616699</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E53">
-        <v>8.310000419616699</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F53">
-        <v>3915400</v>
+        <v>7760700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>8.310000419616699</v>
+        <v>7</v>
       </c>
       <c r="B54">
-        <v>8.460000038146973</v>
+        <v>7.548999786376953</v>
       </c>
       <c r="C54">
-        <v>7.929999828338623</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D54">
-        <v>7.980000019073486</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E54">
-        <v>7.980000019073486</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F54">
-        <v>4593900</v>
+        <v>10716900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>7.789999961853027</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="B55">
-        <v>8.159999847412109</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="C55">
-        <v>7.769999980926514</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D55">
-        <v>8.100000381469727</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E55">
-        <v>8.100000381469727</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F55">
-        <v>4588500</v>
+        <v>5687500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>8.279999732971191</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="B56">
-        <v>8.279999732971191</v>
+        <v>7.204999923706055</v>
       </c>
       <c r="C56">
-        <v>8.029999732971191</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D56">
-        <v>8.239999771118164</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E56">
-        <v>8.239999771118164</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F56">
-        <v>1871800</v>
+        <v>3880300</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>8.170000076293945</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="B57">
-        <v>8.409999847412109</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="C57">
-        <v>7.995999813079834</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D57">
-        <v>8.329999923706055</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E57">
-        <v>8.329999923706055</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F57">
-        <v>3214700</v>
+        <v>3010000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>8.520000457763672</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B58">
-        <v>8.859999656677246</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="C58">
-        <v>8.329999923706055</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D58">
-        <v>8.369999885559082</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E58">
-        <v>8.369999885559082</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F58">
-        <v>5024400</v>
+        <v>3317100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>8.380000114440918</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="B59">
-        <v>8.409999847412109</v>
+        <v>7.245999813079834</v>
       </c>
       <c r="C59">
-        <v>7.489999771118164</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="D59">
-        <v>7.510000228881836</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="E59">
-        <v>7.510000228881836</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="F59">
-        <v>9441500</v>
+        <v>4231800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>7.659999847412109</v>
+        <v>6.973999977111816</v>
       </c>
       <c r="B60">
-        <v>7.739999771118164</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C60">
-        <v>7.070000171661377</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D60">
-        <v>7.340000152587891</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E60">
-        <v>7.340000152587891</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F60">
-        <v>6965900</v>
+        <v>7007000</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>7.409999847412109</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="B61">
-        <v>7.429999828338623</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C61">
-        <v>6.980000019073486</v>
+        <v>7.135000228881836</v>
       </c>
       <c r="D61">
-        <v>7.039999961853027</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="E61">
-        <v>7.039999961853027</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="F61">
-        <v>5386000</v>
+        <v>2913800</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>6.920000076293945</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="B62">
-        <v>7.070000171661377</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C62">
-        <v>6.704999923706055</v>
+        <v>7.087999820709229</v>
       </c>
       <c r="D62">
-        <v>7.039999961853027</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E62">
-        <v>7.039999961853027</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F62">
-        <v>4908000</v>
+        <v>2366800</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>7.099999904632568</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B63">
-        <v>7.34499979019165</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C63">
-        <v>6.815000057220459</v>
+        <v>7.221000194549561</v>
       </c>
       <c r="D63">
-        <v>7.289999961853027</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="E63">
-        <v>7.289999961853027</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="F63">
-        <v>4087800</v>
+        <v>3643600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>7.34499979019165</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="B64">
-        <v>7.539999961853027</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C64">
-        <v>7.25</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D64">
-        <v>7.519999980926514</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="E64">
-        <v>7.519999980926514</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="F64">
-        <v>2993400</v>
+        <v>2599600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>7.53000020980835</v>
+        <v>7.166999816894531</v>
       </c>
       <c r="B65">
-        <v>7.550000190734863</v>
+        <v>7.166999816894531</v>
       </c>
       <c r="C65">
-        <v>7.139999866485596</v>
+        <v>6.965000152587891</v>
       </c>
       <c r="D65">
-        <v>7.210000038146973</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="E65">
-        <v>7.210000038146973</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="F65">
-        <v>3545000</v>
+        <v>3164600</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>7.21999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="B66">
-        <v>7.230000019073486</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="C66">
-        <v>6.932000160217285</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D66">
-        <v>7.079999923706055</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E66">
-        <v>7.079999923706055</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F66">
-        <v>2989800</v>
+        <v>5107300</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>7.039999961853027</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="B67">
-        <v>7.340000152587891</v>
+        <v>6.824999809265137</v>
       </c>
       <c r="C67">
-        <v>6.949999809265137</v>
+        <v>6.572000026702881</v>
       </c>
       <c r="D67">
-        <v>7.210000038146973</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="E67">
-        <v>7.210000038146973</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="F67">
-        <v>3247000</v>
+        <v>3585300</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>7.159999847412109</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="B68">
-        <v>7.400000095367432</v>
+        <v>6.764999866485596</v>
       </c>
       <c r="C68">
-        <v>6.633999824523926</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="D68">
-        <v>6.840000152587891</v>
+        <v>6.75</v>
       </c>
       <c r="E68">
-        <v>6.840000152587891</v>
+        <v>6.75</v>
       </c>
       <c r="F68">
-        <v>7760700</v>
+        <v>3673600</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>7</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B69">
-        <v>7.548999786376953</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C69">
-        <v>6.980000019073486</v>
+        <v>6.5</v>
       </c>
       <c r="D69">
-        <v>7.289999961853027</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E69">
-        <v>7.289999961853027</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F69">
-        <v>10716900</v>
+        <v>5059600</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>7.449999809265137</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="B70">
-        <v>7.46999979019165</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C70">
-        <v>7.079999923706055</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="D70">
-        <v>7.110000133514404</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E70">
-        <v>7.110000133514404</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F70">
-        <v>5687500</v>
+        <v>3915200</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>6.900000095367432</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B71">
-        <v>7.204999923706055</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C71">
-        <v>6.849999904632568</v>
+        <v>6.364999771118164</v>
       </c>
       <c r="D71">
-        <v>7.019999980926514</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E71">
-        <v>7.019999980926514</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F71">
-        <v>3880300</v>
+        <v>5468000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>7.03000020980835</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B72">
-        <v>7.300000190734863</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C72">
-        <v>6.96999979019165</v>
+        <v>6.684999942779541</v>
       </c>
       <c r="D72">
-        <v>7.079999923706055</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="E72">
-        <v>7.079999923706055</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="F72">
-        <v>3010000</v>
+        <v>3965800</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>7.090000152587891</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B73">
-        <v>7.210000038146973</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="C73">
-        <v>6.940000057220459</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D73">
-        <v>7.190000057220459</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="E73">
-        <v>7.190000057220459</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="F73">
-        <v>3317100</v>
+        <v>5279000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1860,1119 +1860,1139 @@
         <v>7.099999904632568</v>
       </c>
       <c r="B74">
-        <v>7.245999813079834</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="C74">
-        <v>6.860000133514404</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D74">
-        <v>6.929999828338623</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E74">
-        <v>6.929999828338623</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F74">
-        <v>4231800</v>
+        <v>3254900</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>6.973999977111816</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="B75">
-        <v>7.550000190734863</v>
+        <v>7.25</v>
       </c>
       <c r="C75">
-        <v>6.900000095367432</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="D75">
-        <v>7.349999904632568</v>
+        <v>7</v>
       </c>
       <c r="E75">
-        <v>7.349999904632568</v>
+        <v>7</v>
       </c>
       <c r="F75">
-        <v>7007000</v>
+        <v>3931200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>7.400000095367432</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B76">
-        <v>7.400000095367432</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="C76">
-        <v>7.135000228881836</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D76">
-        <v>7.320000171661377</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E76">
-        <v>7.320000171661377</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F76">
-        <v>2913800</v>
+        <v>3855200</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>7.309999942779541</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B77">
-        <v>7.400000095367432</v>
+        <v>7.229000091552734</v>
       </c>
       <c r="C77">
-        <v>7.087999820709229</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="D77">
-        <v>7.349999904632568</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="E77">
-        <v>7.349999904632568</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="F77">
-        <v>2366800</v>
+        <v>2992500</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>7.369999885559082</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="B78">
-        <v>7.449999809265137</v>
+        <v>7.619999885559082</v>
       </c>
       <c r="C78">
-        <v>7.221000194549561</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D78">
-        <v>7.320000171661377</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="E78">
-        <v>7.320000171661377</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="F78">
-        <v>3643600</v>
+        <v>5830500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>7.349999904632568</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B79">
-        <v>7.349999904632568</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C79">
-        <v>7.110000133514404</v>
+        <v>7.144999980926514</v>
       </c>
       <c r="D79">
-        <v>7.139999866485596</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E79">
-        <v>7.139999866485596</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F79">
-        <v>2599600</v>
+        <v>4164800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>7.166999816894531</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B80">
-        <v>7.166999816894531</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="C80">
-        <v>6.965000152587891</v>
+        <v>7.204999923706055</v>
       </c>
       <c r="D80">
-        <v>7.059999942779541</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="E80">
-        <v>7.059999942779541</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="F80">
-        <v>3164600</v>
+        <v>4084600</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>7.03000020980835</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B81">
-        <v>7.059999942779541</v>
+        <v>7.735000133514404</v>
       </c>
       <c r="C81">
-        <v>6.78000020980835</v>
+        <v>7.335000038146973</v>
       </c>
       <c r="D81">
-        <v>6.78000020980835</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E81">
-        <v>6.78000020980835</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F81">
-        <v>5107300</v>
+        <v>5841500</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>6.800000190734863</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="B82">
-        <v>6.824999809265137</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C82">
-        <v>6.572000026702881</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D82">
-        <v>6.610000133514404</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="E82">
-        <v>6.610000133514404</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="F82">
-        <v>3585300</v>
+        <v>4135100</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>6.539999961853027</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B83">
-        <v>6.764999866485596</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C83">
-        <v>6.46999979019165</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D83">
-        <v>6.75</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E83">
-        <v>6.75</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F83">
-        <v>3673600</v>
+        <v>5370900</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>6.739999771118164</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="B84">
-        <v>7.03000020980835</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="C84">
-        <v>6.5</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D84">
-        <v>6.690000057220459</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="E84">
-        <v>6.690000057220459</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="F84">
-        <v>5059600</v>
+        <v>4079600</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6.610000133514404</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B85">
-        <v>6.679999828338623</v>
+        <v>6.994999885559082</v>
       </c>
       <c r="C85">
-        <v>6.380000114440918</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D85">
-        <v>6.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E85">
-        <v>6.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F85">
-        <v>3915200</v>
+        <v>4302200</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>6.440000057220459</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B86">
-        <v>6.739999771118164</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="C86">
-        <v>6.364999771118164</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="D86">
-        <v>6.679999828338623</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E86">
-        <v>6.679999828338623</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F86">
-        <v>5468000</v>
+        <v>5296600</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6.730000019073486</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B87">
-        <v>7.099999904632568</v>
+        <v>6.701000213623047</v>
       </c>
       <c r="C87">
-        <v>6.684999942779541</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D87">
-        <v>6.949999809265137</v>
+        <v>6.5</v>
       </c>
       <c r="E87">
-        <v>6.949999809265137</v>
+        <v>6.5</v>
       </c>
       <c r="F87">
-        <v>3965800</v>
+        <v>4081100</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.989999771118164</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B88">
-        <v>7.260000228881836</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C88">
-        <v>6.880000114440918</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D88">
-        <v>7.230000019073486</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E88">
-        <v>7.230000019073486</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F88">
-        <v>5279000</v>
+        <v>3412000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>7.099999904632568</v>
+        <v>6.638999938964844</v>
       </c>
       <c r="B89">
-        <v>7.199999809265137</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C89">
-        <v>6.900000095367432</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D89">
-        <v>7.099999904632568</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E89">
-        <v>7.099999904632568</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F89">
-        <v>3254900</v>
+        <v>2144100</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>7.079999923706055</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B90">
-        <v>7.25</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C90">
-        <v>6.889999866485596</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D90">
-        <v>7</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E90">
-        <v>7</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F90">
-        <v>3931200</v>
+        <v>3191300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>6.989999771118164</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B91">
-        <v>7.210000038146973</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C91">
-        <v>6.900000095367432</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D91">
-        <v>7.179999828338623</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E91">
-        <v>7.179999828338623</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="F91">
-        <v>3855200</v>
+        <v>6981800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>7.179999828338623</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B92">
-        <v>7.229000091552734</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C92">
-        <v>6.989999771118164</v>
+        <v>5.985000133514404</v>
       </c>
       <c r="D92">
-        <v>7.139999866485596</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E92">
-        <v>7.139999866485596</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F92">
-        <v>2992500</v>
+        <v>9683300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>7.139999866485596</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B93">
-        <v>7.619999885559082</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="C93">
-        <v>7.079999923706055</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D93">
-        <v>7.420000076293945</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E93">
-        <v>7.420000076293945</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F93">
-        <v>5830500</v>
+        <v>8517800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>7.489999771118164</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B94">
-        <v>7.590000152587891</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="C94">
-        <v>7.144999980926514</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D94">
-        <v>7.199999809265137</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E94">
-        <v>7.199999809265137</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F94">
-        <v>4164800</v>
+        <v>5399300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>7.239999771118164</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B95">
-        <v>7.570000171661377</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C95">
-        <v>7.204999923706055</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D95">
-        <v>7.440000057220459</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E95">
-        <v>7.440000057220459</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F95">
-        <v>4084600</v>
+        <v>5322300</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>7.460000038146973</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B96">
-        <v>7.735000133514404</v>
+        <v>6.5</v>
       </c>
       <c r="C96">
-        <v>7.335000038146973</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D96">
-        <v>7.389999866485596</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="E96">
-        <v>7.389999866485596</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="F96">
-        <v>5841500</v>
+        <v>11547700</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>7.340000152587891</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B97">
-        <v>7.550000190734863</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="C97">
-        <v>7.130000114440918</v>
+        <v>6.25</v>
       </c>
       <c r="D97">
-        <v>7.159999847412109</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="E97">
-        <v>7.159999847412109</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="F97">
-        <v>4135100</v>
+        <v>13804600</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>7.110000133514404</v>
+        <v>6.75</v>
       </c>
       <c r="B98">
-        <v>7.159999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C98">
-        <v>6.829999923706055</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D98">
-        <v>6.889999866485596</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="E98">
-        <v>6.889999866485596</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="F98">
-        <v>5370900</v>
+        <v>6806600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>6.869999885559082</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B99">
-        <v>7.010000228881836</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C99">
-        <v>6.829999923706055</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D99">
-        <v>6.909999847412109</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E99">
-        <v>6.909999847412109</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F99">
-        <v>4079600</v>
+        <v>5328000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>6.980000019073486</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B100">
-        <v>6.994999885559082</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="C100">
-        <v>6.619999885559082</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D100">
-        <v>6.630000114440918</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E100">
-        <v>6.630000114440918</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F100">
-        <v>4302200</v>
+        <v>4481100</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>6.670000076293945</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B101">
-        <v>6.730000019073486</v>
+        <v>7.09499979019165</v>
       </c>
       <c r="C101">
-        <v>6.460000038146973</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D101">
-        <v>6.630000114440918</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E101">
-        <v>6.630000114440918</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F101">
-        <v>5296600</v>
+        <v>4141300</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>6.619999885559082</v>
+        <v>7</v>
       </c>
       <c r="B102">
-        <v>6.701000213623047</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C102">
-        <v>6.400000095367432</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D102">
-        <v>6.5</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E102">
-        <v>6.5</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F102">
-        <v>4081100</v>
+        <v>5011000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>6.480000019073486</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B103">
-        <v>6.710000038146973</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C103">
-        <v>6.429999828338623</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D103">
-        <v>6.679999828338623</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E103">
-        <v>6.679999828338623</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F103">
-        <v>3412000</v>
+        <v>3260100</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>6.638999938964844</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B104">
-        <v>6.739999771118164</v>
+        <v>7.5</v>
       </c>
       <c r="C104">
-        <v>6.559999942779541</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="D104">
-        <v>6.619999885559082</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E104">
-        <v>6.619999885559082</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F104">
-        <v>2144100</v>
+        <v>3162800</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>6.630000114440918</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B105">
-        <v>6.679999828338623</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C105">
-        <v>6.429999828338623</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D105">
-        <v>6.630000114440918</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E105">
-        <v>6.630000114440918</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F105">
-        <v>3191300</v>
+        <v>3929200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>6.409999847412109</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B106">
-        <v>6.409999847412109</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="C106">
-        <v>6.010000228881836</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D106">
-        <v>6.130000114440918</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E106">
-        <v>6.130000114440918</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F106">
-        <v>6981800</v>
+        <v>1903700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>6.159999847412109</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B107">
-        <v>6.349999904632568</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C107">
-        <v>5.985000133514404</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D107">
-        <v>6.03000020980835</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E107">
-        <v>6.03000020980835</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F107">
-        <v>9683300</v>
+        <v>2073800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>6.010000228881836</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B108">
-        <v>6.110000133514404</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C108">
-        <v>5.849999904632568</v>
+        <v>7</v>
       </c>
       <c r="D108">
-        <v>6.010000228881836</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E108">
-        <v>6.010000228881836</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F108">
-        <v>8517800</v>
+        <v>1730900</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>6.119999885559082</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B109">
-        <v>6.224999904632568</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C109">
-        <v>6.079999923706055</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D109">
-        <v>6.150000095367432</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="E109">
-        <v>6.150000095367432</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="F109">
-        <v>5399300</v>
+        <v>3378300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>6.070000171661377</v>
+        <v>7.276999950408936</v>
       </c>
       <c r="B110">
-        <v>6.099999904632568</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C110">
-        <v>5.920000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D110">
-        <v>5.949999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E110">
-        <v>5.949999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F110">
-        <v>5322300</v>
+        <v>2760200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>6.010000228881836</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B111">
-        <v>6.5</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C111">
-        <v>5.889999866485596</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D111">
-        <v>6.385000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E111">
-        <v>6.385000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F111">
-        <v>11547700</v>
+        <v>3212700</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>6.289999961853027</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="B112">
-        <v>6.989999771118164</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C112">
-        <v>6.25</v>
+        <v>6.90500020980835</v>
       </c>
       <c r="D112">
-        <v>6.809999942779541</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E112">
-        <v>6.809999942779541</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="F112">
-        <v>13804600</v>
+        <v>5392400</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>6.75</v>
+        <v>7.402999877929688</v>
       </c>
       <c r="B113">
-        <v>6.840000152587891</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="C113">
-        <v>6.480000019073486</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D113">
-        <v>6.739999771118164</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E113">
-        <v>6.739999771118164</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="F113">
-        <v>6806600</v>
+        <v>7013500</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>6.630000114440918</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="B114">
-        <v>6.980000019073486</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="C114">
-        <v>6.610000133514404</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="D114">
-        <v>6.920000076293945</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="E114">
-        <v>6.920000076293945</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="F114">
-        <v>5328000</v>
+        <v>5693300</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>6.880000114440918</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="B115">
-        <v>7.119999885559082</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C115">
-        <v>6.815000057220459</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="D115">
-        <v>7.079999923706055</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E115">
-        <v>7.079999923706055</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F115">
-        <v>4481100</v>
+        <v>3465700</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>7.019999980926514</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B116">
-        <v>7.09499979019165</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C116">
-        <v>6.920000076293945</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D116">
-        <v>7.039999961853027</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E116">
-        <v>7.039999961853027</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F116">
-        <v>4141300</v>
+        <v>2620400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>7</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B117">
-        <v>7.449999809265137</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="C117">
-        <v>6.980000019073486</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D117">
-        <v>7.300000190734863</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E117">
-        <v>7.300000190734863</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F117">
-        <v>5011000</v>
+        <v>5378800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>7.179999828338623</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B118">
-        <v>7.400000095367432</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C118">
-        <v>7.179999828338623</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="D118">
-        <v>7.349999904632568</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E118">
-        <v>7.349999904632568</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F118">
-        <v>3260100</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>7.420000076293945</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="B119">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="C119">
-        <v>7.230000019073486</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="D119">
-        <v>7.380000114440918</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="E119">
-        <v>7.380000114440918</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="F119">
-        <v>3162800</v>
+        <v>2371800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>7.369999885559082</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="B120">
-        <v>7.599999904632568</v>
+        <v>7</v>
       </c>
       <c r="C120">
-        <v>7.170000076293945</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D120">
-        <v>7.210000038146973</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E120">
-        <v>7.210000038146973</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F120">
-        <v>3929200</v>
+        <v>2863000</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>7.170000076293945</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B121">
-        <v>7.21999979019165</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C121">
-        <v>7.010000228881836</v>
+        <v>6.561999797821045</v>
       </c>
       <c r="D121">
-        <v>7.010000228881836</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="E121">
-        <v>7.010000228881836</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="F121">
-        <v>1903700</v>
+        <v>3819900</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>7.090000152587891</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B122">
-        <v>7.170000076293945</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C122">
-        <v>6.96999979019165</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D122">
-        <v>7.019999980926514</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="E122">
-        <v>7.019999980926514</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F122">
-        <v>2073800</v>
+        <v>2454900</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>7.090000152587891</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B123">
-        <v>7.170000076293945</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C123">
-        <v>7</v>
+        <v>6.810999870300293</v>
       </c>
       <c r="D123">
-        <v>7.110000133514404</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E123">
-        <v>7.110000133514404</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F123">
-        <v>1730900</v>
+        <v>4095900</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>7.170000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B124">
-        <v>7.440000057220459</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="C124">
-        <v>7.139999866485596</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D124">
-        <v>7.260000228881836</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="E124">
-        <v>7.260000228881836</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="F124">
-        <v>3378300</v>
+        <v>3208900</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>7.276999950408936</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="B125">
-        <v>7.289999961853027</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C125">
-        <v>7.010000228881836</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D125">
-        <v>7.03000020980835</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E125">
-        <v>7.03000020980835</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F125">
-        <v>2760200</v>
+        <v>6610600</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>7.010000228881836</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B126">
-        <v>7.03000020980835</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C126">
-        <v>6.869999885559082</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D126">
-        <v>6.920000076293945</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E126">
-        <v>6.920000076293945</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F126">
-        <v>3212700</v>
+        <v>11837300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>6.949999809265137</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B127">
-        <v>7.449999809265137</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C127">
-        <v>6.90500020980835</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D127">
-        <v>7.449999809265137</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="E127">
-        <v>7.449999809265137</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="F127">
-        <v>5392400</v>
+        <v>7869700</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>7.402999877929688</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B128">
-        <v>7.800000190734863</v>
+        <v>7.5</v>
       </c>
       <c r="C128">
-        <v>7.300000190734863</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D128">
-        <v>7.659999847412109</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E128">
-        <v>7.659999847412109</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F128">
-        <v>7013500</v>
+        <v>6218500</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>7.599999904632568</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="B129">
-        <v>7.880000114440918</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C129">
-        <v>7.369999885559082</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D129">
-        <v>7.369999885559082</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E129">
-        <v>7.369999885559082</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F129">
-        <v>5685000</v>
+        <v>6070700</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>7.75</v>
+      </c>
+      <c r="B130">
+        <v>8.579999923706055</v>
+      </c>
+      <c r="C130">
+        <v>7.730000019073486</v>
+      </c>
+      <c r="D130">
+        <v>8.5</v>
+      </c>
+      <c r="E130">
+        <v>8.5</v>
+      </c>
+      <c r="F130">
+        <v>19189200</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/ACB/HighLow.xlsx
+++ b/Stocks/ACB/HighLow.xlsx
@@ -417,13 +417,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>7.829999923706055</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="B2">
-        <v>7.868000030517578</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="C2">
-        <v>7.171000003814697</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D2">
         <v>7.320000171661377</v>
@@ -432,1658 +432,1658 @@
         <v>7.320000171661377</v>
       </c>
       <c r="F2">
-        <v>9616100</v>
+        <v>3288800</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>6.75</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="B3">
-        <v>7.09499979019165</v>
+        <v>7.679999828338623</v>
       </c>
       <c r="C3">
-        <v>6.590000152587891</v>
+        <v>7.25</v>
       </c>
       <c r="D3">
-        <v>6.860000133514404</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="E3">
-        <v>6.860000133514404</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="F3">
-        <v>14690300</v>
+        <v>3800400</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>6.849999904632568</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="B4">
-        <v>7.079999923706055</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C4">
-        <v>6.65500020980835</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D4">
-        <v>7.019999980926514</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="E4">
-        <v>7.019999980926514</v>
+        <v>7.610000133514404</v>
       </c>
       <c r="F4">
-        <v>6923500</v>
+        <v>5975700</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>7.099999904632568</v>
+        <v>7.650000095367432</v>
       </c>
       <c r="B5">
-        <v>7.460000038146973</v>
+        <v>8.220999717712402</v>
       </c>
       <c r="C5">
-        <v>6.960000038146973</v>
+        <v>7.620999813079834</v>
       </c>
       <c r="D5">
-        <v>7.380000114440918</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="E5">
-        <v>7.380000114440918</v>
+        <v>8.069999694824219</v>
       </c>
       <c r="F5">
-        <v>5368000</v>
+        <v>6440300</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>7.090000152587891</v>
+        <v>8.180000305175781</v>
       </c>
       <c r="B6">
-        <v>7.239999771118164</v>
+        <v>8.649999618530273</v>
       </c>
       <c r="C6">
-        <v>7.010000228881836</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="D6">
-        <v>7.239999771118164</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="E6">
-        <v>7.239999771118164</v>
+        <v>8.489999771118164</v>
       </c>
       <c r="F6">
-        <v>4167500</v>
+        <v>6172100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>7.289999961853027</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="B7">
-        <v>7.420000076293945</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="C7">
-        <v>7.139999866485596</v>
+        <v>8.359999656677246</v>
       </c>
       <c r="D7">
-        <v>7.320000171661377</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="E7">
-        <v>7.320000171661377</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="F7">
-        <v>3288800</v>
+        <v>6299700</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7.349999904632568</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="B8">
-        <v>7.679999828338623</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="C8">
-        <v>7.25</v>
+        <v>8.869999885559082</v>
       </c>
       <c r="D8">
-        <v>7.599999904632568</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="E8">
-        <v>7.599999904632568</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="F8">
-        <v>3800400</v>
+        <v>22521100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>7.659999847412109</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="B9">
-        <v>7.659999847412109</v>
+        <v>9.949999809265137</v>
       </c>
       <c r="C9">
-        <v>7.179999828338623</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="D9">
-        <v>7.610000133514404</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="E9">
-        <v>7.610000133514404</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="F9">
-        <v>5975700</v>
+        <v>8241500</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>7.650000095367432</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="B10">
-        <v>8.220999717712402</v>
+        <v>10.10999965667725</v>
       </c>
       <c r="C10">
-        <v>7.620999813079834</v>
+        <v>9.340000152587891</v>
       </c>
       <c r="D10">
-        <v>8.069999694824219</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="E10">
-        <v>8.069999694824219</v>
+        <v>10.10000038146973</v>
       </c>
       <c r="F10">
-        <v>6440300</v>
+        <v>10223000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>8.180000305175781</v>
+        <v>10.14999961853027</v>
       </c>
       <c r="B11">
-        <v>8.649999618530273</v>
+        <v>10.58399963378906</v>
       </c>
       <c r="C11">
-        <v>7.980000019073486</v>
+        <v>9.630000114440918</v>
       </c>
       <c r="D11">
-        <v>8.489999771118164</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="E11">
-        <v>8.489999771118164</v>
+        <v>9.659999847412109</v>
       </c>
       <c r="F11">
-        <v>6172100</v>
+        <v>13876100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>8.699999809265137</v>
+        <v>9.76099967956543</v>
       </c>
       <c r="B12">
-        <v>8.979999542236328</v>
+        <v>9.789999961853027</v>
       </c>
       <c r="C12">
-        <v>8.359999656677246</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="D12">
-        <v>8.970000267028809</v>
+        <v>9.159999847412109</v>
       </c>
       <c r="E12">
-        <v>8.970000267028809</v>
+        <v>9.159999847412109</v>
       </c>
       <c r="F12">
-        <v>6299700</v>
+        <v>6768900</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>9.029999732971191</v>
+        <v>9.131999969482422</v>
       </c>
       <c r="B13">
-        <v>9.659999847412109</v>
+        <v>9.979999542236328</v>
       </c>
       <c r="C13">
-        <v>8.869999885559082</v>
+        <v>9.069999694824219</v>
       </c>
       <c r="D13">
-        <v>9.659999847412109</v>
+        <v>9.920000076293945</v>
       </c>
       <c r="E13">
-        <v>9.659999847412109</v>
+        <v>9.920000076293945</v>
       </c>
       <c r="F13">
-        <v>22521100</v>
+        <v>7112000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>9.659999847412109</v>
+        <v>9.989999771118164</v>
       </c>
       <c r="B14">
-        <v>9.949999809265137</v>
+        <v>10.15999984741211</v>
       </c>
       <c r="C14">
-        <v>9.279999732971191</v>
+        <v>9.689999580383301</v>
       </c>
       <c r="D14">
-        <v>9.369999885559082</v>
+        <v>10.05000019073486</v>
       </c>
       <c r="E14">
-        <v>9.369999885559082</v>
+        <v>10.05000019073486</v>
       </c>
       <c r="F14">
-        <v>8241500</v>
+        <v>5814400</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>9.350000381469727</v>
+        <v>10.05000019073486</v>
       </c>
       <c r="B15">
-        <v>10.10999965667725</v>
+        <v>10.64000034332275</v>
       </c>
       <c r="C15">
-        <v>9.340000152587891</v>
+        <v>9.970000267028809</v>
       </c>
       <c r="D15">
-        <v>10.10000038146973</v>
+        <v>10.22999954223633</v>
       </c>
       <c r="E15">
-        <v>10.10000038146973</v>
+        <v>10.22999954223633</v>
       </c>
       <c r="F15">
-        <v>10223000</v>
+        <v>13299600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>10.14999961853027</v>
+        <v>10.25</v>
       </c>
       <c r="B16">
-        <v>10.58399963378906</v>
+        <v>10.27999973297119</v>
       </c>
       <c r="C16">
-        <v>9.630000114440918</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="D16">
-        <v>9.659999847412109</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="E16">
-        <v>9.659999847412109</v>
+        <v>9.890000343322754</v>
       </c>
       <c r="F16">
-        <v>13876100</v>
+        <v>4860500</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>9.76099967956543</v>
+        <v>9.960000038146973</v>
       </c>
       <c r="B17">
-        <v>9.789999961853027</v>
+        <v>10.01299953460693</v>
       </c>
       <c r="C17">
-        <v>9.130000114440918</v>
+        <v>9.692999839782715</v>
       </c>
       <c r="D17">
-        <v>9.159999847412109</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="E17">
-        <v>9.159999847412109</v>
+        <v>9.819999694824219</v>
       </c>
       <c r="F17">
-        <v>6768900</v>
+        <v>3499200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>9.131999969482422</v>
+        <v>9.729999542236328</v>
       </c>
       <c r="B18">
-        <v>9.979999542236328</v>
+        <v>9.869999885559082</v>
       </c>
       <c r="C18">
-        <v>9.069999694824219</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="D18">
-        <v>9.920000076293945</v>
+        <v>9.670000076293945</v>
       </c>
       <c r="E18">
-        <v>9.920000076293945</v>
+        <v>9.670000076293945</v>
       </c>
       <c r="F18">
-        <v>7112000</v>
+        <v>3555900</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>9.989999771118164</v>
+        <v>9.619999885559082</v>
       </c>
       <c r="B19">
-        <v>10.15999984741211</v>
+        <v>9.75</v>
       </c>
       <c r="C19">
-        <v>9.689999580383301</v>
+        <v>9.295000076293945</v>
       </c>
       <c r="D19">
-        <v>10.05000019073486</v>
+        <v>9.340000152587891</v>
       </c>
       <c r="E19">
-        <v>10.05000019073486</v>
+        <v>9.340000152587891</v>
       </c>
       <c r="F19">
-        <v>5814400</v>
+        <v>3573100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>10.05000019073486</v>
+        <v>9.25</v>
       </c>
       <c r="B20">
-        <v>10.64000034332275</v>
+        <v>9.5</v>
       </c>
       <c r="C20">
-        <v>9.970000267028809</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="D20">
-        <v>10.22999954223633</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="E20">
-        <v>10.22999954223633</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="F20">
-        <v>13299600</v>
+        <v>3794600</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>10.25</v>
+        <v>9.260000228881836</v>
       </c>
       <c r="B21">
-        <v>10.27999973297119</v>
+        <v>9.399999618530273</v>
       </c>
       <c r="C21">
-        <v>9.699999809265137</v>
+        <v>9.029999732971191</v>
       </c>
       <c r="D21">
-        <v>9.890000343322754</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="E21">
-        <v>9.890000343322754</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="F21">
-        <v>4860500</v>
+        <v>3274800</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>9.960000038146973</v>
+        <v>9.010000228881836</v>
       </c>
       <c r="B22">
-        <v>10.01299953460693</v>
+        <v>9.074999809265137</v>
       </c>
       <c r="C22">
-        <v>9.692999839782715</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="D22">
-        <v>9.819999694824219</v>
+        <v>8.729999542236328</v>
       </c>
       <c r="E22">
-        <v>9.819999694824219</v>
+        <v>8.729999542236328</v>
       </c>
       <c r="F22">
-        <v>3499200</v>
+        <v>5126000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>9.729999542236328</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="B23">
-        <v>9.869999885559082</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="C23">
-        <v>9.539999961853027</v>
+        <v>8.461999893188477</v>
       </c>
       <c r="D23">
-        <v>9.670000076293945</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="E23">
-        <v>9.670000076293945</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="F23">
-        <v>3555900</v>
+        <v>4343400</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>9.619999885559082</v>
+        <v>8.937000274658203</v>
       </c>
       <c r="B24">
-        <v>9.75</v>
+        <v>8.982999801635742</v>
       </c>
       <c r="C24">
-        <v>9.295000076293945</v>
+        <v>8.739999771118164</v>
       </c>
       <c r="D24">
-        <v>9.340000152587891</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="E24">
-        <v>9.340000152587891</v>
+        <v>8.909999847412109</v>
       </c>
       <c r="F24">
-        <v>3573100</v>
+        <v>2898900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
+        <v>8.979999542236328</v>
+      </c>
+      <c r="B25">
         <v>9.25</v>
       </c>
-      <c r="B25">
-        <v>9.5</v>
-      </c>
       <c r="C25">
-        <v>9.149999618530273</v>
+        <v>8.939999580383301</v>
       </c>
       <c r="D25">
-        <v>9.260000228881836</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="E25">
-        <v>9.260000228881836</v>
+        <v>9.020000457763672</v>
       </c>
       <c r="F25">
-        <v>3794600</v>
+        <v>2958900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>9.260000228881836</v>
+        <v>9.130000114440918</v>
       </c>
       <c r="B26">
-        <v>9.399999618530273</v>
+        <v>9.430000305175781</v>
       </c>
       <c r="C26">
-        <v>9.029999732971191</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="D26">
-        <v>9.039999961853027</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="E26">
-        <v>9.039999961853027</v>
+        <v>9.350000381469727</v>
       </c>
       <c r="F26">
-        <v>3274800</v>
+        <v>3728600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>9.010000228881836</v>
+        <v>9.310000419616699</v>
       </c>
       <c r="B27">
-        <v>9.074999809265137</v>
+        <v>9.369999885559082</v>
       </c>
       <c r="C27">
-        <v>8.600000381469727</v>
+        <v>9.079999923706055</v>
       </c>
       <c r="D27">
-        <v>8.729999542236328</v>
+        <v>9.109999656677246</v>
       </c>
       <c r="E27">
-        <v>8.729999542236328</v>
+        <v>9.109999656677246</v>
       </c>
       <c r="F27">
-        <v>5126000</v>
+        <v>2780700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>8.689999580383301</v>
+        <v>9.149999618530273</v>
       </c>
       <c r="B28">
-        <v>8.979999542236328</v>
+        <v>9.539999961853027</v>
       </c>
       <c r="C28">
-        <v>8.461999893188477</v>
+        <v>9.119999885559082</v>
       </c>
       <c r="D28">
-        <v>8.970000267028809</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="E28">
-        <v>8.970000267028809</v>
+        <v>9.279999732971191</v>
       </c>
       <c r="F28">
-        <v>4343400</v>
+        <v>3627400</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>8.937000274658203</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="B29">
-        <v>8.982999801635742</v>
+        <v>9.520999908447266</v>
       </c>
       <c r="C29">
-        <v>8.739999771118164</v>
+        <v>8.979999542236328</v>
       </c>
       <c r="D29">
-        <v>8.909999847412109</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="E29">
-        <v>8.909999847412109</v>
+        <v>9.090000152587891</v>
       </c>
       <c r="F29">
-        <v>2898900</v>
+        <v>3493900</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>8.979999542236328</v>
+        <v>9.043999671936035</v>
       </c>
       <c r="B30">
-        <v>9.25</v>
+        <v>9.319999694824219</v>
       </c>
       <c r="C30">
-        <v>8.939999580383301</v>
+        <v>8.920000076293945</v>
       </c>
       <c r="D30">
-        <v>9.020000457763672</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="E30">
-        <v>9.020000457763672</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="F30">
-        <v>2958900</v>
+        <v>3795900</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>9.130000114440918</v>
+        <v>9.039999961853027</v>
       </c>
       <c r="B31">
-        <v>9.430000305175781</v>
+        <v>9.140000343322754</v>
       </c>
       <c r="C31">
-        <v>9.090000152587891</v>
+        <v>8.670000076293945</v>
       </c>
       <c r="D31">
-        <v>9.350000381469727</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="E31">
-        <v>9.350000381469727</v>
+        <v>8.880000114440918</v>
       </c>
       <c r="F31">
-        <v>3728600</v>
+        <v>3419000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>9.310000419616699</v>
+        <v>8.930000305175781</v>
       </c>
       <c r="B32">
-        <v>9.369999885559082</v>
+        <v>8.960000038146973</v>
       </c>
       <c r="C32">
-        <v>9.079999923706055</v>
+        <v>8.564999580383301</v>
       </c>
       <c r="D32">
-        <v>9.109999656677246</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="E32">
-        <v>9.109999656677246</v>
+        <v>8.619999885559082</v>
       </c>
       <c r="F32">
-        <v>2780700</v>
+        <v>3052000</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>9.149999618530273</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="B33">
-        <v>9.539999961853027</v>
+        <v>8.789999961853027</v>
       </c>
       <c r="C33">
-        <v>9.119999885559082</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="D33">
-        <v>9.279999732971191</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="E33">
-        <v>9.279999732971191</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="F33">
-        <v>3627400</v>
+        <v>3915400</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>9.319999694824219</v>
+        <v>8.310000419616699</v>
       </c>
       <c r="B34">
-        <v>9.520999908447266</v>
+        <v>8.460000038146973</v>
       </c>
       <c r="C34">
-        <v>8.979999542236328</v>
+        <v>7.929999828338623</v>
       </c>
       <c r="D34">
-        <v>9.090000152587891</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="E34">
-        <v>9.090000152587891</v>
+        <v>7.980000019073486</v>
       </c>
       <c r="F34">
-        <v>3493900</v>
+        <v>4593900</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>9.043999671936035</v>
+        <v>7.789999961853027</v>
       </c>
       <c r="B35">
-        <v>9.319999694824219</v>
+        <v>8.159999847412109</v>
       </c>
       <c r="C35">
-        <v>8.920000076293945</v>
+        <v>7.769999980926514</v>
       </c>
       <c r="D35">
-        <v>9.039999961853027</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="E35">
-        <v>9.039999961853027</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="F35">
-        <v>3795900</v>
+        <v>4588500</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>9.039999961853027</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="B36">
-        <v>9.140000343322754</v>
+        <v>8.279999732971191</v>
       </c>
       <c r="C36">
-        <v>8.670000076293945</v>
+        <v>8.029999732971191</v>
       </c>
       <c r="D36">
-        <v>8.880000114440918</v>
+        <v>8.239999771118164</v>
       </c>
       <c r="E36">
-        <v>8.880000114440918</v>
+        <v>8.239999771118164</v>
       </c>
       <c r="F36">
-        <v>3419000</v>
+        <v>1871800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>8.930000305175781</v>
+        <v>8.170000076293945</v>
       </c>
       <c r="B37">
-        <v>8.960000038146973</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="C37">
-        <v>8.564999580383301</v>
+        <v>7.995999813079834</v>
       </c>
       <c r="D37">
-        <v>8.619999885559082</v>
+        <v>8.329999923706055</v>
       </c>
       <c r="E37">
-        <v>8.619999885559082</v>
+        <v>8.329999923706055</v>
       </c>
       <c r="F37">
-        <v>3052000</v>
+        <v>3214700</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>8.600000381469727</v>
+        <v>8.520000457763672</v>
       </c>
       <c r="B38">
-        <v>8.789999961853027</v>
+        <v>8.859999656677246</v>
       </c>
       <c r="C38">
-        <v>8.279999732971191</v>
+        <v>8.329999923706055</v>
       </c>
       <c r="D38">
-        <v>8.310000419616699</v>
+        <v>8.369999885559082</v>
       </c>
       <c r="E38">
-        <v>8.310000419616699</v>
+        <v>8.369999885559082</v>
       </c>
       <c r="F38">
-        <v>3915400</v>
+        <v>5024400</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>8.310000419616699</v>
+        <v>8.380000114440918</v>
       </c>
       <c r="B39">
-        <v>8.460000038146973</v>
+        <v>8.409999847412109</v>
       </c>
       <c r="C39">
-        <v>7.929999828338623</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="D39">
-        <v>7.980000019073486</v>
+        <v>7.510000228881836</v>
       </c>
       <c r="E39">
-        <v>7.980000019073486</v>
+        <v>7.510000228881836</v>
       </c>
       <c r="F39">
-        <v>4593900</v>
+        <v>9441500</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.789999961853027</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="B40">
-        <v>8.159999847412109</v>
+        <v>7.739999771118164</v>
       </c>
       <c r="C40">
-        <v>7.769999980926514</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="D40">
-        <v>8.100000381469727</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="E40">
-        <v>8.100000381469727</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="F40">
-        <v>4588500</v>
+        <v>6965900</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>8.279999732971191</v>
+        <v>7.409999847412109</v>
       </c>
       <c r="B41">
-        <v>8.279999732971191</v>
+        <v>7.429999828338623</v>
       </c>
       <c r="C41">
-        <v>8.029999732971191</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D41">
-        <v>8.239999771118164</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E41">
-        <v>8.239999771118164</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F41">
-        <v>1871800</v>
+        <v>5386000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>8.170000076293945</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="B42">
-        <v>8.409999847412109</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="C42">
-        <v>7.995999813079834</v>
+        <v>6.704999923706055</v>
       </c>
       <c r="D42">
-        <v>8.329999923706055</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E42">
-        <v>8.329999923706055</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F42">
-        <v>3214700</v>
+        <v>4908000</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>8.520000457763672</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="B43">
-        <v>8.859999656677246</v>
+        <v>7.34499979019165</v>
       </c>
       <c r="C43">
-        <v>8.329999923706055</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D43">
-        <v>8.369999885559082</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E43">
-        <v>8.369999885559082</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F43">
-        <v>5024400</v>
+        <v>4087800</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>8.380000114440918</v>
+        <v>7.34499979019165</v>
       </c>
       <c r="B44">
-        <v>8.409999847412109</v>
+        <v>7.539999961853027</v>
       </c>
       <c r="C44">
-        <v>7.489999771118164</v>
+        <v>7.25</v>
       </c>
       <c r="D44">
-        <v>7.510000228881836</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="E44">
-        <v>7.510000228881836</v>
+        <v>7.519999980926514</v>
       </c>
       <c r="F44">
-        <v>9441500</v>
+        <v>2993400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.659999847412109</v>
+        <v>7.53000020980835</v>
       </c>
       <c r="B45">
-        <v>7.739999771118164</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C45">
-        <v>7.070000171661377</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D45">
-        <v>7.340000152587891</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E45">
-        <v>7.340000152587891</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F45">
-        <v>6965900</v>
+        <v>3545000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>7.409999847412109</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B46">
-        <v>7.429999828338623</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="C46">
-        <v>6.980000019073486</v>
+        <v>6.932000160217285</v>
       </c>
       <c r="D46">
-        <v>7.039999961853027</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E46">
-        <v>7.039999961853027</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F46">
-        <v>5386000</v>
+        <v>2989800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>6.920000076293945</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="B47">
-        <v>7.070000171661377</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="C47">
-        <v>6.704999923706055</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="D47">
-        <v>7.039999961853027</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E47">
-        <v>7.039999961853027</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F47">
-        <v>4908000</v>
+        <v>3247000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>7.099999904632568</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="B48">
-        <v>7.34499979019165</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C48">
-        <v>6.815000057220459</v>
+        <v>6.633999824523926</v>
       </c>
       <c r="D48">
-        <v>7.289999961853027</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E48">
-        <v>7.289999961853027</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F48">
-        <v>4087800</v>
+        <v>7760700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>7.34499979019165</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>7.539999961853027</v>
+        <v>7.548999786376953</v>
       </c>
       <c r="C49">
-        <v>7.25</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D49">
-        <v>7.519999980926514</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="E49">
-        <v>7.519999980926514</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="F49">
-        <v>2993400</v>
+        <v>10716900</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>7.53000020980835</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="B50">
-        <v>7.550000190734863</v>
+        <v>7.46999979019165</v>
       </c>
       <c r="C50">
-        <v>7.139999866485596</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D50">
-        <v>7.210000038146973</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E50">
-        <v>7.210000038146973</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F50">
-        <v>3545000</v>
+        <v>5687500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>7.21999979019165</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="B51">
-        <v>7.230000019073486</v>
+        <v>7.204999923706055</v>
       </c>
       <c r="C51">
-        <v>6.932000160217285</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="D51">
-        <v>7.079999923706055</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E51">
-        <v>7.079999923706055</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F51">
-        <v>2989800</v>
+        <v>3880300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>7.039999961853027</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="B52">
-        <v>7.340000152587891</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="C52">
-        <v>6.949999809265137</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D52">
-        <v>7.210000038146973</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E52">
-        <v>7.210000038146973</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F52">
-        <v>3247000</v>
+        <v>3010000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>7.159999847412109</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B53">
-        <v>7.400000095367432</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="C53">
-        <v>6.633999824523926</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D53">
-        <v>6.840000152587891</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="E53">
-        <v>6.840000152587891</v>
+        <v>7.190000057220459</v>
       </c>
       <c r="F53">
-        <v>7760700</v>
+        <v>3317100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>7</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="B54">
-        <v>7.548999786376953</v>
+        <v>7.245999813079834</v>
       </c>
       <c r="C54">
-        <v>6.980000019073486</v>
+        <v>6.860000133514404</v>
       </c>
       <c r="D54">
-        <v>7.289999961853027</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="E54">
-        <v>7.289999961853027</v>
+        <v>6.929999828338623</v>
       </c>
       <c r="F54">
-        <v>10716900</v>
+        <v>4231800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>7.449999809265137</v>
+        <v>6.973999977111816</v>
       </c>
       <c r="B55">
-        <v>7.46999979019165</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C55">
-        <v>7.079999923706055</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D55">
-        <v>7.110000133514404</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E55">
-        <v>7.110000133514404</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F55">
-        <v>5687500</v>
+        <v>7007000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>6.900000095367432</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="B56">
-        <v>7.204999923706055</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C56">
-        <v>6.849999904632568</v>
+        <v>7.135000228881836</v>
       </c>
       <c r="D56">
-        <v>7.019999980926514</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="E56">
-        <v>7.019999980926514</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="F56">
-        <v>3880300</v>
+        <v>2913800</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>7.03000020980835</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="B57">
-        <v>7.300000190734863</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C57">
-        <v>6.96999979019165</v>
+        <v>7.087999820709229</v>
       </c>
       <c r="D57">
-        <v>7.079999923706055</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E57">
-        <v>7.079999923706055</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F57">
-        <v>3010000</v>
+        <v>2366800</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>7.090000152587891</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B58">
-        <v>7.210000038146973</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C58">
-        <v>6.940000057220459</v>
+        <v>7.221000194549561</v>
       </c>
       <c r="D58">
-        <v>7.190000057220459</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="E58">
-        <v>7.190000057220459</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="F58">
-        <v>3317100</v>
+        <v>3643600</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>7.099999904632568</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="B59">
-        <v>7.245999813079834</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C59">
-        <v>6.860000133514404</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D59">
-        <v>6.929999828338623</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="E59">
-        <v>6.929999828338623</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="F59">
-        <v>4231800</v>
+        <v>2599600</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>6.973999977111816</v>
+        <v>7.166999816894531</v>
       </c>
       <c r="B60">
-        <v>7.550000190734863</v>
+        <v>7.166999816894531</v>
       </c>
       <c r="C60">
-        <v>6.900000095367432</v>
+        <v>6.965000152587891</v>
       </c>
       <c r="D60">
-        <v>7.349999904632568</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="E60">
-        <v>7.349999904632568</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="F60">
-        <v>7007000</v>
+        <v>3164600</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>7.400000095367432</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="B61">
-        <v>7.400000095367432</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="C61">
-        <v>7.135000228881836</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D61">
-        <v>7.320000171661377</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E61">
-        <v>7.320000171661377</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F61">
-        <v>2913800</v>
+        <v>5107300</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>7.309999942779541</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="B62">
-        <v>7.400000095367432</v>
+        <v>6.824999809265137</v>
       </c>
       <c r="C62">
-        <v>7.087999820709229</v>
+        <v>6.572000026702881</v>
       </c>
       <c r="D62">
-        <v>7.349999904632568</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="E62">
-        <v>7.349999904632568</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="F62">
-        <v>2366800</v>
+        <v>3585300</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>7.369999885559082</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="B63">
-        <v>7.449999809265137</v>
+        <v>6.764999866485596</v>
       </c>
       <c r="C63">
-        <v>7.221000194549561</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="D63">
-        <v>7.320000171661377</v>
+        <v>6.75</v>
       </c>
       <c r="E63">
-        <v>7.320000171661377</v>
+        <v>6.75</v>
       </c>
       <c r="F63">
-        <v>3643600</v>
+        <v>3673600</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>7.349999904632568</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B64">
-        <v>7.349999904632568</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C64">
-        <v>7.110000133514404</v>
+        <v>6.5</v>
       </c>
       <c r="D64">
-        <v>7.139999866485596</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E64">
-        <v>7.139999866485596</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F64">
-        <v>2599600</v>
+        <v>5059600</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>7.166999816894531</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="B65">
-        <v>7.166999816894531</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C65">
-        <v>6.965000152587891</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="D65">
-        <v>7.059999942779541</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E65">
-        <v>7.059999942779541</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F65">
-        <v>3164600</v>
+        <v>3915200</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>7.03000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B66">
-        <v>7.059999942779541</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C66">
-        <v>6.78000020980835</v>
+        <v>6.364999771118164</v>
       </c>
       <c r="D66">
-        <v>6.78000020980835</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E66">
-        <v>6.78000020980835</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F66">
-        <v>5107300</v>
+        <v>5468000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>6.800000190734863</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B67">
-        <v>6.824999809265137</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C67">
-        <v>6.572000026702881</v>
+        <v>6.684999942779541</v>
       </c>
       <c r="D67">
-        <v>6.610000133514404</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="E67">
-        <v>6.610000133514404</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="F67">
-        <v>3585300</v>
+        <v>3965800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>6.539999961853027</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B68">
-        <v>6.764999866485596</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="C68">
-        <v>6.46999979019165</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D68">
-        <v>6.75</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="E68">
-        <v>6.75</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="F68">
-        <v>3673600</v>
+        <v>5279000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>6.739999771118164</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="B69">
-        <v>7.03000020980835</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="C69">
-        <v>6.5</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D69">
-        <v>6.690000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E69">
-        <v>6.690000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F69">
-        <v>5059600</v>
+        <v>3254900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>6.610000133514404</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="B70">
-        <v>6.679999828338623</v>
+        <v>7.25</v>
       </c>
       <c r="C70">
-        <v>6.380000114440918</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="D70">
-        <v>6.440000057220459</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>6.440000057220459</v>
+        <v>7</v>
       </c>
       <c r="F70">
-        <v>3915200</v>
+        <v>3931200</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>6.440000057220459</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B71">
-        <v>6.739999771118164</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="C71">
-        <v>6.364999771118164</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D71">
-        <v>6.679999828338623</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E71">
-        <v>6.679999828338623</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F71">
-        <v>5468000</v>
+        <v>3855200</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>6.730000019073486</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B72">
-        <v>7.099999904632568</v>
+        <v>7.229000091552734</v>
       </c>
       <c r="C72">
-        <v>6.684999942779541</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="D72">
-        <v>6.949999809265137</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="E72">
-        <v>6.949999809265137</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="F72">
-        <v>3965800</v>
+        <v>2992500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>6.989999771118164</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="B73">
-        <v>7.260000228881836</v>
+        <v>7.619999885559082</v>
       </c>
       <c r="C73">
-        <v>6.880000114440918</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D73">
-        <v>7.230000019073486</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="E73">
-        <v>7.230000019073486</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="F73">
-        <v>5279000</v>
+        <v>5830500</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>7.099999904632568</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B74">
+        <v>7.590000152587891</v>
+      </c>
+      <c r="C74">
+        <v>7.144999980926514</v>
+      </c>
+      <c r="D74">
         <v>7.199999809265137</v>
       </c>
-      <c r="C74">
-        <v>6.900000095367432</v>
-      </c>
-      <c r="D74">
-        <v>7.099999904632568</v>
-      </c>
       <c r="E74">
-        <v>7.099999904632568</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F74">
-        <v>3254900</v>
+        <v>4164800</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>7.079999923706055</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B75">
-        <v>7.25</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="C75">
-        <v>6.889999866485596</v>
+        <v>7.204999923706055</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="E75">
-        <v>7</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="F75">
-        <v>3931200</v>
+        <v>4084600</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>6.989999771118164</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B76">
-        <v>7.210000038146973</v>
+        <v>7.735000133514404</v>
       </c>
       <c r="C76">
-        <v>6.900000095367432</v>
+        <v>7.335000038146973</v>
       </c>
       <c r="D76">
-        <v>7.179999828338623</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E76">
-        <v>7.179999828338623</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F76">
-        <v>3855200</v>
+        <v>5841500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>7.179999828338623</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="B77">
-        <v>7.229000091552734</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C77">
-        <v>6.989999771118164</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D77">
-        <v>7.139999866485596</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="E77">
-        <v>7.139999866485596</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="F77">
-        <v>2992500</v>
+        <v>4135100</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>7.139999866485596</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B78">
-        <v>7.619999885559082</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C78">
-        <v>7.079999923706055</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D78">
-        <v>7.420000076293945</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E78">
-        <v>7.420000076293945</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F78">
-        <v>5830500</v>
+        <v>5370900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>7.489999771118164</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="B79">
-        <v>7.590000152587891</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="C79">
-        <v>7.144999980926514</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D79">
-        <v>7.199999809265137</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="E79">
-        <v>7.199999809265137</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="F79">
-        <v>4164800</v>
+        <v>4079600</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>7.239999771118164</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B80">
-        <v>7.570000171661377</v>
+        <v>6.994999885559082</v>
       </c>
       <c r="C80">
-        <v>7.204999923706055</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D80">
-        <v>7.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E80">
-        <v>7.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F80">
-        <v>4084600</v>
+        <v>4302200</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>7.460000038146973</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B81">
-        <v>7.735000133514404</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="C81">
-        <v>7.335000038146973</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="D81">
-        <v>7.389999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E81">
-        <v>7.389999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F81">
-        <v>5841500</v>
+        <v>5296600</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>7.340000152587891</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B82">
-        <v>7.550000190734863</v>
+        <v>6.701000213623047</v>
       </c>
       <c r="C82">
-        <v>7.130000114440918</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D82">
-        <v>7.159999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="E82">
-        <v>7.159999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="F82">
-        <v>4135100</v>
+        <v>4081100</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>7.110000133514404</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B83">
-        <v>7.159999847412109</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C83">
-        <v>6.829999923706055</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D83">
-        <v>6.889999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E83">
-        <v>6.889999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F83">
-        <v>5370900</v>
+        <v>3412000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>6.869999885559082</v>
+        <v>6.638999938964844</v>
       </c>
       <c r="B84">
-        <v>7.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C84">
-        <v>6.829999923706055</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D84">
-        <v>6.909999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E84">
-        <v>6.909999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F84">
-        <v>4079600</v>
+        <v>2144100</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6.980000019073486</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B85">
-        <v>6.994999885559082</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C85">
-        <v>6.619999885559082</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D85">
         <v>6.630000114440918</v>
@@ -2092,907 +2092,907 @@
         <v>6.630000114440918</v>
       </c>
       <c r="F85">
-        <v>4302200</v>
+        <v>3191300</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>6.670000076293945</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B86">
-        <v>6.730000019073486</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C86">
-        <v>6.460000038146973</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D86">
-        <v>6.630000114440918</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E86">
-        <v>6.630000114440918</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="F86">
-        <v>5296600</v>
+        <v>6981800</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6.619999885559082</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B87">
-        <v>6.701000213623047</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C87">
-        <v>6.400000095367432</v>
+        <v>5.985000133514404</v>
       </c>
       <c r="D87">
-        <v>6.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E87">
-        <v>6.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F87">
-        <v>4081100</v>
+        <v>9683300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.480000019073486</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B88">
-        <v>6.710000038146973</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="C88">
-        <v>6.429999828338623</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D88">
-        <v>6.679999828338623</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E88">
-        <v>6.679999828338623</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F88">
-        <v>3412000</v>
+        <v>8517800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>6.638999938964844</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B89">
-        <v>6.739999771118164</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="C89">
-        <v>6.559999942779541</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D89">
-        <v>6.619999885559082</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E89">
-        <v>6.619999885559082</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F89">
-        <v>2144100</v>
+        <v>5399300</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>6.630000114440918</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B90">
-        <v>6.679999828338623</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C90">
-        <v>6.429999828338623</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D90">
-        <v>6.630000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E90">
-        <v>6.630000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F90">
-        <v>3191300</v>
+        <v>5322300</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>6.409999847412109</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B91">
-        <v>6.409999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="C91">
-        <v>6.010000228881836</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D91">
-        <v>6.130000114440918</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="E91">
-        <v>6.130000114440918</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="F91">
-        <v>6981800</v>
+        <v>11547700</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>6.159999847412109</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B92">
-        <v>6.349999904632568</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="C92">
-        <v>5.985000133514404</v>
+        <v>6.25</v>
       </c>
       <c r="D92">
-        <v>6.03000020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="E92">
-        <v>6.03000020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="F92">
-        <v>9683300</v>
+        <v>13804600</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>6.010000228881836</v>
+        <v>6.75</v>
       </c>
       <c r="B93">
-        <v>6.110000133514404</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C93">
-        <v>5.849999904632568</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D93">
-        <v>6.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="E93">
-        <v>6.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="F93">
-        <v>8517800</v>
+        <v>6806600</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>6.119999885559082</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B94">
-        <v>6.224999904632568</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C94">
-        <v>6.079999923706055</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D94">
-        <v>6.150000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E94">
-        <v>6.150000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F94">
-        <v>5399300</v>
+        <v>5328000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>6.070000171661377</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B95">
-        <v>6.099999904632568</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="C95">
-        <v>5.920000076293945</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D95">
-        <v>5.949999809265137</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E95">
-        <v>5.949999809265137</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F95">
-        <v>5322300</v>
+        <v>4481100</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>6.010000228881836</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B96">
-        <v>6.5</v>
+        <v>7.09499979019165</v>
       </c>
       <c r="C96">
-        <v>5.889999866485596</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D96">
-        <v>6.385000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E96">
-        <v>6.385000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F96">
-        <v>11547700</v>
+        <v>4141300</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>6.289999961853027</v>
+        <v>7</v>
       </c>
       <c r="B97">
-        <v>6.989999771118164</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C97">
-        <v>6.25</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D97">
-        <v>6.809999942779541</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E97">
-        <v>6.809999942779541</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F97">
-        <v>13804600</v>
+        <v>5011000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>6.75</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B98">
-        <v>6.840000152587891</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C98">
-        <v>6.480000019073486</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D98">
-        <v>6.739999771118164</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E98">
-        <v>6.739999771118164</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F98">
-        <v>6806600</v>
+        <v>3260100</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>6.630000114440918</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B99">
-        <v>6.980000019073486</v>
+        <v>7.5</v>
       </c>
       <c r="C99">
-        <v>6.610000133514404</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="D99">
-        <v>6.920000076293945</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E99">
-        <v>6.920000076293945</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F99">
-        <v>5328000</v>
+        <v>3162800</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>6.880000114440918</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B100">
-        <v>7.119999885559082</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C100">
-        <v>6.815000057220459</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D100">
-        <v>7.079999923706055</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E100">
-        <v>7.079999923706055</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F100">
-        <v>4481100</v>
+        <v>3929200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>7.019999980926514</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B101">
-        <v>7.09499979019165</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="C101">
-        <v>6.920000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D101">
-        <v>7.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E101">
-        <v>7.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F101">
-        <v>4141300</v>
+        <v>1903700</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>7</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B102">
-        <v>7.449999809265137</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C102">
-        <v>6.980000019073486</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D102">
-        <v>7.300000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E102">
-        <v>7.300000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F102">
-        <v>5011000</v>
+        <v>2073800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>7.179999828338623</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B103">
-        <v>7.400000095367432</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C103">
-        <v>7.179999828338623</v>
+        <v>7</v>
       </c>
       <c r="D103">
-        <v>7.349999904632568</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E103">
-        <v>7.349999904632568</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F103">
-        <v>3260100</v>
+        <v>1730900</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>7.420000076293945</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B104">
-        <v>7.5</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C104">
-        <v>7.230000019073486</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D104">
-        <v>7.380000114440918</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="E104">
-        <v>7.380000114440918</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="F104">
-        <v>3162800</v>
+        <v>3378300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>7.369999885559082</v>
+        <v>7.276999950408936</v>
       </c>
       <c r="B105">
-        <v>7.599999904632568</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C105">
-        <v>7.170000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D105">
-        <v>7.210000038146973</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E105">
-        <v>7.210000038146973</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F105">
-        <v>3929200</v>
+        <v>2760200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>7.170000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B106">
-        <v>7.21999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C106">
-        <v>7.010000228881836</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D106">
-        <v>7.010000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E106">
-        <v>7.010000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F106">
-        <v>1903700</v>
+        <v>3212700</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>7.090000152587891</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="B107">
-        <v>7.170000076293945</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C107">
-        <v>6.96999979019165</v>
+        <v>6.90500020980835</v>
       </c>
       <c r="D107">
-        <v>7.019999980926514</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E107">
-        <v>7.019999980926514</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="F107">
-        <v>2073800</v>
+        <v>5392400</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>7.090000152587891</v>
+        <v>7.402999877929688</v>
       </c>
       <c r="B108">
-        <v>7.170000076293945</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="C108">
-        <v>7</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D108">
-        <v>7.110000133514404</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E108">
-        <v>7.110000133514404</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="F108">
-        <v>1730900</v>
+        <v>7013500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>7.170000076293945</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="B109">
-        <v>7.440000057220459</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="C109">
-        <v>7.139999866485596</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="D109">
-        <v>7.260000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="E109">
-        <v>7.260000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="F109">
-        <v>3378300</v>
+        <v>5693300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>7.276999950408936</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="B110">
-        <v>7.289999961853027</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C110">
-        <v>7.010000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="D110">
-        <v>7.03000020980835</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E110">
-        <v>7.03000020980835</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F110">
-        <v>2760200</v>
+        <v>3465700</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>7.010000228881836</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B111">
+        <v>7.239999771118164</v>
+      </c>
+      <c r="C111">
         <v>7.03000020980835</v>
       </c>
-      <c r="C111">
-        <v>6.869999885559082</v>
-      </c>
       <c r="D111">
-        <v>6.920000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E111">
-        <v>6.920000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F111">
-        <v>3212700</v>
+        <v>2620400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>6.949999809265137</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B112">
-        <v>7.449999809265137</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="C112">
-        <v>6.90500020980835</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D112">
-        <v>7.449999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E112">
-        <v>7.449999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F112">
-        <v>5392400</v>
+        <v>5378800</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>7.402999877929688</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B113">
-        <v>7.800000190734863</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C113">
-        <v>7.300000190734863</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="D113">
-        <v>7.659999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E113">
-        <v>7.659999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F113">
-        <v>7013500</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>7.599999904632568</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="B114">
-        <v>7.880000114440918</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>7.369999885559082</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="D114">
-        <v>7.369999885559082</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="E114">
-        <v>7.369999885559082</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="F114">
-        <v>5693300</v>
+        <v>2371800</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>7.329999923706055</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="B115">
-        <v>7.389999866485596</v>
+        <v>7</v>
       </c>
       <c r="C115">
-        <v>7.039999961853027</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D115">
-        <v>7.070000171661377</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E115">
-        <v>7.070000171661377</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F115">
-        <v>3465700</v>
+        <v>2863000</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>7.070000171661377</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B116">
-        <v>7.239999771118164</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C116">
-        <v>7.03000020980835</v>
+        <v>6.561999797821045</v>
       </c>
       <c r="D116">
-        <v>7.179999828338623</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="E116">
-        <v>7.179999828338623</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="F116">
-        <v>2620400</v>
+        <v>3819900</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>7.210000038146973</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B117">
-        <v>7.269999980926514</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C117">
-        <v>6.880000114440918</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D117">
-        <v>7.03000020980835</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="E117">
-        <v>7.03000020980835</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F117">
-        <v>5378800</v>
+        <v>2454900</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>7.010000228881836</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B118">
-        <v>7.099999904632568</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C118">
-        <v>6.789999961853027</v>
+        <v>6.810999870300293</v>
       </c>
       <c r="D118">
-        <v>6.840000152587891</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E118">
-        <v>6.840000152587891</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F118">
-        <v>3129400</v>
+        <v>4095900</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
+        <v>7.010000228881836</v>
+      </c>
+      <c r="B119">
+        <v>7.070000171661377</v>
+      </c>
+      <c r="C119">
+        <v>6.78000020980835</v>
+      </c>
+      <c r="D119">
         <v>6.849999904632568</v>
       </c>
-      <c r="B119">
-        <v>7</v>
-      </c>
-      <c r="C119">
-        <v>6.809999942779541</v>
-      </c>
-      <c r="D119">
-        <v>6.880000114440918</v>
-      </c>
       <c r="E119">
-        <v>6.880000114440918</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="F119">
-        <v>2371800</v>
+        <v>3208900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>6.889999866485596</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="B120">
-        <v>7</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C120">
-        <v>6.630000114440918</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D120">
-        <v>6.630000114440918</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E120">
-        <v>6.630000114440918</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F120">
-        <v>2863000</v>
+        <v>6610600</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>6.699999809265137</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B121">
-        <v>7.079999923706055</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C121">
-        <v>6.561999797821045</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D121">
-        <v>6.989999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E121">
-        <v>6.989999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F121">
-        <v>3819900</v>
+        <v>11837300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>6.980000019073486</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B122">
-        <v>6.980000019073486</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C122">
-        <v>6.78000020980835</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D122">
-        <v>6.900000095367432</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="E122">
-        <v>6.900000095367432</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="F122">
-        <v>2454900</v>
+        <v>7869700</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>6.880000114440918</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B123">
-        <v>7.159999847412109</v>
+        <v>7.5</v>
       </c>
       <c r="C123">
-        <v>6.810999870300293</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D123">
-        <v>6.940000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E123">
-        <v>6.940000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F123">
-        <v>4095900</v>
+        <v>6218500</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>7.010000228881836</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="B124">
-        <v>7.070000171661377</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C124">
-        <v>6.78000020980835</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D124">
-        <v>6.849999904632568</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E124">
-        <v>6.849999904632568</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F124">
-        <v>3208900</v>
+        <v>6070700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>6.829999923706055</v>
+        <v>7.75</v>
       </c>
       <c r="B125">
-        <v>6.840000152587891</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C125">
-        <v>6.429999828338623</v>
+        <v>7.730000019073486</v>
       </c>
       <c r="D125">
-        <v>6.659999847412109</v>
+        <v>8.5</v>
       </c>
       <c r="E125">
-        <v>6.659999847412109</v>
+        <v>8.5</v>
       </c>
       <c r="F125">
-        <v>6610600</v>
+        <v>19189200</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>6.619999885559082</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="B126">
-        <v>7.329999923706055</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="C126">
-        <v>6.619999885559082</v>
+        <v>8.074999809265137</v>
       </c>
       <c r="D126">
-        <v>7.300000190734863</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E126">
-        <v>7.300000190734863</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F126">
-        <v>11837300</v>
+        <v>14281800</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>7.21999979019165</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="B127">
-        <v>7.590000152587891</v>
+        <v>8.470000267028809</v>
       </c>
       <c r="C127">
-        <v>6.940000057220459</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="D127">
-        <v>7.480000019073486</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="E127">
-        <v>7.480000019073486</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="F127">
-        <v>7869700</v>
+        <v>7032200</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>7.050000190734863</v>
+        <v>8.210000038146973</v>
       </c>
       <c r="B128">
-        <v>7.5</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C128">
-        <v>6.980000019073486</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D128">
-        <v>7.099999904632568</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="E128">
-        <v>7.099999904632568</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="F128">
-        <v>6218500</v>
+        <v>6631100</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>7.119999885559082</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="B129">
-        <v>7.659999847412109</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C129">
-        <v>7.090000152587891</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D129">
-        <v>7.570000171661377</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E129">
-        <v>7.570000171661377</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F129">
-        <v>6070700</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>7.75</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="B130">
-        <v>8.579999923706055</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C130">
-        <v>7.730000019073486</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D130">
-        <v>8.5</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E130">
-        <v>8.5</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F130">
-        <v>19189200</v>
+        <v>5388100</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/ACB/HighLow.xlsx
+++ b/Stocks/ACB/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,913 +417,913 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>7.289999961853027</v>
+        <v>6.973999977111816</v>
       </c>
       <c r="B2">
-        <v>7.420000076293945</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C2">
-        <v>7.139999866485596</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D2">
-        <v>7.320000171661377</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E2">
-        <v>7.320000171661377</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F2">
-        <v>3288800</v>
+        <v>7007000</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>7.349999904632568</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="B3">
-        <v>7.679999828338623</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C3">
-        <v>7.25</v>
+        <v>7.135000228881836</v>
       </c>
       <c r="D3">
-        <v>7.599999904632568</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="E3">
-        <v>7.599999904632568</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="F3">
-        <v>3800400</v>
+        <v>2913800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>7.659999847412109</v>
+        <v>7.309999942779541</v>
       </c>
       <c r="B4">
-        <v>7.659999847412109</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C4">
-        <v>7.179999828338623</v>
+        <v>7.087999820709229</v>
       </c>
       <c r="D4">
-        <v>7.610000133514404</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E4">
-        <v>7.610000133514404</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F4">
-        <v>5975700</v>
+        <v>2366800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>7.650000095367432</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B5">
-        <v>8.220999717712402</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C5">
-        <v>7.620999813079834</v>
+        <v>7.221000194549561</v>
       </c>
       <c r="D5">
-        <v>8.069999694824219</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="E5">
-        <v>8.069999694824219</v>
+        <v>7.320000171661377</v>
       </c>
       <c r="F5">
-        <v>6440300</v>
+        <v>3643600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>8.180000305175781</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="B6">
-        <v>8.649999618530273</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="C6">
-        <v>7.980000019073486</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="D6">
-        <v>8.489999771118164</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="E6">
-        <v>8.489999771118164</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="F6">
-        <v>6172100</v>
+        <v>2599600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>8.699999809265137</v>
+        <v>7.166999816894531</v>
       </c>
       <c r="B7">
-        <v>8.979999542236328</v>
+        <v>7.166999816894531</v>
       </c>
       <c r="C7">
-        <v>8.359999656677246</v>
+        <v>6.965000152587891</v>
       </c>
       <c r="D7">
-        <v>8.970000267028809</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="E7">
-        <v>8.970000267028809</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="F7">
-        <v>6299700</v>
+        <v>3164600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>9.029999732971191</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="B8">
-        <v>9.659999847412109</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="C8">
-        <v>8.869999885559082</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D8">
-        <v>9.659999847412109</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E8">
-        <v>9.659999847412109</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F8">
-        <v>22521100</v>
+        <v>5107300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>9.659999847412109</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="B9">
-        <v>9.949999809265137</v>
+        <v>6.824999809265137</v>
       </c>
       <c r="C9">
-        <v>9.279999732971191</v>
+        <v>6.572000026702881</v>
       </c>
       <c r="D9">
-        <v>9.369999885559082</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="E9">
-        <v>9.369999885559082</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="F9">
-        <v>8241500</v>
+        <v>3585300</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>9.350000381469727</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="B10">
-        <v>10.10999965667725</v>
+        <v>6.764999866485596</v>
       </c>
       <c r="C10">
-        <v>9.340000152587891</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="D10">
-        <v>10.10000038146973</v>
+        <v>6.75</v>
       </c>
       <c r="E10">
-        <v>10.10000038146973</v>
+        <v>6.75</v>
       </c>
       <c r="F10">
-        <v>10223000</v>
+        <v>3673600</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>10.14999961853027</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B11">
-        <v>10.58399963378906</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C11">
-        <v>9.630000114440918</v>
+        <v>6.5</v>
       </c>
       <c r="D11">
-        <v>9.659999847412109</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E11">
-        <v>9.659999847412109</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F11">
-        <v>13876100</v>
+        <v>5059600</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>9.76099967956543</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="B12">
-        <v>9.789999961853027</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C12">
-        <v>9.130000114440918</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="D12">
-        <v>9.159999847412109</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E12">
-        <v>9.159999847412109</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F12">
-        <v>6768900</v>
+        <v>3915200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>9.131999969482422</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B13">
-        <v>9.979999542236328</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C13">
-        <v>9.069999694824219</v>
+        <v>6.364999771118164</v>
       </c>
       <c r="D13">
-        <v>9.920000076293945</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E13">
-        <v>9.920000076293945</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F13">
-        <v>7112000</v>
+        <v>5468000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>9.989999771118164</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B14">
-        <v>10.15999984741211</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C14">
-        <v>9.689999580383301</v>
+        <v>6.684999942779541</v>
       </c>
       <c r="D14">
-        <v>10.05000019073486</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="E14">
-        <v>10.05000019073486</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="F14">
-        <v>5814400</v>
+        <v>3965800</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>10.05000019073486</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B15">
-        <v>10.64000034332275</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="C15">
-        <v>9.970000267028809</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D15">
-        <v>10.22999954223633</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="E15">
-        <v>10.22999954223633</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="F15">
-        <v>13299600</v>
+        <v>5279000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>10.25</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="B16">
-        <v>10.27999973297119</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="C16">
-        <v>9.699999809265137</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D16">
-        <v>9.890000343322754</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E16">
-        <v>9.890000343322754</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F16">
-        <v>4860500</v>
+        <v>3254900</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>9.960000038146973</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="B17">
-        <v>10.01299953460693</v>
+        <v>7.25</v>
       </c>
       <c r="C17">
-        <v>9.692999839782715</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="D17">
-        <v>9.819999694824219</v>
+        <v>7</v>
       </c>
       <c r="E17">
-        <v>9.819999694824219</v>
+        <v>7</v>
       </c>
       <c r="F17">
-        <v>3499200</v>
+        <v>3931200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>9.729999542236328</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B18">
-        <v>9.869999885559082</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="C18">
-        <v>9.539999961853027</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D18">
-        <v>9.670000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E18">
-        <v>9.670000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F18">
-        <v>3555900</v>
+        <v>3855200</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>9.619999885559082</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B19">
-        <v>9.75</v>
+        <v>7.229000091552734</v>
       </c>
       <c r="C19">
-        <v>9.295000076293945</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="D19">
-        <v>9.340000152587891</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="E19">
-        <v>9.340000152587891</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="F19">
-        <v>3573100</v>
+        <v>2992500</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>9.25</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="B20">
-        <v>9.5</v>
+        <v>7.619999885559082</v>
       </c>
       <c r="C20">
-        <v>9.149999618530273</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D20">
-        <v>9.260000228881836</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="E20">
-        <v>9.260000228881836</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="F20">
-        <v>3794600</v>
+        <v>5830500</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>9.260000228881836</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B21">
-        <v>9.399999618530273</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C21">
-        <v>9.029999732971191</v>
+        <v>7.144999980926514</v>
       </c>
       <c r="D21">
-        <v>9.039999961853027</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="E21">
-        <v>9.039999961853027</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F21">
-        <v>3274800</v>
+        <v>4164800</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>9.010000228881836</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B22">
-        <v>9.074999809265137</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="C22">
-        <v>8.600000381469727</v>
+        <v>7.204999923706055</v>
       </c>
       <c r="D22">
-        <v>8.729999542236328</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="E22">
-        <v>8.729999542236328</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="F22">
-        <v>5126000</v>
+        <v>4084600</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>8.689999580383301</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B23">
-        <v>8.979999542236328</v>
+        <v>7.735000133514404</v>
       </c>
       <c r="C23">
-        <v>8.461999893188477</v>
+        <v>7.335000038146973</v>
       </c>
       <c r="D23">
-        <v>8.970000267028809</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E23">
-        <v>8.970000267028809</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F23">
-        <v>4343400</v>
+        <v>5841500</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>8.937000274658203</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="B24">
-        <v>8.982999801635742</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C24">
-        <v>8.739999771118164</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D24">
-        <v>8.909999847412109</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="E24">
-        <v>8.909999847412109</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="F24">
-        <v>2898900</v>
+        <v>4135100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>8.979999542236328</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B25">
-        <v>9.25</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C25">
-        <v>8.939999580383301</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D25">
-        <v>9.020000457763672</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E25">
-        <v>9.020000457763672</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F25">
-        <v>2958900</v>
+        <v>5370900</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>9.130000114440918</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="B26">
-        <v>9.430000305175781</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="C26">
-        <v>9.090000152587891</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D26">
-        <v>9.350000381469727</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="E26">
-        <v>9.350000381469727</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="F26">
-        <v>3728600</v>
+        <v>4079600</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>9.310000419616699</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B27">
-        <v>9.369999885559082</v>
+        <v>6.994999885559082</v>
       </c>
       <c r="C27">
-        <v>9.079999923706055</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D27">
-        <v>9.109999656677246</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E27">
-        <v>9.109999656677246</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F27">
-        <v>2780700</v>
+        <v>4302200</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>9.149999618530273</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B28">
-        <v>9.539999961853027</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="C28">
-        <v>9.119999885559082</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="D28">
-        <v>9.279999732971191</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E28">
-        <v>9.279999732971191</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F28">
-        <v>3627400</v>
+        <v>5296600</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>9.319999694824219</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B29">
-        <v>9.520999908447266</v>
+        <v>6.701000213623047</v>
       </c>
       <c r="C29">
-        <v>8.979999542236328</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D29">
-        <v>9.090000152587891</v>
+        <v>6.5</v>
       </c>
       <c r="E29">
-        <v>9.090000152587891</v>
+        <v>6.5</v>
       </c>
       <c r="F29">
-        <v>3493900</v>
+        <v>4081100</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>9.043999671936035</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B30">
-        <v>9.319999694824219</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C30">
-        <v>8.920000076293945</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D30">
-        <v>9.039999961853027</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E30">
-        <v>9.039999961853027</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F30">
-        <v>3795900</v>
+        <v>3412000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>9.039999961853027</v>
+        <v>6.638999938964844</v>
       </c>
       <c r="B31">
-        <v>9.140000343322754</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C31">
-        <v>8.670000076293945</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D31">
-        <v>8.880000114440918</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E31">
-        <v>8.880000114440918</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F31">
-        <v>3419000</v>
+        <v>2144100</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>8.930000305175781</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B32">
-        <v>8.960000038146973</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C32">
-        <v>8.564999580383301</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D32">
-        <v>8.619999885559082</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E32">
-        <v>8.619999885559082</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F32">
-        <v>3052000</v>
+        <v>3191300</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>8.600000381469727</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B33">
-        <v>8.789999961853027</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C33">
-        <v>8.279999732971191</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D33">
-        <v>8.310000419616699</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E33">
-        <v>8.310000419616699</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="F33">
-        <v>3915400</v>
+        <v>6981800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>8.310000419616699</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B34">
-        <v>8.460000038146973</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C34">
-        <v>7.929999828338623</v>
+        <v>5.985000133514404</v>
       </c>
       <c r="D34">
-        <v>7.980000019073486</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E34">
-        <v>7.980000019073486</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F34">
-        <v>4593900</v>
+        <v>9683300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>7.789999961853027</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B35">
-        <v>8.159999847412109</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="C35">
-        <v>7.769999980926514</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D35">
-        <v>8.100000381469727</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E35">
-        <v>8.100000381469727</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F35">
-        <v>4588500</v>
+        <v>8517800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>8.279999732971191</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B36">
-        <v>8.279999732971191</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="C36">
-        <v>8.029999732971191</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D36">
-        <v>8.239999771118164</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E36">
-        <v>8.239999771118164</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F36">
-        <v>1871800</v>
+        <v>5399300</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>8.170000076293945</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B37">
-        <v>8.409999847412109</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C37">
-        <v>7.995999813079834</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D37">
-        <v>8.329999923706055</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E37">
-        <v>8.329999923706055</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F37">
-        <v>3214700</v>
+        <v>5322300</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>8.520000457763672</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B38">
-        <v>8.859999656677246</v>
+        <v>6.5</v>
       </c>
       <c r="C38">
-        <v>8.329999923706055</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D38">
-        <v>8.369999885559082</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="E38">
-        <v>8.369999885559082</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="F38">
-        <v>5024400</v>
+        <v>11547700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>8.380000114440918</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B39">
-        <v>8.409999847412109</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="C39">
-        <v>7.489999771118164</v>
+        <v>6.25</v>
       </c>
       <c r="D39">
-        <v>7.510000228881836</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="E39">
-        <v>7.510000228881836</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="F39">
-        <v>9441500</v>
+        <v>13804600</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.659999847412109</v>
+        <v>6.75</v>
       </c>
       <c r="B40">
-        <v>7.739999771118164</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C40">
-        <v>7.070000171661377</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D40">
-        <v>7.340000152587891</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="E40">
-        <v>7.340000152587891</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="F40">
-        <v>6965900</v>
+        <v>6806600</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>7.409999847412109</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B41">
-        <v>7.429999828338623</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C41">
-        <v>6.980000019073486</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D41">
-        <v>7.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E41">
-        <v>7.039999961853027</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F41">
-        <v>5386000</v>
+        <v>5328000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>6.920000076293945</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B42">
-        <v>7.070000171661377</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="C42">
-        <v>6.704999923706055</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D42">
-        <v>7.039999961853027</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E42">
-        <v>7.039999961853027</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F42">
-        <v>4908000</v>
+        <v>4481100</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>7.099999904632568</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B43">
-        <v>7.34499979019165</v>
+        <v>7.09499979019165</v>
       </c>
       <c r="C43">
-        <v>6.815000057220459</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D43">
-        <v>7.289999961853027</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E43">
-        <v>7.289999961853027</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F43">
-        <v>4087800</v>
+        <v>4141300</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>7.34499979019165</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>7.539999961853027</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C44">
-        <v>7.25</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D44">
-        <v>7.519999980926514</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E44">
-        <v>7.519999980926514</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F44">
-        <v>2993400</v>
+        <v>5011000</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.53000020980835</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B45">
-        <v>7.550000190734863</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C45">
-        <v>7.139999866485596</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D45">
-        <v>7.210000038146973</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E45">
-        <v>7.210000038146973</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F45">
-        <v>3545000</v>
+        <v>3260100</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>7.21999979019165</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B46">
+        <v>7.5</v>
+      </c>
+      <c r="C46">
         <v>7.230000019073486</v>
       </c>
-      <c r="C46">
-        <v>6.932000160217285</v>
-      </c>
       <c r="D46">
-        <v>7.079999923706055</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E46">
-        <v>7.079999923706055</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F46">
-        <v>2989800</v>
+        <v>3162800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>7.039999961853027</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B47">
-        <v>7.340000152587891</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C47">
-        <v>6.949999809265137</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D47">
         <v>7.210000038146973</v>
@@ -1332,58 +1332,58 @@
         <v>7.210000038146973</v>
       </c>
       <c r="F47">
-        <v>3247000</v>
+        <v>3929200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>7.159999847412109</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B48">
-        <v>7.400000095367432</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="C48">
-        <v>6.633999824523926</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D48">
-        <v>6.840000152587891</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E48">
-        <v>6.840000152587891</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F48">
-        <v>7760700</v>
+        <v>1903700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>7</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B49">
-        <v>7.548999786376953</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C49">
-        <v>6.980000019073486</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D49">
-        <v>7.289999961853027</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E49">
-        <v>7.289999961853027</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F49">
-        <v>10716900</v>
+        <v>2073800</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>7.449999809265137</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B50">
-        <v>7.46999979019165</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C50">
-        <v>7.079999923706055</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <v>7.110000133514404</v>
@@ -1392,1607 +1392,1587 @@
         <v>7.110000133514404</v>
       </c>
       <c r="F50">
-        <v>5687500</v>
+        <v>1730900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>6.900000095367432</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B51">
-        <v>7.204999923706055</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C51">
-        <v>6.849999904632568</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D51">
-        <v>7.019999980926514</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="E51">
-        <v>7.019999980926514</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="F51">
-        <v>3880300</v>
+        <v>3378300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
+        <v>7.276999950408936</v>
+      </c>
+      <c r="B52">
+        <v>7.289999961853027</v>
+      </c>
+      <c r="C52">
+        <v>7.010000228881836</v>
+      </c>
+      <c r="D52">
         <v>7.03000020980835</v>
       </c>
-      <c r="B52">
-        <v>7.300000190734863</v>
-      </c>
-      <c r="C52">
-        <v>6.96999979019165</v>
-      </c>
-      <c r="D52">
-        <v>7.079999923706055</v>
-      </c>
       <c r="E52">
-        <v>7.079999923706055</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F52">
-        <v>3010000</v>
+        <v>2760200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>7.090000152587891</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B53">
-        <v>7.210000038146973</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C53">
-        <v>6.940000057220459</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D53">
-        <v>7.190000057220459</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E53">
-        <v>7.190000057220459</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F53">
-        <v>3317100</v>
+        <v>3212700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>7.099999904632568</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="B54">
-        <v>7.245999813079834</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C54">
-        <v>6.860000133514404</v>
+        <v>6.90500020980835</v>
       </c>
       <c r="D54">
-        <v>6.929999828338623</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E54">
-        <v>6.929999828338623</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="F54">
-        <v>4231800</v>
+        <v>5392400</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>6.973999977111816</v>
+        <v>7.402999877929688</v>
       </c>
       <c r="B55">
-        <v>7.550000190734863</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="C55">
-        <v>6.900000095367432</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D55">
-        <v>7.349999904632568</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E55">
-        <v>7.349999904632568</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="F55">
-        <v>7007000</v>
+        <v>7013500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>7.400000095367432</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="B56">
-        <v>7.400000095367432</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="C56">
-        <v>7.135000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="D56">
-        <v>7.320000171661377</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="E56">
-        <v>7.320000171661377</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="F56">
-        <v>2913800</v>
+        <v>5693300</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>7.309999942779541</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="B57">
-        <v>7.400000095367432</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C57">
-        <v>7.087999820709229</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="D57">
-        <v>7.349999904632568</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E57">
-        <v>7.349999904632568</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F57">
-        <v>2366800</v>
+        <v>3465700</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>7.369999885559082</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B58">
-        <v>7.449999809265137</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C58">
-        <v>7.221000194549561</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D58">
-        <v>7.320000171661377</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E58">
-        <v>7.320000171661377</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F58">
-        <v>3643600</v>
+        <v>2620400</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>7.349999904632568</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B59">
-        <v>7.349999904632568</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="C59">
-        <v>7.110000133514404</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D59">
-        <v>7.139999866485596</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E59">
-        <v>7.139999866485596</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F59">
-        <v>2599600</v>
+        <v>5378800</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>7.166999816894531</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B60">
-        <v>7.166999816894531</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C60">
-        <v>6.965000152587891</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="D60">
-        <v>7.059999942779541</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E60">
-        <v>7.059999942779541</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F60">
-        <v>3164600</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>7.03000020980835</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="B61">
-        <v>7.059999942779541</v>
+        <v>7</v>
       </c>
       <c r="C61">
-        <v>6.78000020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="D61">
-        <v>6.78000020980835</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="E61">
-        <v>6.78000020980835</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="F61">
-        <v>5107300</v>
+        <v>2371800</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>6.800000190734863</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="B62">
-        <v>6.824999809265137</v>
+        <v>7</v>
       </c>
       <c r="C62">
-        <v>6.572000026702881</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D62">
-        <v>6.610000133514404</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E62">
-        <v>6.610000133514404</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F62">
-        <v>3585300</v>
+        <v>2863000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>6.539999961853027</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B63">
-        <v>6.764999866485596</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C63">
-        <v>6.46999979019165</v>
+        <v>6.561999797821045</v>
       </c>
       <c r="D63">
-        <v>6.75</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="E63">
-        <v>6.75</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="F63">
-        <v>3673600</v>
+        <v>3819900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>6.739999771118164</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B64">
-        <v>7.03000020980835</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C64">
-        <v>6.5</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D64">
-        <v>6.690000057220459</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="E64">
-        <v>6.690000057220459</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F64">
-        <v>5059600</v>
+        <v>2454900</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>6.610000133514404</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B65">
-        <v>6.679999828338623</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C65">
-        <v>6.380000114440918</v>
+        <v>6.810999870300293</v>
       </c>
       <c r="D65">
-        <v>6.440000057220459</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E65">
-        <v>6.440000057220459</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F65">
-        <v>3915200</v>
+        <v>4095900</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>6.440000057220459</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B66">
-        <v>6.739999771118164</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="C66">
-        <v>6.364999771118164</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D66">
-        <v>6.679999828338623</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="E66">
-        <v>6.679999828338623</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="F66">
-        <v>5468000</v>
+        <v>3208900</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>6.730000019073486</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="B67">
-        <v>7.099999904632568</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C67">
-        <v>6.684999942779541</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D67">
-        <v>6.949999809265137</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E67">
-        <v>6.949999809265137</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F67">
-        <v>3965800</v>
+        <v>6610600</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>6.989999771118164</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B68">
-        <v>7.260000228881836</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C68">
-        <v>6.880000114440918</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D68">
-        <v>7.230000019073486</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E68">
-        <v>7.230000019073486</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F68">
-        <v>5279000</v>
+        <v>11837300</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>7.099999904632568</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B69">
-        <v>7.199999809265137</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C69">
-        <v>6.900000095367432</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D69">
-        <v>7.099999904632568</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="E69">
-        <v>7.099999904632568</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="F69">
-        <v>3254900</v>
+        <v>7869700</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>7.079999923706055</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B70">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="C70">
-        <v>6.889999866485596</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D70">
-        <v>7</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E70">
-        <v>7</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F70">
-        <v>3931200</v>
+        <v>6218500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>6.989999771118164</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="B71">
-        <v>7.210000038146973</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C71">
-        <v>6.900000095367432</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D71">
-        <v>7.179999828338623</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E71">
-        <v>7.179999828338623</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F71">
-        <v>3855200</v>
+        <v>6070700</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>7.179999828338623</v>
+        <v>7.75</v>
       </c>
       <c r="B72">
-        <v>7.229000091552734</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C72">
-        <v>6.989999771118164</v>
+        <v>7.730000019073486</v>
       </c>
       <c r="D72">
-        <v>7.139999866485596</v>
+        <v>8.5</v>
       </c>
       <c r="E72">
-        <v>7.139999866485596</v>
+        <v>8.5</v>
       </c>
       <c r="F72">
-        <v>2992500</v>
+        <v>19189200</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>7.139999866485596</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="B73">
-        <v>7.619999885559082</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="C73">
-        <v>7.079999923706055</v>
+        <v>8.074999809265137</v>
       </c>
       <c r="D73">
-        <v>7.420000076293945</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E73">
-        <v>7.420000076293945</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F73">
-        <v>5830500</v>
+        <v>14281800</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>7.489999771118164</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="B74">
-        <v>7.590000152587891</v>
+        <v>8.470000267028809</v>
       </c>
       <c r="C74">
-        <v>7.144999980926514</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="D74">
-        <v>7.199999809265137</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="E74">
-        <v>7.199999809265137</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="F74">
-        <v>4164800</v>
+        <v>7032200</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>7.239999771118164</v>
+        <v>8.210000038146973</v>
       </c>
       <c r="B75">
-        <v>7.570000171661377</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C75">
-        <v>7.204999923706055</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D75">
-        <v>7.440000057220459</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="E75">
-        <v>7.440000057220459</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="F75">
-        <v>4084600</v>
+        <v>6631100</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>7.460000038146973</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="B76">
-        <v>7.735000133514404</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C76">
-        <v>7.335000038146973</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D76">
-        <v>7.389999866485596</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E76">
-        <v>7.389999866485596</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F76">
-        <v>5841500</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>7.340000152587891</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="B77">
-        <v>7.550000190734863</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C77">
-        <v>7.130000114440918</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D77">
-        <v>7.159999847412109</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E77">
-        <v>7.159999847412109</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F77">
-        <v>4135100</v>
+        <v>5401800</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>7.110000133514404</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B78">
-        <v>7.159999847412109</v>
+        <v>7.067999839782715</v>
       </c>
       <c r="C78">
-        <v>6.829999923706055</v>
+        <v>6.59499979019165</v>
       </c>
       <c r="D78">
-        <v>6.889999866485596</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="E78">
-        <v>6.889999866485596</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="F78">
-        <v>5370900</v>
+        <v>6519900</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>6.869999885559082</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="B79">
-        <v>7.010000228881836</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="C79">
-        <v>6.829999923706055</v>
+        <v>6.519999980926514</v>
       </c>
       <c r="D79">
-        <v>6.909999847412109</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E79">
-        <v>6.909999847412109</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F79">
-        <v>4079600</v>
+        <v>4861700</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>6.980000019073486</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B80">
-        <v>6.994999885559082</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="C80">
-        <v>6.619999885559082</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D80">
-        <v>6.630000114440918</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E80">
-        <v>6.630000114440918</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F80">
-        <v>4302200</v>
+        <v>4687500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>6.670000076293945</v>
+        <v>6.5</v>
       </c>
       <c r="B81">
-        <v>6.730000019073486</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C81">
-        <v>6.460000038146973</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="D81">
-        <v>6.630000114440918</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="E81">
-        <v>6.630000114440918</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="F81">
-        <v>5296600</v>
+        <v>3386100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>6.619999885559082</v>
+        <v>6.815999984741211</v>
       </c>
       <c r="B82">
-        <v>6.701000213623047</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C82">
-        <v>6.400000095367432</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="D82">
-        <v>6.5</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E82">
-        <v>6.5</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F82">
-        <v>4081100</v>
+        <v>6041200</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>6.480000019073486</v>
+        <v>6.40500020980835</v>
       </c>
       <c r="B83">
-        <v>6.710000038146973</v>
+        <v>6.63100004196167</v>
       </c>
       <c r="C83">
-        <v>6.429999828338623</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="D83">
-        <v>6.679999828338623</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E83">
-        <v>6.679999828338623</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F83">
-        <v>3412000</v>
+        <v>4554000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>6.638999938964844</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B84">
-        <v>6.739999771118164</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="C84">
-        <v>6.559999942779541</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D84">
-        <v>6.619999885559082</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E84">
-        <v>6.619999885559082</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F84">
-        <v>2144100</v>
+        <v>5549000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6.630000114440918</v>
+        <v>6</v>
       </c>
       <c r="B85">
-        <v>6.679999828338623</v>
+        <v>6.25</v>
       </c>
       <c r="C85">
-        <v>6.429999828338623</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D85">
-        <v>6.630000114440918</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E85">
-        <v>6.630000114440918</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F85">
-        <v>3191300</v>
+        <v>7263500</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>6.409999847412109</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="B86">
-        <v>6.409999847412109</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="C86">
-        <v>6.010000228881836</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="D86">
-        <v>6.130000114440918</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E86">
-        <v>6.130000114440918</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F86">
-        <v>6981800</v>
+        <v>5836100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6.159999847412109</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="B87">
-        <v>6.349999904632568</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C87">
-        <v>5.985000133514404</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D87">
-        <v>6.03000020980835</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E87">
-        <v>6.03000020980835</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F87">
-        <v>9683300</v>
+        <v>5358700</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.010000228881836</v>
+        <v>6.111000061035156</v>
       </c>
       <c r="B88">
-        <v>6.110000133514404</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="C88">
-        <v>5.849999904632568</v>
+        <v>6</v>
       </c>
       <c r="D88">
-        <v>6.010000228881836</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="E88">
-        <v>6.010000228881836</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="F88">
-        <v>8517800</v>
+        <v>4829000</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>6.119999885559082</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="B89">
+        <v>6.739999771118164</v>
+      </c>
+      <c r="C89">
         <v>6.224999904632568</v>
       </c>
-      <c r="C89">
-        <v>6.079999923706055</v>
-      </c>
       <c r="D89">
-        <v>6.150000095367432</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E89">
-        <v>6.150000095367432</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F89">
-        <v>5399300</v>
+        <v>3954400</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>6.070000171661377</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="B90">
-        <v>6.099999904632568</v>
+        <v>6.664999961853027</v>
       </c>
       <c r="C90">
-        <v>5.920000076293945</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="D90">
-        <v>5.949999809265137</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E90">
-        <v>5.949999809265137</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F90">
-        <v>5322300</v>
+        <v>3042900</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>6.010000228881836</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B91">
-        <v>6.5</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C91">
-        <v>5.889999866485596</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D91">
-        <v>6.385000228881836</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E91">
-        <v>6.385000228881836</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F91">
-        <v>11547700</v>
+        <v>2992000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>6.289999961853027</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="B92">
-        <v>6.989999771118164</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="C92">
-        <v>6.25</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D92">
-        <v>6.809999942779541</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="E92">
-        <v>6.809999942779541</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="F92">
-        <v>13804600</v>
+        <v>3199300</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>6.75</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="B93">
-        <v>6.840000152587891</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C93">
-        <v>6.480000019073486</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="D93">
-        <v>6.739999771118164</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E93">
-        <v>6.739999771118164</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F93">
-        <v>6806600</v>
+        <v>3528800</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>6.630000114440918</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="B94">
-        <v>6.980000019073486</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C94">
-        <v>6.610000133514404</v>
+        <v>5.422999858856201</v>
       </c>
       <c r="D94">
-        <v>6.920000076293945</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E94">
-        <v>6.920000076293945</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F94">
-        <v>5328000</v>
+        <v>6450500</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>6.880000114440918</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B95">
-        <v>7.119999885559082</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="C95">
-        <v>6.815000057220459</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D95">
-        <v>7.079999923706055</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E95">
-        <v>7.079999923706055</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F95">
-        <v>4481100</v>
+        <v>4319900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>7.019999980926514</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="B96">
-        <v>7.09499979019165</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="C96">
-        <v>6.920000076293945</v>
+        <v>5.543000221252441</v>
       </c>
       <c r="D96">
-        <v>7.039999961853027</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="E96">
-        <v>7.039999961853027</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F96">
-        <v>4141300</v>
+        <v>4024100</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>7</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B97">
-        <v>7.449999809265137</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="C97">
-        <v>6.980000019073486</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D97">
-        <v>7.300000190734863</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="E97">
-        <v>7.300000190734863</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="F97">
-        <v>5011000</v>
+        <v>3678200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>7.179999828338623</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="B98">
-        <v>7.400000095367432</v>
+        <v>6.034999847412109</v>
       </c>
       <c r="C98">
-        <v>7.179999828338623</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="D98">
-        <v>7.349999904632568</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E98">
-        <v>7.349999904632568</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F98">
-        <v>3260100</v>
+        <v>4298400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>7.420000076293945</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B99">
-        <v>7.5</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C99">
-        <v>7.230000019073486</v>
+        <v>5.75</v>
       </c>
       <c r="D99">
-        <v>7.380000114440918</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="E99">
-        <v>7.380000114440918</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="F99">
-        <v>3162800</v>
+        <v>2991900</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>7.369999885559082</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B100">
-        <v>7.599999904632568</v>
+        <v>6.188000202178955</v>
       </c>
       <c r="C100">
-        <v>7.170000076293945</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D100">
-        <v>7.210000038146973</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E100">
-        <v>7.210000038146973</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F100">
-        <v>3929200</v>
+        <v>4050200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>7.170000076293945</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B101">
-        <v>7.21999979019165</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C101">
-        <v>7.010000228881836</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="D101">
-        <v>7.010000228881836</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="E101">
-        <v>7.010000228881836</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="F101">
-        <v>1903700</v>
+        <v>3964200</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>7.090000152587891</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="B102">
-        <v>7.170000076293945</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C102">
-        <v>6.96999979019165</v>
+        <v>5.710000038146973</v>
       </c>
       <c r="D102">
-        <v>7.019999980926514</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="E102">
-        <v>7.019999980926514</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="F102">
-        <v>2073800</v>
+        <v>3673500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>7.090000152587891</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B103">
-        <v>7.170000076293945</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C103">
-        <v>7</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="D103">
-        <v>7.110000133514404</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="E103">
-        <v>7.110000133514404</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="F103">
-        <v>1730900</v>
+        <v>8242700</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>7.170000076293945</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="B104">
-        <v>7.440000057220459</v>
+        <v>5.718999862670898</v>
       </c>
       <c r="C104">
-        <v>7.139999866485596</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D104">
-        <v>7.260000228881836</v>
+        <v>5.5</v>
       </c>
       <c r="E104">
-        <v>7.260000228881836</v>
+        <v>5.5</v>
       </c>
       <c r="F104">
-        <v>3378300</v>
+        <v>6141000</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>7.276999950408936</v>
+        <v>5.519000053405762</v>
       </c>
       <c r="B105">
-        <v>7.289999961853027</v>
+        <v>5.688000202178955</v>
       </c>
       <c r="C105">
-        <v>7.010000228881836</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D105">
-        <v>7.03000020980835</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="E105">
-        <v>7.03000020980835</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="F105">
-        <v>2760200</v>
+        <v>4716800</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>7.010000228881836</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B106">
-        <v>7.03000020980835</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C106">
-        <v>6.869999885559082</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="D106">
-        <v>6.920000076293945</v>
+        <v>5.75</v>
       </c>
       <c r="E106">
-        <v>6.920000076293945</v>
+        <v>5.75</v>
       </c>
       <c r="F106">
-        <v>3212700</v>
+        <v>5207000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>6.949999809265137</v>
+        <v>5.75</v>
       </c>
       <c r="B107">
-        <v>7.449999809265137</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="C107">
-        <v>6.90500020980835</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="D107">
-        <v>7.449999809265137</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="E107">
-        <v>7.449999809265137</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="F107">
-        <v>5392400</v>
+        <v>4137000</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>7.402999877929688</v>
+        <v>5.75</v>
       </c>
       <c r="B108">
-        <v>7.800000190734863</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C108">
-        <v>7.300000190734863</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D108">
-        <v>7.659999847412109</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="E108">
-        <v>7.659999847412109</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="F108">
-        <v>7013500</v>
+        <v>4337400</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>7.599999904632568</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="B109">
-        <v>7.880000114440918</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="C109">
-        <v>7.369999885559082</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="D109">
-        <v>7.369999885559082</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="E109">
-        <v>7.369999885559082</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="F109">
-        <v>5693300</v>
+        <v>4924300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>7.329999923706055</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="B110">
-        <v>7.389999866485596</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="C110">
-        <v>7.039999961853027</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D110">
-        <v>7.070000171661377</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="E110">
-        <v>7.070000171661377</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="F110">
-        <v>3465700</v>
+        <v>5843900</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>7.070000171661377</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="B111">
-        <v>7.239999771118164</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="C111">
-        <v>7.03000020980835</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="D111">
-        <v>7.179999828338623</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E111">
-        <v>7.179999828338623</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F111">
-        <v>2620400</v>
+        <v>9293000</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>7.210000038146973</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B112">
-        <v>7.269999980926514</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C112">
-        <v>6.880000114440918</v>
+        <v>5.635000228881836</v>
       </c>
       <c r="D112">
-        <v>7.03000020980835</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="E112">
-        <v>7.03000020980835</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="F112">
-        <v>5378800</v>
+        <v>6060200</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>7.010000228881836</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="B113">
-        <v>7.099999904632568</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="C113">
-        <v>6.789999961853027</v>
+        <v>5.743000030517578</v>
       </c>
       <c r="D113">
-        <v>6.840000152587891</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E113">
-        <v>6.840000152587891</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F113">
-        <v>3129400</v>
+        <v>5084800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>6.849999904632568</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="C114">
-        <v>6.809999942779541</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D114">
-        <v>6.880000114440918</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="E114">
-        <v>6.880000114440918</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="F114">
-        <v>2371800</v>
+        <v>4056400</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>6.889999866485596</v>
+        <v>5.5</v>
       </c>
       <c r="B115">
-        <v>7</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="C115">
-        <v>6.630000114440918</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="D115">
-        <v>6.630000114440918</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="E115">
-        <v>6.630000114440918</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="F115">
-        <v>2863000</v>
+        <v>5796200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>6.699999809265137</v>
+        <v>5.5</v>
       </c>
       <c r="B116">
-        <v>7.079999923706055</v>
+        <v>5.5</v>
       </c>
       <c r="C116">
-        <v>6.561999797821045</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="D116">
-        <v>6.989999771118164</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E116">
-        <v>6.989999771118164</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F116">
-        <v>3819900</v>
+        <v>7419400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>6.980000019073486</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="B117">
-        <v>6.980000019073486</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C117">
-        <v>6.78000020980835</v>
+        <v>4.849999904632568</v>
       </c>
       <c r="D117">
-        <v>6.900000095367432</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="E117">
-        <v>6.900000095367432</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="F117">
-        <v>2454900</v>
+        <v>7596600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>6.880000114440918</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="B118">
-        <v>7.159999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="C118">
-        <v>6.810999870300293</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="D118">
-        <v>6.940000057220459</v>
+        <v>4.75</v>
       </c>
       <c r="E118">
-        <v>6.940000057220459</v>
+        <v>4.75</v>
       </c>
       <c r="F118">
-        <v>4095900</v>
+        <v>6937800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>7.010000228881836</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="B119">
-        <v>7.070000171661377</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="C119">
-        <v>6.78000020980835</v>
+        <v>4.410999774932861</v>
       </c>
       <c r="D119">
-        <v>6.849999904632568</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E119">
-        <v>6.849999904632568</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F119">
-        <v>3208900</v>
+        <v>6445600</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>6.829999923706055</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B120">
-        <v>6.840000152587891</v>
+        <v>4.385000228881836</v>
       </c>
       <c r="C120">
-        <v>6.429999828338623</v>
+        <v>3.964999914169312</v>
       </c>
       <c r="D120">
-        <v>6.659999847412109</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="E120">
-        <v>6.659999847412109</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="F120">
-        <v>6610600</v>
+        <v>16513600</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>6.619999885559082</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="B121">
-        <v>7.329999923706055</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C121">
-        <v>6.619999885559082</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D121">
-        <v>7.300000190734863</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E121">
-        <v>7.300000190734863</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F121">
-        <v>11837300</v>
+        <v>5364400</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>7.21999979019165</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B122">
-        <v>7.590000152587891</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="C122">
-        <v>6.940000057220459</v>
+        <v>4</v>
       </c>
       <c r="D122">
-        <v>7.480000019073486</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="E122">
-        <v>7.480000019073486</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="F122">
-        <v>7869700</v>
+        <v>7823800</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>7.050000190734863</v>
+        <v>4.079999923706055</v>
       </c>
       <c r="B123">
-        <v>7.5</v>
+        <v>4.091000080108643</v>
       </c>
       <c r="C123">
-        <v>6.980000019073486</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="D123">
-        <v>7.099999904632568</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="E123">
-        <v>7.099999904632568</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="F123">
-        <v>6218500</v>
+        <v>7487400</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>7.119999885559082</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="B124">
-        <v>7.659999847412109</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="C124">
-        <v>7.090000152587891</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="D124">
-        <v>7.570000171661377</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="E124">
-        <v>7.570000171661377</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="F124">
-        <v>6070700</v>
+        <v>6932500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>7.75</v>
+        <v>3.924999952316284</v>
       </c>
       <c r="B125">
-        <v>8.579999923706055</v>
+        <v>4.269999980926514</v>
       </c>
       <c r="C125">
-        <v>7.730000019073486</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="D125">
-        <v>8.5</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="E125">
-        <v>8.5</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="F125">
-        <v>19189200</v>
+        <v>7851200</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>8.609999656677246</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="B126">
-        <v>8.689999580383301</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="C126">
-        <v>8.074999809265137</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="D126">
-        <v>8.109999656677246</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="E126">
-        <v>8.109999656677246</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="F126">
-        <v>14281800</v>
+        <v>5612200</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>8.060000419616699</v>
+        <v>4.5</v>
       </c>
       <c r="B127">
-        <v>8.470000267028809</v>
+        <v>4.514999866485596</v>
       </c>
       <c r="C127">
-        <v>7.78000020980835</v>
+        <v>4.230000019073486</v>
       </c>
       <c r="D127">
-        <v>8.319999694824219</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="E127">
-        <v>8.319999694824219</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="F127">
-        <v>7032200</v>
+        <v>4132600</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>8.210000038146973</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B128">
-        <v>8.399999618530273</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="C128">
-        <v>7.840000152587891</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="D128">
-        <v>7.889999866485596</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="E128">
-        <v>7.889999866485596</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="F128">
-        <v>6631100</v>
+        <v>4458800</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>7.860000133514404</v>
+        <v>4</v>
       </c>
       <c r="B129">
-        <v>7.940000057220459</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="C129">
-        <v>6.980000019073486</v>
+        <v>3.920799970626831</v>
       </c>
       <c r="D129">
-        <v>7.010000228881836</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E129">
-        <v>7.010000228881836</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F129">
-        <v>9810000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>7.289999961853027</v>
-      </c>
-      <c r="B130">
-        <v>7.389999866485596</v>
-      </c>
-      <c r="C130">
-        <v>6.980000019073486</v>
-      </c>
-      <c r="D130">
-        <v>7.039999961853027</v>
-      </c>
-      <c r="E130">
-        <v>7.039999961853027</v>
-      </c>
-      <c r="F130">
-        <v>5388100</v>
+        <v>5575382</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/ACB/HighLow.xlsx
+++ b/Stocks/ACB/HighLow.xlsx
@@ -2912,7 +2912,7 @@
         <v>4.46999979019165</v>
       </c>
       <c r="F126">
-        <v>5612200</v>
+        <v>5623600</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2963,7 +2963,7 @@
         <v>4.239999771118164</v>
       </c>
       <c r="C129">
-        <v>3.920799970626831</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="D129">
         <v>4.210000038146973</v>
@@ -2972,7 +2972,7 @@
         <v>4.210000038146973</v>
       </c>
       <c r="F129">
-        <v>5575382</v>
+        <v>5577500</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/ACB/HighLow.xlsx
+++ b/Stocks/ACB/HighLow.xlsx
@@ -417,513 +417,513 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6.973999977111816</v>
+        <v>7.166999816894531</v>
       </c>
       <c r="B2">
-        <v>7.550000190734863</v>
+        <v>7.166999816894531</v>
       </c>
       <c r="C2">
-        <v>6.900000095367432</v>
+        <v>6.965000152587891</v>
       </c>
       <c r="D2">
-        <v>7.349999904632568</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="E2">
-        <v>7.349999904632568</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="F2">
-        <v>7007000</v>
+        <v>3164600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>7.400000095367432</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="B3">
-        <v>7.400000095367432</v>
+        <v>7.059999942779541</v>
       </c>
       <c r="C3">
-        <v>7.135000228881836</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D3">
-        <v>7.320000171661377</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E3">
-        <v>7.320000171661377</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F3">
-        <v>2913800</v>
+        <v>5107300</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>7.309999942779541</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="B4">
-        <v>7.400000095367432</v>
+        <v>6.824999809265137</v>
       </c>
       <c r="C4">
-        <v>7.087999820709229</v>
+        <v>6.572000026702881</v>
       </c>
       <c r="D4">
-        <v>7.349999904632568</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="E4">
-        <v>7.349999904632568</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="F4">
-        <v>2366800</v>
+        <v>3585300</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>7.369999885559082</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="B5">
-        <v>7.449999809265137</v>
+        <v>6.764999866485596</v>
       </c>
       <c r="C5">
-        <v>7.221000194549561</v>
+        <v>6.46999979019165</v>
       </c>
       <c r="D5">
-        <v>7.320000171661377</v>
+        <v>6.75</v>
       </c>
       <c r="E5">
-        <v>7.320000171661377</v>
+        <v>6.75</v>
       </c>
       <c r="F5">
-        <v>3643600</v>
+        <v>3673600</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>7.349999904632568</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="B6">
-        <v>7.349999904632568</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C6">
-        <v>7.110000133514404</v>
+        <v>6.5</v>
       </c>
       <c r="D6">
-        <v>7.139999866485596</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="E6">
-        <v>7.139999866485596</v>
+        <v>6.690000057220459</v>
       </c>
       <c r="F6">
-        <v>2599600</v>
+        <v>5059600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>7.166999816894531</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="B7">
-        <v>7.166999816894531</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C7">
-        <v>6.965000152587891</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="D7">
-        <v>7.059999942779541</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E7">
-        <v>7.059999942779541</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F7">
-        <v>3164600</v>
+        <v>3915200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7.03000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B8">
-        <v>7.059999942779541</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C8">
-        <v>6.78000020980835</v>
+        <v>6.364999771118164</v>
       </c>
       <c r="D8">
-        <v>6.78000020980835</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E8">
-        <v>6.78000020980835</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F8">
-        <v>5107300</v>
+        <v>5468000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>6.800000190734863</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B9">
-        <v>6.824999809265137</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C9">
-        <v>6.572000026702881</v>
+        <v>6.684999942779541</v>
       </c>
       <c r="D9">
-        <v>6.610000133514404</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="E9">
-        <v>6.610000133514404</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="F9">
-        <v>3585300</v>
+        <v>3965800</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6.539999961853027</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B10">
-        <v>6.764999866485596</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="C10">
-        <v>6.46999979019165</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D10">
-        <v>6.75</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="E10">
-        <v>6.75</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="F10">
-        <v>3673600</v>
+        <v>5279000</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>6.739999771118164</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="B11">
-        <v>7.03000020980835</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="C11">
-        <v>6.5</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D11">
-        <v>6.690000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E11">
-        <v>6.690000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F11">
-        <v>5059600</v>
+        <v>3254900</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>6.610000133514404</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="B12">
-        <v>6.679999828338623</v>
+        <v>7.25</v>
       </c>
       <c r="C12">
-        <v>6.380000114440918</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="D12">
-        <v>6.440000057220459</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>6.440000057220459</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>3915200</v>
+        <v>3931200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>6.440000057220459</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B13">
-        <v>6.739999771118164</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="C13">
-        <v>6.364999771118164</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D13">
-        <v>6.679999828338623</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E13">
-        <v>6.679999828338623</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F13">
-        <v>5468000</v>
+        <v>3855200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>6.730000019073486</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B14">
-        <v>7.099999904632568</v>
+        <v>7.229000091552734</v>
       </c>
       <c r="C14">
-        <v>6.684999942779541</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="D14">
-        <v>6.949999809265137</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="E14">
-        <v>6.949999809265137</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="F14">
-        <v>3965800</v>
+        <v>2992500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>6.989999771118164</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="B15">
-        <v>7.260000228881836</v>
+        <v>7.619999885559082</v>
       </c>
       <c r="C15">
-        <v>6.880000114440918</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D15">
-        <v>7.230000019073486</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="E15">
-        <v>7.230000019073486</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="F15">
-        <v>5279000</v>
+        <v>5830500</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>7.099999904632568</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B16">
+        <v>7.590000152587891</v>
+      </c>
+      <c r="C16">
+        <v>7.144999980926514</v>
+      </c>
+      <c r="D16">
         <v>7.199999809265137</v>
       </c>
-      <c r="C16">
-        <v>6.900000095367432</v>
-      </c>
-      <c r="D16">
-        <v>7.099999904632568</v>
-      </c>
       <c r="E16">
-        <v>7.099999904632568</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F16">
-        <v>3254900</v>
+        <v>4164800</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>7.079999923706055</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B17">
-        <v>7.25</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="C17">
-        <v>6.889999866485596</v>
+        <v>7.204999923706055</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="E17">
-        <v>7</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="F17">
-        <v>3931200</v>
+        <v>4084600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6.989999771118164</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B18">
-        <v>7.210000038146973</v>
+        <v>7.735000133514404</v>
       </c>
       <c r="C18">
-        <v>6.900000095367432</v>
+        <v>7.335000038146973</v>
       </c>
       <c r="D18">
-        <v>7.179999828338623</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E18">
-        <v>7.179999828338623</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F18">
-        <v>3855200</v>
+        <v>5841500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>7.179999828338623</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="B19">
-        <v>7.229000091552734</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C19">
-        <v>6.989999771118164</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D19">
-        <v>7.139999866485596</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="E19">
-        <v>7.139999866485596</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="F19">
-        <v>2992500</v>
+        <v>4135100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>7.139999866485596</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B20">
-        <v>7.619999885559082</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C20">
-        <v>7.079999923706055</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D20">
-        <v>7.420000076293945</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E20">
-        <v>7.420000076293945</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F20">
-        <v>5830500</v>
+        <v>5370900</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>7.489999771118164</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="B21">
-        <v>7.590000152587891</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="C21">
-        <v>7.144999980926514</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D21">
-        <v>7.199999809265137</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="E21">
-        <v>7.199999809265137</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="F21">
-        <v>4164800</v>
+        <v>4079600</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>7.239999771118164</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B22">
-        <v>7.570000171661377</v>
+        <v>6.994999885559082</v>
       </c>
       <c r="C22">
-        <v>7.204999923706055</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D22">
-        <v>7.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E22">
-        <v>7.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F22">
-        <v>4084600</v>
+        <v>4302200</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>7.460000038146973</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B23">
-        <v>7.735000133514404</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="C23">
-        <v>7.335000038146973</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="D23">
-        <v>7.389999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E23">
-        <v>7.389999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F23">
-        <v>5841500</v>
+        <v>5296600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>7.340000152587891</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B24">
-        <v>7.550000190734863</v>
+        <v>6.701000213623047</v>
       </c>
       <c r="C24">
-        <v>7.130000114440918</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D24">
-        <v>7.159999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="E24">
-        <v>7.159999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="F24">
-        <v>4135100</v>
+        <v>4081100</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>7.110000133514404</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B25">
-        <v>7.159999847412109</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C25">
-        <v>6.829999923706055</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D25">
-        <v>6.889999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E25">
-        <v>6.889999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F25">
-        <v>5370900</v>
+        <v>3412000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>6.869999885559082</v>
+        <v>6.638999938964844</v>
       </c>
       <c r="B26">
-        <v>7.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C26">
-        <v>6.829999923706055</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D26">
-        <v>6.909999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E26">
-        <v>6.909999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F26">
-        <v>4079600</v>
+        <v>2144100</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>6.980000019073486</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B27">
-        <v>6.994999885559082</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C27">
-        <v>6.619999885559082</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D27">
         <v>6.630000114440918</v>
@@ -932,1518 +932,1518 @@
         <v>6.630000114440918</v>
       </c>
       <c r="F27">
-        <v>4302200</v>
+        <v>3191300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>6.670000076293945</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B28">
-        <v>6.730000019073486</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C28">
-        <v>6.460000038146973</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D28">
-        <v>6.630000114440918</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E28">
-        <v>6.630000114440918</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="F28">
-        <v>5296600</v>
+        <v>6981800</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>6.619999885559082</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B29">
-        <v>6.701000213623047</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C29">
-        <v>6.400000095367432</v>
+        <v>5.985000133514404</v>
       </c>
       <c r="D29">
-        <v>6.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E29">
-        <v>6.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F29">
-        <v>4081100</v>
+        <v>9683300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>6.480000019073486</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B30">
-        <v>6.710000038146973</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="C30">
-        <v>6.429999828338623</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D30">
-        <v>6.679999828338623</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E30">
-        <v>6.679999828338623</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F30">
-        <v>3412000</v>
+        <v>8517800</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>6.638999938964844</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B31">
-        <v>6.739999771118164</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="C31">
-        <v>6.559999942779541</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D31">
-        <v>6.619999885559082</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E31">
-        <v>6.619999885559082</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F31">
-        <v>2144100</v>
+        <v>5399300</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>6.630000114440918</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B32">
-        <v>6.679999828338623</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C32">
-        <v>6.429999828338623</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D32">
-        <v>6.630000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E32">
-        <v>6.630000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F32">
-        <v>3191300</v>
+        <v>5322300</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>6.409999847412109</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B33">
-        <v>6.409999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="C33">
-        <v>6.010000228881836</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D33">
-        <v>6.130000114440918</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="E33">
-        <v>6.130000114440918</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="F33">
-        <v>6981800</v>
+        <v>11547700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>6.159999847412109</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B34">
-        <v>6.349999904632568</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="C34">
-        <v>5.985000133514404</v>
+        <v>6.25</v>
       </c>
       <c r="D34">
-        <v>6.03000020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="E34">
-        <v>6.03000020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="F34">
-        <v>9683300</v>
+        <v>13804600</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>6.010000228881836</v>
+        <v>6.75</v>
       </c>
       <c r="B35">
-        <v>6.110000133514404</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C35">
-        <v>5.849999904632568</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D35">
-        <v>6.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="E35">
-        <v>6.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="F35">
-        <v>8517800</v>
+        <v>6806600</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>6.119999885559082</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B36">
-        <v>6.224999904632568</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C36">
-        <v>6.079999923706055</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D36">
-        <v>6.150000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E36">
-        <v>6.150000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F36">
-        <v>5399300</v>
+        <v>5328000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>6.070000171661377</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B37">
-        <v>6.099999904632568</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="C37">
-        <v>5.920000076293945</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D37">
-        <v>5.949999809265137</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E37">
-        <v>5.949999809265137</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F37">
-        <v>5322300</v>
+        <v>4481100</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>6.010000228881836</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B38">
-        <v>6.5</v>
+        <v>7.09499979019165</v>
       </c>
       <c r="C38">
-        <v>5.889999866485596</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D38">
-        <v>6.385000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E38">
-        <v>6.385000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F38">
-        <v>11547700</v>
+        <v>4141300</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>6.289999961853027</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>6.989999771118164</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C39">
-        <v>6.25</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D39">
-        <v>6.809999942779541</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E39">
-        <v>6.809999942779541</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F39">
-        <v>13804600</v>
+        <v>5011000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>6.75</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B40">
-        <v>6.840000152587891</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C40">
-        <v>6.480000019073486</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D40">
-        <v>6.739999771118164</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E40">
-        <v>6.739999771118164</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F40">
-        <v>6806600</v>
+        <v>3260100</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>6.630000114440918</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B41">
-        <v>6.980000019073486</v>
+        <v>7.5</v>
       </c>
       <c r="C41">
-        <v>6.610000133514404</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="D41">
-        <v>6.920000076293945</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E41">
-        <v>6.920000076293945</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F41">
-        <v>5328000</v>
+        <v>3162800</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>6.880000114440918</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B42">
-        <v>7.119999885559082</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C42">
-        <v>6.815000057220459</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D42">
-        <v>7.079999923706055</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E42">
-        <v>7.079999923706055</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F42">
-        <v>4481100</v>
+        <v>3929200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>7.019999980926514</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B43">
-        <v>7.09499979019165</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="C43">
-        <v>6.920000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D43">
-        <v>7.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E43">
-        <v>7.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F43">
-        <v>4141300</v>
+        <v>1903700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>7</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B44">
-        <v>7.449999809265137</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C44">
-        <v>6.980000019073486</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D44">
-        <v>7.300000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E44">
-        <v>7.300000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F44">
-        <v>5011000</v>
+        <v>2073800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.179999828338623</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B45">
-        <v>7.400000095367432</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C45">
-        <v>7.179999828338623</v>
+        <v>7</v>
       </c>
       <c r="D45">
-        <v>7.349999904632568</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E45">
-        <v>7.349999904632568</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F45">
-        <v>3260100</v>
+        <v>1730900</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>7.420000076293945</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B46">
-        <v>7.5</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C46">
-        <v>7.230000019073486</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D46">
-        <v>7.380000114440918</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="E46">
-        <v>7.380000114440918</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="F46">
-        <v>3162800</v>
+        <v>3378300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>7.369999885559082</v>
+        <v>7.276999950408936</v>
       </c>
       <c r="B47">
-        <v>7.599999904632568</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C47">
-        <v>7.170000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D47">
-        <v>7.210000038146973</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E47">
-        <v>7.210000038146973</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F47">
-        <v>3929200</v>
+        <v>2760200</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>7.170000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B48">
-        <v>7.21999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C48">
-        <v>7.010000228881836</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D48">
-        <v>7.010000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E48">
-        <v>7.010000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F48">
-        <v>1903700</v>
+        <v>3212700</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>7.090000152587891</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="B49">
-        <v>7.170000076293945</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C49">
-        <v>6.96999979019165</v>
+        <v>6.90500020980835</v>
       </c>
       <c r="D49">
-        <v>7.019999980926514</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E49">
-        <v>7.019999980926514</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="F49">
-        <v>2073800</v>
+        <v>5392400</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>7.090000152587891</v>
+        <v>7.402999877929688</v>
       </c>
       <c r="B50">
-        <v>7.170000076293945</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D50">
-        <v>7.110000133514404</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E50">
-        <v>7.110000133514404</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="F50">
-        <v>1730900</v>
+        <v>7013500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>7.170000076293945</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="B51">
-        <v>7.440000057220459</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="C51">
-        <v>7.139999866485596</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="D51">
-        <v>7.260000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="E51">
-        <v>7.260000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="F51">
-        <v>3378300</v>
+        <v>5693300</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>7.276999950408936</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="B52">
-        <v>7.289999961853027</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C52">
-        <v>7.010000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="D52">
-        <v>7.03000020980835</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E52">
-        <v>7.03000020980835</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F52">
-        <v>2760200</v>
+        <v>3465700</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>7.010000228881836</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B53">
+        <v>7.239999771118164</v>
+      </c>
+      <c r="C53">
         <v>7.03000020980835</v>
       </c>
-      <c r="C53">
-        <v>6.869999885559082</v>
-      </c>
       <c r="D53">
-        <v>6.920000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E53">
-        <v>6.920000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F53">
-        <v>3212700</v>
+        <v>2620400</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>6.949999809265137</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B54">
-        <v>7.449999809265137</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="C54">
-        <v>6.90500020980835</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D54">
-        <v>7.449999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E54">
-        <v>7.449999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F54">
-        <v>5392400</v>
+        <v>5378800</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>7.402999877929688</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B55">
-        <v>7.800000190734863</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C55">
-        <v>7.300000190734863</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="D55">
-        <v>7.659999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E55">
-        <v>7.659999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F55">
-        <v>7013500</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>7.599999904632568</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="B56">
-        <v>7.880000114440918</v>
+        <v>7</v>
       </c>
       <c r="C56">
-        <v>7.369999885559082</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="D56">
-        <v>7.369999885559082</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="E56">
-        <v>7.369999885559082</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="F56">
-        <v>5693300</v>
+        <v>2371800</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>7.329999923706055</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="B57">
-        <v>7.389999866485596</v>
+        <v>7</v>
       </c>
       <c r="C57">
-        <v>7.039999961853027</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D57">
-        <v>7.070000171661377</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E57">
-        <v>7.070000171661377</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F57">
-        <v>3465700</v>
+        <v>2863000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>7.070000171661377</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B58">
-        <v>7.239999771118164</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C58">
-        <v>7.03000020980835</v>
+        <v>6.561999797821045</v>
       </c>
       <c r="D58">
-        <v>7.179999828338623</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="E58">
-        <v>7.179999828338623</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="F58">
-        <v>2620400</v>
+        <v>3819900</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>7.210000038146973</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B59">
-        <v>7.269999980926514</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C59">
-        <v>6.880000114440918</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D59">
-        <v>7.03000020980835</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="E59">
-        <v>7.03000020980835</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F59">
-        <v>5378800</v>
+        <v>2454900</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>7.010000228881836</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B60">
-        <v>7.099999904632568</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C60">
-        <v>6.789999961853027</v>
+        <v>6.810999870300293</v>
       </c>
       <c r="D60">
-        <v>6.840000152587891</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E60">
-        <v>6.840000152587891</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F60">
-        <v>3129400</v>
+        <v>4095900</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
+        <v>7.010000228881836</v>
+      </c>
+      <c r="B61">
+        <v>7.070000171661377</v>
+      </c>
+      <c r="C61">
+        <v>6.78000020980835</v>
+      </c>
+      <c r="D61">
         <v>6.849999904632568</v>
       </c>
-      <c r="B61">
-        <v>7</v>
-      </c>
-      <c r="C61">
-        <v>6.809999942779541</v>
-      </c>
-      <c r="D61">
-        <v>6.880000114440918</v>
-      </c>
       <c r="E61">
-        <v>6.880000114440918</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="F61">
-        <v>2371800</v>
+        <v>3208900</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>6.889999866485596</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="B62">
-        <v>7</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C62">
-        <v>6.630000114440918</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D62">
-        <v>6.630000114440918</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E62">
-        <v>6.630000114440918</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F62">
-        <v>2863000</v>
+        <v>6610600</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>6.699999809265137</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B63">
-        <v>7.079999923706055</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C63">
-        <v>6.561999797821045</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D63">
-        <v>6.989999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E63">
-        <v>6.989999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F63">
-        <v>3819900</v>
+        <v>11837300</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>6.980000019073486</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B64">
-        <v>6.980000019073486</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C64">
-        <v>6.78000020980835</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D64">
-        <v>6.900000095367432</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="E64">
-        <v>6.900000095367432</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="F64">
-        <v>2454900</v>
+        <v>7869700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>6.880000114440918</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B65">
-        <v>7.159999847412109</v>
+        <v>7.5</v>
       </c>
       <c r="C65">
-        <v>6.810999870300293</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D65">
-        <v>6.940000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E65">
-        <v>6.940000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F65">
-        <v>4095900</v>
+        <v>6218500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>7.010000228881836</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="B66">
-        <v>7.070000171661377</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C66">
-        <v>6.78000020980835</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D66">
-        <v>6.849999904632568</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E66">
-        <v>6.849999904632568</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F66">
-        <v>3208900</v>
+        <v>6070700</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>6.829999923706055</v>
+        <v>7.75</v>
       </c>
       <c r="B67">
-        <v>6.840000152587891</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C67">
-        <v>6.429999828338623</v>
+        <v>7.730000019073486</v>
       </c>
       <c r="D67">
-        <v>6.659999847412109</v>
+        <v>8.5</v>
       </c>
       <c r="E67">
-        <v>6.659999847412109</v>
+        <v>8.5</v>
       </c>
       <c r="F67">
-        <v>6610600</v>
+        <v>19189200</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>6.619999885559082</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="B68">
-        <v>7.329999923706055</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="C68">
-        <v>6.619999885559082</v>
+        <v>8.074999809265137</v>
       </c>
       <c r="D68">
-        <v>7.300000190734863</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E68">
-        <v>7.300000190734863</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F68">
-        <v>11837300</v>
+        <v>14281800</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>7.21999979019165</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="B69">
-        <v>7.590000152587891</v>
+        <v>8.470000267028809</v>
       </c>
       <c r="C69">
-        <v>6.940000057220459</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="D69">
-        <v>7.480000019073486</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="E69">
-        <v>7.480000019073486</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="F69">
-        <v>7869700</v>
+        <v>7032200</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>7.050000190734863</v>
+        <v>8.210000038146973</v>
       </c>
       <c r="B70">
-        <v>7.5</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C70">
-        <v>6.980000019073486</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D70">
-        <v>7.099999904632568</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="E70">
-        <v>7.099999904632568</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="F70">
-        <v>6218500</v>
+        <v>6631100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>7.119999885559082</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="B71">
-        <v>7.659999847412109</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C71">
-        <v>7.090000152587891</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D71">
-        <v>7.570000171661377</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E71">
-        <v>7.570000171661377</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F71">
-        <v>6070700</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>7.75</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="B72">
-        <v>8.579999923706055</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C72">
-        <v>7.730000019073486</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D72">
-        <v>8.5</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E72">
-        <v>8.5</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F72">
-        <v>19189200</v>
+        <v>5401800</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>8.609999656677246</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B73">
-        <v>8.689999580383301</v>
+        <v>7.067999839782715</v>
       </c>
       <c r="C73">
-        <v>8.074999809265137</v>
+        <v>6.59499979019165</v>
       </c>
       <c r="D73">
-        <v>8.109999656677246</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="E73">
-        <v>8.109999656677246</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="F73">
-        <v>14281800</v>
+        <v>6519900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>8.060000419616699</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="B74">
-        <v>8.470000267028809</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="C74">
-        <v>7.78000020980835</v>
+        <v>6.519999980926514</v>
       </c>
       <c r="D74">
-        <v>8.319999694824219</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E74">
-        <v>8.319999694824219</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F74">
-        <v>7032200</v>
+        <v>4861700</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>8.210000038146973</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B75">
-        <v>8.399999618530273</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="C75">
-        <v>7.840000152587891</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D75">
-        <v>7.889999866485596</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E75">
-        <v>7.889999866485596</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F75">
-        <v>6631100</v>
+        <v>4687500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>7.860000133514404</v>
+        <v>6.5</v>
       </c>
       <c r="B76">
-        <v>7.940000057220459</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C76">
-        <v>6.980000019073486</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="D76">
-        <v>7.010000228881836</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="E76">
-        <v>7.010000228881836</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="F76">
-        <v>9810000</v>
+        <v>3386100</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>7.289999961853027</v>
+        <v>6.815999984741211</v>
       </c>
       <c r="B77">
-        <v>7.389999866485596</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C77">
-        <v>6.980000019073486</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="D77">
-        <v>7.039999961853027</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E77">
-        <v>7.039999961853027</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F77">
-        <v>5401800</v>
+        <v>6041200</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>7.050000190734863</v>
+        <v>6.40500020980835</v>
       </c>
       <c r="B78">
-        <v>7.067999839782715</v>
+        <v>6.63100004196167</v>
       </c>
       <c r="C78">
-        <v>6.59499979019165</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="D78">
-        <v>6.699999809265137</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E78">
-        <v>6.699999809265137</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F78">
-        <v>6519900</v>
+        <v>4554000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>6.71999979019165</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B79">
-        <v>6.880000114440918</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="C79">
-        <v>6.519999980926514</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D79">
-        <v>6.630000114440918</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E79">
-        <v>6.630000114440918</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F79">
-        <v>4861700</v>
+        <v>5549000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>6.630000114440918</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>6.940000057220459</v>
+        <v>6.25</v>
       </c>
       <c r="C80">
-        <v>6.480000019073486</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D80">
-        <v>6.78000020980835</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E80">
-        <v>6.78000020980835</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F80">
-        <v>4687500</v>
+        <v>7263500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>6.5</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="B81">
-        <v>6.800000190734863</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="C81">
-        <v>6.489999771118164</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="D81">
-        <v>6.789999961853027</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E81">
-        <v>6.789999961853027</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F81">
-        <v>3386100</v>
+        <v>5836100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>6.815999984741211</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="B82">
-        <v>6.840000152587891</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C82">
-        <v>6.389999866485596</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D82">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E82">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F82">
-        <v>6041200</v>
+        <v>5358700</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>6.40500020980835</v>
+        <v>6.111000061035156</v>
       </c>
       <c r="B83">
-        <v>6.63100004196167</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="C83">
-        <v>6.099999904632568</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>6.420000076293945</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="E83">
-        <v>6.420000076293945</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="F83">
-        <v>4554000</v>
+        <v>4829000</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>6.510000228881836</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="B84">
-        <v>6.539999961853027</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C84">
-        <v>5.96999979019165</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="D84">
-        <v>6.010000228881836</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E84">
-        <v>6.010000228881836</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F84">
-        <v>5549000</v>
+        <v>3954400</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="B85">
-        <v>6.25</v>
+        <v>6.664999961853027</v>
       </c>
       <c r="C85">
-        <v>5.900000095367432</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="D85">
-        <v>6.139999866485596</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E85">
-        <v>6.139999866485596</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F85">
-        <v>7263500</v>
+        <v>3042900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>6.110000133514404</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B86">
-        <v>6.159999847412109</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C86">
-        <v>5.730000019073486</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D86">
-        <v>5.820000171661377</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E86">
-        <v>5.820000171661377</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F86">
-        <v>5836100</v>
+        <v>2992000</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>5.769999980926514</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="B87">
-        <v>6.090000152587891</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="C87">
-        <v>5.550000190734863</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D87">
-        <v>5.96999979019165</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="E87">
-        <v>5.96999979019165</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="F87">
-        <v>5358700</v>
+        <v>3199300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>6.111000061035156</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="B88">
-        <v>6.489999771118164</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C88">
-        <v>6</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="D88">
-        <v>6.380000114440918</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E88">
-        <v>6.380000114440918</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F88">
-        <v>4829000</v>
+        <v>3528800</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>6.380000114440918</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="B89">
-        <v>6.739999771118164</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C89">
-        <v>6.224999904632568</v>
+        <v>5.422999858856201</v>
       </c>
       <c r="D89">
-        <v>6.570000171661377</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E89">
-        <v>6.570000171661377</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F89">
-        <v>3954400</v>
+        <v>6450500</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>6.53000020980835</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B90">
-        <v>6.664999961853027</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="C90">
-        <v>6.21999979019165</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D90">
-        <v>6.28000020980835</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E90">
-        <v>6.28000020980835</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F90">
-        <v>3042900</v>
+        <v>4319900</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>6.289999961853027</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="B91">
-        <v>6.480000019073486</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="C91">
-        <v>6.059999942779541</v>
+        <v>5.543000221252441</v>
       </c>
       <c r="D91">
-        <v>6.119999885559082</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="E91">
-        <v>6.119999885559082</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F91">
-        <v>2992000</v>
+        <v>4024100</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>6.135000228881836</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B92">
-        <v>6.135000228881836</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="C92">
-        <v>5.855000019073486</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D92">
-        <v>5.989999771118164</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="E92">
-        <v>5.989999771118164</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="F92">
-        <v>3199300</v>
+        <v>3678200</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>5.889999866485596</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="B93">
-        <v>6.090000152587891</v>
+        <v>6.034999847412109</v>
       </c>
       <c r="C93">
-        <v>5.835000038146973</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="D93">
-        <v>5.869999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E93">
-        <v>5.869999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F93">
-        <v>3528800</v>
+        <v>4298400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>5.849999904632568</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B94">
-        <v>5.869999885559082</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C94">
-        <v>5.422999858856201</v>
+        <v>5.75</v>
       </c>
       <c r="D94">
-        <v>5.78000020980835</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="E94">
-        <v>5.78000020980835</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="F94">
-        <v>6450500</v>
+        <v>2991900</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>5.860000133514404</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B95">
-        <v>5.960000038146973</v>
+        <v>6.188000202178955</v>
       </c>
       <c r="C95">
-        <v>5.630000114440918</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D95">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E95">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F95">
-        <v>4319900</v>
+        <v>4050200</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>5.630000114440918</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B96">
-        <v>5.949999809265137</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C96">
-        <v>5.543000221252441</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="D96">
-        <v>5.849999904632568</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="E96">
-        <v>5.849999904632568</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="F96">
-        <v>4024100</v>
+        <v>3964200</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>5.699999809265137</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="B97">
-        <v>5.789999961853027</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C97">
-        <v>5.53000020980835</v>
+        <v>5.710000038146973</v>
       </c>
       <c r="D97">
-        <v>5.659999847412109</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="E97">
-        <v>5.659999847412109</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="F97">
-        <v>3678200</v>
+        <v>3673500</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>5.679999828338623</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B98">
-        <v>6.034999847412109</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C98">
-        <v>5.670000076293945</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="D98">
-        <v>5.949999809265137</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="E98">
-        <v>5.949999809265137</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="F98">
-        <v>4298400</v>
+        <v>8242700</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>5.909999847412109</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="B99">
-        <v>6.010000228881836</v>
+        <v>5.718999862670898</v>
       </c>
       <c r="C99">
-        <v>5.75</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D99">
-        <v>5.929999828338623</v>
+        <v>5.5</v>
       </c>
       <c r="E99">
-        <v>5.929999828338623</v>
+        <v>5.5</v>
       </c>
       <c r="F99">
-        <v>2991900</v>
+        <v>6141000</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>5.909999847412109</v>
+        <v>5.519000053405762</v>
       </c>
       <c r="B100">
-        <v>6.188000202178955</v>
+        <v>5.688000202178955</v>
       </c>
       <c r="C100">
-        <v>5.855000019073486</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D100">
-        <v>6.119999885559082</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="E100">
-        <v>6.119999885559082</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="F100">
-        <v>4050200</v>
+        <v>4716800</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>6.070000171661377</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B101">
-        <v>6.099999904632568</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C101">
-        <v>5.880000114440918</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="D101">
-        <v>5.940000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="E101">
-        <v>5.940000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="F101">
-        <v>3964200</v>
+        <v>5207000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>5.880000114440918</v>
+        <v>5.75</v>
       </c>
       <c r="B102">
-        <v>6.050000190734863</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="C102">
-        <v>5.710000038146973</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="D102">
-        <v>5.730000019073486</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="E102">
-        <v>5.730000019073486</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="F102">
-        <v>3673500</v>
+        <v>4137000</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>5.699999809265137</v>
+        <v>5.75</v>
       </c>
       <c r="B103">
-        <v>5.849999904632568</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C103">
-        <v>5.420000076293945</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D103">
         <v>5.449999809265137</v>
@@ -2452,138 +2452,138 @@
         <v>5.449999809265137</v>
       </c>
       <c r="F103">
-        <v>8242700</v>
+        <v>4337400</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>5.449999809265137</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="B104">
-        <v>5.718999862670898</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="C104">
-        <v>5.429999828338623</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="D104">
-        <v>5.5</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="E104">
-        <v>5.5</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="F104">
-        <v>6141000</v>
+        <v>4924300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>5.519000053405762</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="B105">
-        <v>5.688000202178955</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="C105">
         <v>5.389999866485596</v>
       </c>
       <c r="D105">
-        <v>5.409999847412109</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="E105">
-        <v>5.409999847412109</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="F105">
-        <v>4716800</v>
+        <v>5843900</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>5.510000228881836</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="B106">
-        <v>5.96999979019165</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="C106">
-        <v>5.449999809265137</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="D106">
-        <v>5.75</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E106">
-        <v>5.75</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F106">
-        <v>5207000</v>
+        <v>9293000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>5.75</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B107">
-        <v>5.829999923706055</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C107">
-        <v>5.539999961853027</v>
+        <v>5.635000228881836</v>
       </c>
       <c r="D107">
-        <v>5.769999980926514</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="E107">
-        <v>5.769999980926514</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="F107">
-        <v>4137000</v>
+        <v>6060200</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>5.75</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="B108">
-        <v>5.869999885559082</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="C108">
-        <v>5.429999828338623</v>
+        <v>5.743000030517578</v>
       </c>
       <c r="D108">
-        <v>5.449999809265137</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E108">
-        <v>5.449999809265137</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F108">
-        <v>4337400</v>
+        <v>5084800</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>5.46999979019165</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B109">
-        <v>5.590000152587891</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="C109">
-        <v>5.21999979019165</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D109">
-        <v>5.369999885559082</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="E109">
-        <v>5.369999885559082</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="F109">
-        <v>4924300</v>
+        <v>4056400</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>5.389999866485596</v>
+        <v>5.5</v>
       </c>
       <c r="B110">
-        <v>5.699999809265137</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="C110">
-        <v>5.389999866485596</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="D110">
         <v>5.510000228881836</v>
@@ -2592,207 +2592,207 @@
         <v>5.510000228881836</v>
       </c>
       <c r="F110">
-        <v>5843900</v>
+        <v>5796200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>5.590000152587891</v>
+        <v>5.5</v>
       </c>
       <c r="B111">
-        <v>5.835000038146973</v>
+        <v>5.5</v>
       </c>
       <c r="C111">
-        <v>5.409999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="D111">
-        <v>5.760000228881836</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E111">
-        <v>5.760000228881836</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F111">
-        <v>9293000</v>
+        <v>7419400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>5.659999847412109</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="B112">
-        <v>6.050000190734863</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C112">
-        <v>5.635000228881836</v>
+        <v>4.849999904632568</v>
       </c>
       <c r="D112">
-        <v>5.889999866485596</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="E112">
-        <v>5.889999866485596</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="F112">
-        <v>6060200</v>
+        <v>7596600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>5.949999809265137</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="B113">
-        <v>6.03000020980835</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="C113">
-        <v>5.743000030517578</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="D113">
-        <v>5.760000228881836</v>
+        <v>4.75</v>
       </c>
       <c r="E113">
-        <v>5.760000228881836</v>
+        <v>4.75</v>
       </c>
       <c r="F113">
-        <v>5084800</v>
+        <v>6937800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>5.760000228881836</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="B114">
-        <v>5.800000190734863</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="C114">
-        <v>5.53000020980835</v>
+        <v>4.410999774932861</v>
       </c>
       <c r="D114">
-        <v>5.539999961853027</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E114">
-        <v>5.539999961853027</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F114">
-        <v>4056400</v>
+        <v>6445600</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>5.5</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B115">
-        <v>5.579999923706055</v>
+        <v>4.385000228881836</v>
       </c>
       <c r="C115">
-        <v>5.380000114440918</v>
+        <v>3.964999914169312</v>
       </c>
       <c r="D115">
-        <v>5.510000228881836</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="E115">
-        <v>5.510000228881836</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="F115">
-        <v>5796200</v>
+        <v>16513600</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>5.5</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="B116">
-        <v>5.5</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C116">
-        <v>5.110000133514404</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D116">
-        <v>5.110000133514404</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E116">
-        <v>5.110000133514404</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F116">
-        <v>7419400</v>
+        <v>5364400</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>5.150000095367432</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B117">
-        <v>5.199999809265137</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="C117">
-        <v>4.849999904632568</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>4.860000133514404</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="E117">
-        <v>4.860000133514404</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="F117">
-        <v>7596600</v>
+        <v>7823800</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>4.909999847412109</v>
+        <v>4.079999923706055</v>
       </c>
       <c r="B118">
-        <v>5.110000133514404</v>
+        <v>4.091000080108643</v>
       </c>
       <c r="C118">
-        <v>4.739999771118164</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="D118">
-        <v>4.75</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="E118">
-        <v>4.75</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="F118">
-        <v>6937800</v>
+        <v>7487400</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>4.699999809265137</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="B119">
-        <v>4.739999771118164</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="C119">
-        <v>4.410999774932861</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="D119">
-        <v>4.460000038146973</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="E119">
-        <v>4.460000038146973</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="F119">
-        <v>6445600</v>
+        <v>6932500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>4.369999885559082</v>
+        <v>3.924999952316284</v>
       </c>
       <c r="B120">
-        <v>4.385000228881836</v>
+        <v>4.269999980926514</v>
       </c>
       <c r="C120">
-        <v>3.964999914169312</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="D120">
-        <v>4.320000171661377</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="E120">
-        <v>4.320000171661377</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="F120">
-        <v>16513600</v>
+        <v>7851200</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2800,179 +2800,179 @@
         <v>4.239999771118164</v>
       </c>
       <c r="B121">
-        <v>4.329999923706055</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="C121">
-        <v>4.050000190734863</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="D121">
-        <v>4.210000038146973</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="E121">
-        <v>4.210000038146973</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="F121">
-        <v>5364400</v>
+        <v>5623600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>4.329999923706055</v>
+        <v>4.5</v>
       </c>
       <c r="B122">
-        <v>4.369999885559082</v>
+        <v>4.514999866485596</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>4.230000019073486</v>
       </c>
       <c r="D122">
-        <v>4.059999942779541</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="E122">
-        <v>4.059999942779541</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="F122">
-        <v>7823800</v>
+        <v>4132600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>4.079999923706055</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B123">
-        <v>4.091000080108643</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="C123">
-        <v>3.769999980926514</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="D123">
-        <v>3.789999961853027</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="E123">
-        <v>3.789999961853027</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="F123">
-        <v>7487400</v>
+        <v>4458800</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>3.779999971389771</v>
+        <v>4</v>
       </c>
       <c r="B124">
-        <v>3.940000057220459</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="C124">
-        <v>3.710000038146973</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="D124">
-        <v>3.910000085830688</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E124">
-        <v>3.910000085830688</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F124">
-        <v>6932500</v>
+        <v>5577500</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>3.924999952316284</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B125">
-        <v>4.269999980926514</v>
+        <v>4.416999816894531</v>
       </c>
       <c r="C125">
-        <v>3.869999885559082</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="D125">
-        <v>4.159999847412109</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="E125">
-        <v>4.159999847412109</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="F125">
-        <v>7851200</v>
+        <v>3897300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4.239999771118164</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="B126">
-        <v>4.559999942779541</v>
+        <v>4.224999904632568</v>
       </c>
       <c r="C126">
-        <v>4.139999866485596</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="D126">
-        <v>4.46999979019165</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="E126">
-        <v>4.46999979019165</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="F126">
-        <v>5623600</v>
+        <v>3210300</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>4.5</v>
+        <v>4.277999877929688</v>
       </c>
       <c r="B127">
-        <v>4.514999866485596</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C127">
-        <v>4.230000019073486</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="D127">
-        <v>4.260000228881836</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E127">
-        <v>4.260000228881836</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F127">
-        <v>4132600</v>
+        <v>6697000</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>4.139999866485596</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="B128">
-        <v>4.21999979019165</v>
+        <v>4.824999809265137</v>
       </c>
       <c r="C128">
-        <v>3.950000047683716</v>
+        <v>4.440000057220459</v>
       </c>
       <c r="D128">
-        <v>3.960000038146973</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="E128">
-        <v>3.960000038146973</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="F128">
-        <v>4458800</v>
+        <v>9350700</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>4</v>
+        <v>4.480000019073486</v>
       </c>
       <c r="B129">
-        <v>4.239999771118164</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="C129">
-        <v>3.920000076293945</v>
+        <v>4.284999847412109</v>
       </c>
       <c r="D129">
-        <v>4.210000038146973</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="E129">
-        <v>4.210000038146973</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="F129">
-        <v>5577500</v>
+        <v>15361700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/ACB/HighLow.xlsx
+++ b/Stocks/ACB/HighLow.xlsx
@@ -417,413 +417,413 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>7.166999816894531</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="B2">
-        <v>7.166999816894531</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C2">
-        <v>6.965000152587891</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="D2">
-        <v>7.059999942779541</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E2">
-        <v>7.059999942779541</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F2">
-        <v>3164600</v>
+        <v>3915200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>7.03000020980835</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="B3">
-        <v>7.059999942779541</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C3">
-        <v>6.78000020980835</v>
+        <v>6.364999771118164</v>
       </c>
       <c r="D3">
-        <v>6.78000020980835</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E3">
-        <v>6.78000020980835</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F3">
-        <v>5107300</v>
+        <v>5468000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>6.800000190734863</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="B4">
-        <v>6.824999809265137</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C4">
-        <v>6.572000026702881</v>
+        <v>6.684999942779541</v>
       </c>
       <c r="D4">
-        <v>6.610000133514404</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="E4">
-        <v>6.610000133514404</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="F4">
-        <v>3585300</v>
+        <v>3965800</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6.539999961853027</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B5">
-        <v>6.764999866485596</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="C5">
-        <v>6.46999979019165</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D5">
-        <v>6.75</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="E5">
-        <v>6.75</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="F5">
-        <v>3673600</v>
+        <v>5279000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>6.739999771118164</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="B6">
-        <v>7.03000020980835</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D6">
-        <v>6.690000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E6">
-        <v>6.690000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F6">
-        <v>5059600</v>
+        <v>3254900</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6.610000133514404</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="B7">
-        <v>6.679999828338623</v>
+        <v>7.25</v>
       </c>
       <c r="C7">
-        <v>6.380000114440918</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="D7">
-        <v>6.440000057220459</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>6.440000057220459</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>3915200</v>
+        <v>3931200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6.440000057220459</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B8">
-        <v>6.739999771118164</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="C8">
-        <v>6.364999771118164</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D8">
-        <v>6.679999828338623</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E8">
-        <v>6.679999828338623</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F8">
-        <v>5468000</v>
+        <v>3855200</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>6.730000019073486</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B9">
-        <v>7.099999904632568</v>
+        <v>7.229000091552734</v>
       </c>
       <c r="C9">
-        <v>6.684999942779541</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="D9">
-        <v>6.949999809265137</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="E9">
-        <v>6.949999809265137</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="F9">
-        <v>3965800</v>
+        <v>2992500</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6.989999771118164</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="B10">
-        <v>7.260000228881836</v>
+        <v>7.619999885559082</v>
       </c>
       <c r="C10">
-        <v>6.880000114440918</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D10">
-        <v>7.230000019073486</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="E10">
-        <v>7.230000019073486</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="F10">
-        <v>5279000</v>
+        <v>5830500</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>7.099999904632568</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B11">
+        <v>7.590000152587891</v>
+      </c>
+      <c r="C11">
+        <v>7.144999980926514</v>
+      </c>
+      <c r="D11">
         <v>7.199999809265137</v>
       </c>
-      <c r="C11">
-        <v>6.900000095367432</v>
-      </c>
-      <c r="D11">
-        <v>7.099999904632568</v>
-      </c>
       <c r="E11">
-        <v>7.099999904632568</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F11">
-        <v>3254900</v>
+        <v>4164800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>7.079999923706055</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B12">
-        <v>7.25</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="C12">
-        <v>6.889999866485596</v>
+        <v>7.204999923706055</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="F12">
-        <v>3931200</v>
+        <v>4084600</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>6.989999771118164</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B13">
-        <v>7.210000038146973</v>
+        <v>7.735000133514404</v>
       </c>
       <c r="C13">
-        <v>6.900000095367432</v>
+        <v>7.335000038146973</v>
       </c>
       <c r="D13">
-        <v>7.179999828338623</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E13">
-        <v>7.179999828338623</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F13">
-        <v>3855200</v>
+        <v>5841500</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>7.179999828338623</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="B14">
-        <v>7.229000091552734</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C14">
-        <v>6.989999771118164</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D14">
-        <v>7.139999866485596</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="E14">
-        <v>7.139999866485596</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="F14">
-        <v>2992500</v>
+        <v>4135100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>7.139999866485596</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B15">
-        <v>7.619999885559082</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C15">
-        <v>7.079999923706055</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D15">
-        <v>7.420000076293945</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E15">
-        <v>7.420000076293945</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F15">
-        <v>5830500</v>
+        <v>5370900</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>7.489999771118164</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="B16">
-        <v>7.590000152587891</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="C16">
-        <v>7.144999980926514</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D16">
-        <v>7.199999809265137</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="E16">
-        <v>7.199999809265137</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="F16">
-        <v>4164800</v>
+        <v>4079600</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>7.239999771118164</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B17">
-        <v>7.570000171661377</v>
+        <v>6.994999885559082</v>
       </c>
       <c r="C17">
-        <v>7.204999923706055</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D17">
-        <v>7.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E17">
-        <v>7.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F17">
-        <v>4084600</v>
+        <v>4302200</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>7.460000038146973</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B18">
-        <v>7.735000133514404</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="C18">
-        <v>7.335000038146973</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="D18">
-        <v>7.389999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E18">
-        <v>7.389999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F18">
-        <v>5841500</v>
+        <v>5296600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>7.340000152587891</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B19">
-        <v>7.550000190734863</v>
+        <v>6.701000213623047</v>
       </c>
       <c r="C19">
-        <v>7.130000114440918</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D19">
-        <v>7.159999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="E19">
-        <v>7.159999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="F19">
-        <v>4135100</v>
+        <v>4081100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>7.110000133514404</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B20">
-        <v>7.159999847412109</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C20">
-        <v>6.829999923706055</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D20">
-        <v>6.889999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E20">
-        <v>6.889999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F20">
-        <v>5370900</v>
+        <v>3412000</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>6.869999885559082</v>
+        <v>6.638999938964844</v>
       </c>
       <c r="B21">
-        <v>7.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C21">
-        <v>6.829999923706055</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D21">
-        <v>6.909999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E21">
-        <v>6.909999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F21">
-        <v>4079600</v>
+        <v>2144100</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>6.980000019073486</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B22">
-        <v>6.994999885559082</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C22">
-        <v>6.619999885559082</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D22">
         <v>6.630000114440918</v>
@@ -832,1518 +832,1518 @@
         <v>6.630000114440918</v>
       </c>
       <c r="F22">
-        <v>4302200</v>
+        <v>3191300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>6.670000076293945</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B23">
-        <v>6.730000019073486</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C23">
-        <v>6.460000038146973</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D23">
-        <v>6.630000114440918</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E23">
-        <v>6.630000114440918</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="F23">
-        <v>5296600</v>
+        <v>6981800</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>6.619999885559082</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B24">
-        <v>6.701000213623047</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C24">
-        <v>6.400000095367432</v>
+        <v>5.985000133514404</v>
       </c>
       <c r="D24">
-        <v>6.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E24">
-        <v>6.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F24">
-        <v>4081100</v>
+        <v>9683300</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>6.480000019073486</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B25">
-        <v>6.710000038146973</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="C25">
-        <v>6.429999828338623</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D25">
-        <v>6.679999828338623</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E25">
-        <v>6.679999828338623</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F25">
-        <v>3412000</v>
+        <v>8517800</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>6.638999938964844</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B26">
-        <v>6.739999771118164</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="C26">
-        <v>6.559999942779541</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D26">
-        <v>6.619999885559082</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E26">
-        <v>6.619999885559082</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F26">
-        <v>2144100</v>
+        <v>5399300</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>6.630000114440918</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B27">
-        <v>6.679999828338623</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C27">
-        <v>6.429999828338623</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D27">
-        <v>6.630000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E27">
-        <v>6.630000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F27">
-        <v>3191300</v>
+        <v>5322300</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>6.409999847412109</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B28">
-        <v>6.409999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="C28">
-        <v>6.010000228881836</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D28">
-        <v>6.130000114440918</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="E28">
-        <v>6.130000114440918</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="F28">
-        <v>6981800</v>
+        <v>11547700</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>6.159999847412109</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B29">
-        <v>6.349999904632568</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="C29">
-        <v>5.985000133514404</v>
+        <v>6.25</v>
       </c>
       <c r="D29">
-        <v>6.03000020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="E29">
-        <v>6.03000020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="F29">
-        <v>9683300</v>
+        <v>13804600</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>6.010000228881836</v>
+        <v>6.75</v>
       </c>
       <c r="B30">
-        <v>6.110000133514404</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C30">
-        <v>5.849999904632568</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D30">
-        <v>6.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="E30">
-        <v>6.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="F30">
-        <v>8517800</v>
+        <v>6806600</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>6.119999885559082</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B31">
-        <v>6.224999904632568</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C31">
-        <v>6.079999923706055</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D31">
-        <v>6.150000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E31">
-        <v>6.150000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F31">
-        <v>5399300</v>
+        <v>5328000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>6.070000171661377</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B32">
-        <v>6.099999904632568</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="C32">
-        <v>5.920000076293945</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D32">
-        <v>5.949999809265137</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E32">
-        <v>5.949999809265137</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F32">
-        <v>5322300</v>
+        <v>4481100</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>6.010000228881836</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B33">
-        <v>6.5</v>
+        <v>7.09499979019165</v>
       </c>
       <c r="C33">
-        <v>5.889999866485596</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D33">
-        <v>6.385000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E33">
-        <v>6.385000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F33">
-        <v>11547700</v>
+        <v>4141300</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>6.289999961853027</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>6.989999771118164</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C34">
-        <v>6.25</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D34">
-        <v>6.809999942779541</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E34">
-        <v>6.809999942779541</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F34">
-        <v>13804600</v>
+        <v>5011000</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>6.75</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B35">
-        <v>6.840000152587891</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C35">
-        <v>6.480000019073486</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D35">
-        <v>6.739999771118164</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E35">
-        <v>6.739999771118164</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F35">
-        <v>6806600</v>
+        <v>3260100</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>6.630000114440918</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B36">
-        <v>6.980000019073486</v>
+        <v>7.5</v>
       </c>
       <c r="C36">
-        <v>6.610000133514404</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="D36">
-        <v>6.920000076293945</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E36">
-        <v>6.920000076293945</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F36">
-        <v>5328000</v>
+        <v>3162800</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>6.880000114440918</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B37">
-        <v>7.119999885559082</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C37">
-        <v>6.815000057220459</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D37">
-        <v>7.079999923706055</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E37">
-        <v>7.079999923706055</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F37">
-        <v>4481100</v>
+        <v>3929200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>7.019999980926514</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B38">
-        <v>7.09499979019165</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="C38">
-        <v>6.920000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D38">
-        <v>7.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E38">
-        <v>7.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F38">
-        <v>4141300</v>
+        <v>1903700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>7</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B39">
-        <v>7.449999809265137</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C39">
-        <v>6.980000019073486</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D39">
-        <v>7.300000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E39">
-        <v>7.300000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F39">
-        <v>5011000</v>
+        <v>2073800</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.179999828338623</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B40">
-        <v>7.400000095367432</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C40">
-        <v>7.179999828338623</v>
+        <v>7</v>
       </c>
       <c r="D40">
-        <v>7.349999904632568</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E40">
-        <v>7.349999904632568</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F40">
-        <v>3260100</v>
+        <v>1730900</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>7.420000076293945</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B41">
-        <v>7.5</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C41">
-        <v>7.230000019073486</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D41">
-        <v>7.380000114440918</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="E41">
-        <v>7.380000114440918</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="F41">
-        <v>3162800</v>
+        <v>3378300</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>7.369999885559082</v>
+        <v>7.276999950408936</v>
       </c>
       <c r="B42">
-        <v>7.599999904632568</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C42">
-        <v>7.170000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D42">
-        <v>7.210000038146973</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E42">
-        <v>7.210000038146973</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F42">
-        <v>3929200</v>
+        <v>2760200</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>7.170000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B43">
-        <v>7.21999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C43">
-        <v>7.010000228881836</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D43">
-        <v>7.010000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E43">
-        <v>7.010000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F43">
-        <v>1903700</v>
+        <v>3212700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>7.090000152587891</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="B44">
-        <v>7.170000076293945</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C44">
-        <v>6.96999979019165</v>
+        <v>6.90500020980835</v>
       </c>
       <c r="D44">
-        <v>7.019999980926514</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E44">
-        <v>7.019999980926514</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="F44">
-        <v>2073800</v>
+        <v>5392400</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.090000152587891</v>
+        <v>7.402999877929688</v>
       </c>
       <c r="B45">
-        <v>7.170000076293945</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D45">
-        <v>7.110000133514404</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E45">
-        <v>7.110000133514404</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="F45">
-        <v>1730900</v>
+        <v>7013500</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>7.170000076293945</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="B46">
-        <v>7.440000057220459</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="C46">
-        <v>7.139999866485596</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="D46">
-        <v>7.260000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="E46">
-        <v>7.260000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="F46">
-        <v>3378300</v>
+        <v>5693300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>7.276999950408936</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="B47">
-        <v>7.289999961853027</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C47">
-        <v>7.010000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="D47">
-        <v>7.03000020980835</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E47">
-        <v>7.03000020980835</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F47">
-        <v>2760200</v>
+        <v>3465700</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>7.010000228881836</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B48">
+        <v>7.239999771118164</v>
+      </c>
+      <c r="C48">
         <v>7.03000020980835</v>
       </c>
-      <c r="C48">
-        <v>6.869999885559082</v>
-      </c>
       <c r="D48">
-        <v>6.920000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E48">
-        <v>6.920000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F48">
-        <v>3212700</v>
+        <v>2620400</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>6.949999809265137</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B49">
-        <v>7.449999809265137</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="C49">
-        <v>6.90500020980835</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D49">
-        <v>7.449999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E49">
-        <v>7.449999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F49">
-        <v>5392400</v>
+        <v>5378800</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>7.402999877929688</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B50">
-        <v>7.800000190734863</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C50">
-        <v>7.300000190734863</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="D50">
-        <v>7.659999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E50">
-        <v>7.659999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F50">
-        <v>7013500</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>7.599999904632568</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="B51">
-        <v>7.880000114440918</v>
+        <v>7</v>
       </c>
       <c r="C51">
-        <v>7.369999885559082</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="D51">
-        <v>7.369999885559082</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="E51">
-        <v>7.369999885559082</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="F51">
-        <v>5693300</v>
+        <v>2371800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>7.329999923706055</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="B52">
-        <v>7.389999866485596</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>7.039999961853027</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D52">
-        <v>7.070000171661377</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E52">
-        <v>7.070000171661377</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F52">
-        <v>3465700</v>
+        <v>2863000</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>7.070000171661377</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B53">
-        <v>7.239999771118164</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C53">
-        <v>7.03000020980835</v>
+        <v>6.561999797821045</v>
       </c>
       <c r="D53">
-        <v>7.179999828338623</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="E53">
-        <v>7.179999828338623</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="F53">
-        <v>2620400</v>
+        <v>3819900</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>7.210000038146973</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B54">
-        <v>7.269999980926514</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C54">
-        <v>6.880000114440918</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D54">
-        <v>7.03000020980835</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="E54">
-        <v>7.03000020980835</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F54">
-        <v>5378800</v>
+        <v>2454900</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>7.010000228881836</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B55">
-        <v>7.099999904632568</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C55">
-        <v>6.789999961853027</v>
+        <v>6.810999870300293</v>
       </c>
       <c r="D55">
-        <v>6.840000152587891</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E55">
-        <v>6.840000152587891</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F55">
-        <v>3129400</v>
+        <v>4095900</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
+        <v>7.010000228881836</v>
+      </c>
+      <c r="B56">
+        <v>7.070000171661377</v>
+      </c>
+      <c r="C56">
+        <v>6.78000020980835</v>
+      </c>
+      <c r="D56">
         <v>6.849999904632568</v>
       </c>
-      <c r="B56">
-        <v>7</v>
-      </c>
-      <c r="C56">
-        <v>6.809999942779541</v>
-      </c>
-      <c r="D56">
-        <v>6.880000114440918</v>
-      </c>
       <c r="E56">
-        <v>6.880000114440918</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="F56">
-        <v>2371800</v>
+        <v>3208900</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>6.889999866485596</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="B57">
-        <v>7</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C57">
-        <v>6.630000114440918</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D57">
-        <v>6.630000114440918</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E57">
-        <v>6.630000114440918</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F57">
-        <v>2863000</v>
+        <v>6610600</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>6.699999809265137</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B58">
-        <v>7.079999923706055</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C58">
-        <v>6.561999797821045</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D58">
-        <v>6.989999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E58">
-        <v>6.989999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F58">
-        <v>3819900</v>
+        <v>11837300</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>6.980000019073486</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B59">
-        <v>6.980000019073486</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C59">
-        <v>6.78000020980835</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D59">
-        <v>6.900000095367432</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="E59">
-        <v>6.900000095367432</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="F59">
-        <v>2454900</v>
+        <v>7869700</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>6.880000114440918</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B60">
-        <v>7.159999847412109</v>
+        <v>7.5</v>
       </c>
       <c r="C60">
-        <v>6.810999870300293</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D60">
-        <v>6.940000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E60">
-        <v>6.940000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F60">
-        <v>4095900</v>
+        <v>6218500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>7.010000228881836</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="B61">
-        <v>7.070000171661377</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C61">
-        <v>6.78000020980835</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D61">
-        <v>6.849999904632568</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E61">
-        <v>6.849999904632568</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F61">
-        <v>3208900</v>
+        <v>6070700</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>6.829999923706055</v>
+        <v>7.75</v>
       </c>
       <c r="B62">
-        <v>6.840000152587891</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C62">
-        <v>6.429999828338623</v>
+        <v>7.730000019073486</v>
       </c>
       <c r="D62">
-        <v>6.659999847412109</v>
+        <v>8.5</v>
       </c>
       <c r="E62">
-        <v>6.659999847412109</v>
+        <v>8.5</v>
       </c>
       <c r="F62">
-        <v>6610600</v>
+        <v>19189200</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>6.619999885559082</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="B63">
-        <v>7.329999923706055</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="C63">
-        <v>6.619999885559082</v>
+        <v>8.074999809265137</v>
       </c>
       <c r="D63">
-        <v>7.300000190734863</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E63">
-        <v>7.300000190734863</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F63">
-        <v>11837300</v>
+        <v>14281800</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>7.21999979019165</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="B64">
-        <v>7.590000152587891</v>
+        <v>8.470000267028809</v>
       </c>
       <c r="C64">
-        <v>6.940000057220459</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="D64">
-        <v>7.480000019073486</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="E64">
-        <v>7.480000019073486</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="F64">
-        <v>7869700</v>
+        <v>7032200</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>7.050000190734863</v>
+        <v>8.210000038146973</v>
       </c>
       <c r="B65">
-        <v>7.5</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C65">
-        <v>6.980000019073486</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D65">
-        <v>7.099999904632568</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="E65">
-        <v>7.099999904632568</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="F65">
-        <v>6218500</v>
+        <v>6631100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>7.119999885559082</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="B66">
-        <v>7.659999847412109</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C66">
-        <v>7.090000152587891</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D66">
-        <v>7.570000171661377</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E66">
-        <v>7.570000171661377</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F66">
-        <v>6070700</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>7.75</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="B67">
-        <v>8.579999923706055</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C67">
-        <v>7.730000019073486</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D67">
-        <v>8.5</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E67">
-        <v>8.5</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F67">
-        <v>19189200</v>
+        <v>5401800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>8.609999656677246</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B68">
-        <v>8.689999580383301</v>
+        <v>7.067999839782715</v>
       </c>
       <c r="C68">
-        <v>8.074999809265137</v>
+        <v>6.59499979019165</v>
       </c>
       <c r="D68">
-        <v>8.109999656677246</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="E68">
-        <v>8.109999656677246</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="F68">
-        <v>14281800</v>
+        <v>6519900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>8.060000419616699</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="B69">
-        <v>8.470000267028809</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="C69">
-        <v>7.78000020980835</v>
+        <v>6.519999980926514</v>
       </c>
       <c r="D69">
-        <v>8.319999694824219</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E69">
-        <v>8.319999694824219</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F69">
-        <v>7032200</v>
+        <v>4861700</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>8.210000038146973</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B70">
-        <v>8.399999618530273</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="C70">
-        <v>7.840000152587891</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D70">
-        <v>7.889999866485596</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E70">
-        <v>7.889999866485596</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F70">
-        <v>6631100</v>
+        <v>4687500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>7.860000133514404</v>
+        <v>6.5</v>
       </c>
       <c r="B71">
-        <v>7.940000057220459</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C71">
-        <v>6.980000019073486</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="D71">
-        <v>7.010000228881836</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="E71">
-        <v>7.010000228881836</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="F71">
-        <v>9810000</v>
+        <v>3386100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>7.289999961853027</v>
+        <v>6.815999984741211</v>
       </c>
       <c r="B72">
-        <v>7.389999866485596</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C72">
-        <v>6.980000019073486</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="D72">
-        <v>7.039999961853027</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E72">
-        <v>7.039999961853027</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F72">
-        <v>5401800</v>
+        <v>6041200</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>7.050000190734863</v>
+        <v>6.40500020980835</v>
       </c>
       <c r="B73">
-        <v>7.067999839782715</v>
+        <v>6.63100004196167</v>
       </c>
       <c r="C73">
-        <v>6.59499979019165</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="D73">
-        <v>6.699999809265137</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E73">
-        <v>6.699999809265137</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F73">
-        <v>6519900</v>
+        <v>4554000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>6.71999979019165</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B74">
-        <v>6.880000114440918</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="C74">
-        <v>6.519999980926514</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D74">
-        <v>6.630000114440918</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E74">
-        <v>6.630000114440918</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F74">
-        <v>4861700</v>
+        <v>5549000</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>6.630000114440918</v>
+        <v>6</v>
       </c>
       <c r="B75">
-        <v>6.940000057220459</v>
+        <v>6.25</v>
       </c>
       <c r="C75">
-        <v>6.480000019073486</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D75">
-        <v>6.78000020980835</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E75">
-        <v>6.78000020980835</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F75">
-        <v>4687500</v>
+        <v>7263500</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>6.5</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="B76">
-        <v>6.800000190734863</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="C76">
-        <v>6.489999771118164</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="D76">
-        <v>6.789999961853027</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E76">
-        <v>6.789999961853027</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F76">
-        <v>3386100</v>
+        <v>5836100</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>6.815999984741211</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="B77">
-        <v>6.840000152587891</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C77">
-        <v>6.389999866485596</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D77">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E77">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F77">
-        <v>6041200</v>
+        <v>5358700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>6.40500020980835</v>
+        <v>6.111000061035156</v>
       </c>
       <c r="B78">
-        <v>6.63100004196167</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="C78">
-        <v>6.099999904632568</v>
+        <v>6</v>
       </c>
       <c r="D78">
-        <v>6.420000076293945</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="E78">
-        <v>6.420000076293945</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="F78">
-        <v>4554000</v>
+        <v>4829000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>6.510000228881836</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="B79">
-        <v>6.539999961853027</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C79">
-        <v>5.96999979019165</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="D79">
-        <v>6.010000228881836</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E79">
-        <v>6.010000228881836</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F79">
-        <v>5549000</v>
+        <v>3954400</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>6</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="B80">
-        <v>6.25</v>
+        <v>6.664999961853027</v>
       </c>
       <c r="C80">
-        <v>5.900000095367432</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="D80">
-        <v>6.139999866485596</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E80">
-        <v>6.139999866485596</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F80">
-        <v>7263500</v>
+        <v>3042900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>6.110000133514404</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B81">
-        <v>6.159999847412109</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C81">
-        <v>5.730000019073486</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D81">
-        <v>5.820000171661377</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E81">
-        <v>5.820000171661377</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F81">
-        <v>5836100</v>
+        <v>2992000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>5.769999980926514</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="B82">
-        <v>6.090000152587891</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="C82">
-        <v>5.550000190734863</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D82">
-        <v>5.96999979019165</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="E82">
-        <v>5.96999979019165</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="F82">
-        <v>5358700</v>
+        <v>3199300</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>6.111000061035156</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="B83">
-        <v>6.489999771118164</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="D83">
-        <v>6.380000114440918</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E83">
-        <v>6.380000114440918</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F83">
-        <v>4829000</v>
+        <v>3528800</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>6.380000114440918</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="B84">
-        <v>6.739999771118164</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C84">
-        <v>6.224999904632568</v>
+        <v>5.422999858856201</v>
       </c>
       <c r="D84">
-        <v>6.570000171661377</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E84">
-        <v>6.570000171661377</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F84">
-        <v>3954400</v>
+        <v>6450500</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>6.53000020980835</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B85">
-        <v>6.664999961853027</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="C85">
-        <v>6.21999979019165</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D85">
-        <v>6.28000020980835</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E85">
-        <v>6.28000020980835</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F85">
-        <v>3042900</v>
+        <v>4319900</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>6.289999961853027</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="B86">
-        <v>6.480000019073486</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="C86">
-        <v>6.059999942779541</v>
+        <v>5.543000221252441</v>
       </c>
       <c r="D86">
-        <v>6.119999885559082</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="E86">
-        <v>6.119999885559082</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F86">
-        <v>2992000</v>
+        <v>4024100</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>6.135000228881836</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B87">
-        <v>6.135000228881836</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="C87">
-        <v>5.855000019073486</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D87">
-        <v>5.989999771118164</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="E87">
-        <v>5.989999771118164</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="F87">
-        <v>3199300</v>
+        <v>3678200</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>5.889999866485596</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="B88">
-        <v>6.090000152587891</v>
+        <v>6.034999847412109</v>
       </c>
       <c r="C88">
-        <v>5.835000038146973</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="D88">
-        <v>5.869999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E88">
-        <v>5.869999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F88">
-        <v>3528800</v>
+        <v>4298400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>5.849999904632568</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B89">
-        <v>5.869999885559082</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C89">
-        <v>5.422999858856201</v>
+        <v>5.75</v>
       </c>
       <c r="D89">
-        <v>5.78000020980835</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="E89">
-        <v>5.78000020980835</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="F89">
-        <v>6450500</v>
+        <v>2991900</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>5.860000133514404</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B90">
-        <v>5.960000038146973</v>
+        <v>6.188000202178955</v>
       </c>
       <c r="C90">
-        <v>5.630000114440918</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D90">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E90">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F90">
-        <v>4319900</v>
+        <v>4050200</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>5.630000114440918</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B91">
-        <v>5.949999809265137</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C91">
-        <v>5.543000221252441</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="D91">
-        <v>5.849999904632568</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="E91">
-        <v>5.849999904632568</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="F91">
-        <v>4024100</v>
+        <v>3964200</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>5.699999809265137</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="B92">
-        <v>5.789999961853027</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C92">
-        <v>5.53000020980835</v>
+        <v>5.710000038146973</v>
       </c>
       <c r="D92">
-        <v>5.659999847412109</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="E92">
-        <v>5.659999847412109</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="F92">
-        <v>3678200</v>
+        <v>3673500</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>5.679999828338623</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B93">
-        <v>6.034999847412109</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C93">
-        <v>5.670000076293945</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="D93">
-        <v>5.949999809265137</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="E93">
-        <v>5.949999809265137</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="F93">
-        <v>4298400</v>
+        <v>8242700</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>5.909999847412109</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="B94">
-        <v>6.010000228881836</v>
+        <v>5.718999862670898</v>
       </c>
       <c r="C94">
-        <v>5.75</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D94">
-        <v>5.929999828338623</v>
+        <v>5.5</v>
       </c>
       <c r="E94">
-        <v>5.929999828338623</v>
+        <v>5.5</v>
       </c>
       <c r="F94">
-        <v>2991900</v>
+        <v>6141000</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>5.909999847412109</v>
+        <v>5.519000053405762</v>
       </c>
       <c r="B95">
-        <v>6.188000202178955</v>
+        <v>5.688000202178955</v>
       </c>
       <c r="C95">
-        <v>5.855000019073486</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D95">
-        <v>6.119999885559082</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="E95">
-        <v>6.119999885559082</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="F95">
-        <v>4050200</v>
+        <v>4716800</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>6.070000171661377</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B96">
-        <v>6.099999904632568</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C96">
-        <v>5.880000114440918</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="D96">
-        <v>5.940000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="E96">
-        <v>5.940000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="F96">
-        <v>3964200</v>
+        <v>5207000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>5.880000114440918</v>
+        <v>5.75</v>
       </c>
       <c r="B97">
-        <v>6.050000190734863</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="C97">
-        <v>5.710000038146973</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="D97">
-        <v>5.730000019073486</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="E97">
-        <v>5.730000019073486</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="F97">
-        <v>3673500</v>
+        <v>4137000</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>5.699999809265137</v>
+        <v>5.75</v>
       </c>
       <c r="B98">
-        <v>5.849999904632568</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C98">
-        <v>5.420000076293945</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D98">
         <v>5.449999809265137</v>
@@ -2352,138 +2352,138 @@
         <v>5.449999809265137</v>
       </c>
       <c r="F98">
-        <v>8242700</v>
+        <v>4337400</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>5.449999809265137</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="B99">
-        <v>5.718999862670898</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="C99">
-        <v>5.429999828338623</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="D99">
-        <v>5.5</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="E99">
-        <v>5.5</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="F99">
-        <v>6141000</v>
+        <v>4924300</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>5.519000053405762</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="B100">
-        <v>5.688000202178955</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="C100">
         <v>5.389999866485596</v>
       </c>
       <c r="D100">
-        <v>5.409999847412109</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="E100">
-        <v>5.409999847412109</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="F100">
-        <v>4716800</v>
+        <v>5843900</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>5.510000228881836</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="B101">
-        <v>5.96999979019165</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="C101">
-        <v>5.449999809265137</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="D101">
-        <v>5.75</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E101">
-        <v>5.75</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F101">
-        <v>5207000</v>
+        <v>9293000</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>5.75</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B102">
-        <v>5.829999923706055</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C102">
-        <v>5.539999961853027</v>
+        <v>5.635000228881836</v>
       </c>
       <c r="D102">
-        <v>5.769999980926514</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="E102">
-        <v>5.769999980926514</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="F102">
-        <v>4137000</v>
+        <v>6060200</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>5.75</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="B103">
-        <v>5.869999885559082</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="C103">
-        <v>5.429999828338623</v>
+        <v>5.743000030517578</v>
       </c>
       <c r="D103">
-        <v>5.449999809265137</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E103">
-        <v>5.449999809265137</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F103">
-        <v>4337400</v>
+        <v>5084800</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>5.46999979019165</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B104">
-        <v>5.590000152587891</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="C104">
-        <v>5.21999979019165</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D104">
-        <v>5.369999885559082</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="E104">
-        <v>5.369999885559082</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="F104">
-        <v>4924300</v>
+        <v>4056400</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>5.389999866485596</v>
+        <v>5.5</v>
       </c>
       <c r="B105">
-        <v>5.699999809265137</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="C105">
-        <v>5.389999866485596</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="D105">
         <v>5.510000228881836</v>
@@ -2492,207 +2492,207 @@
         <v>5.510000228881836</v>
       </c>
       <c r="F105">
-        <v>5843900</v>
+        <v>5796200</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>5.590000152587891</v>
+        <v>5.5</v>
       </c>
       <c r="B106">
-        <v>5.835000038146973</v>
+        <v>5.5</v>
       </c>
       <c r="C106">
-        <v>5.409999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="D106">
-        <v>5.760000228881836</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E106">
-        <v>5.760000228881836</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F106">
-        <v>9293000</v>
+        <v>7419400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>5.659999847412109</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="B107">
-        <v>6.050000190734863</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C107">
-        <v>5.635000228881836</v>
+        <v>4.849999904632568</v>
       </c>
       <c r="D107">
-        <v>5.889999866485596</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="E107">
-        <v>5.889999866485596</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="F107">
-        <v>6060200</v>
+        <v>7596600</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>5.949999809265137</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="B108">
-        <v>6.03000020980835</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="C108">
-        <v>5.743000030517578</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="D108">
-        <v>5.760000228881836</v>
+        <v>4.75</v>
       </c>
       <c r="E108">
-        <v>5.760000228881836</v>
+        <v>4.75</v>
       </c>
       <c r="F108">
-        <v>5084800</v>
+        <v>6937800</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>5.760000228881836</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="B109">
-        <v>5.800000190734863</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="C109">
-        <v>5.53000020980835</v>
+        <v>4.410999774932861</v>
       </c>
       <c r="D109">
-        <v>5.539999961853027</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E109">
-        <v>5.539999961853027</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F109">
-        <v>4056400</v>
+        <v>6445600</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>5.5</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B110">
-        <v>5.579999923706055</v>
+        <v>4.385000228881836</v>
       </c>
       <c r="C110">
-        <v>5.380000114440918</v>
+        <v>3.964999914169312</v>
       </c>
       <c r="D110">
-        <v>5.510000228881836</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="E110">
-        <v>5.510000228881836</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="F110">
-        <v>5796200</v>
+        <v>16513600</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>5.5</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="B111">
-        <v>5.5</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C111">
-        <v>5.110000133514404</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D111">
-        <v>5.110000133514404</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E111">
-        <v>5.110000133514404</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F111">
-        <v>7419400</v>
+        <v>5364400</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>5.150000095367432</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B112">
-        <v>5.199999809265137</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="C112">
-        <v>4.849999904632568</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>4.860000133514404</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="E112">
-        <v>4.860000133514404</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="F112">
-        <v>7596600</v>
+        <v>7823800</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>4.909999847412109</v>
+        <v>4.079999923706055</v>
       </c>
       <c r="B113">
-        <v>5.110000133514404</v>
+        <v>4.091000080108643</v>
       </c>
       <c r="C113">
-        <v>4.739999771118164</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="D113">
-        <v>4.75</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="E113">
-        <v>4.75</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="F113">
-        <v>6937800</v>
+        <v>7487400</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>4.699999809265137</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="B114">
-        <v>4.739999771118164</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="C114">
-        <v>4.410999774932861</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="D114">
-        <v>4.460000038146973</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="E114">
-        <v>4.460000038146973</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="F114">
-        <v>6445600</v>
+        <v>6932500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>4.369999885559082</v>
+        <v>3.924999952316284</v>
       </c>
       <c r="B115">
-        <v>4.385000228881836</v>
+        <v>4.269999980926514</v>
       </c>
       <c r="C115">
-        <v>3.964999914169312</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="D115">
-        <v>4.320000171661377</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="E115">
-        <v>4.320000171661377</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="F115">
-        <v>16513600</v>
+        <v>7851200</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2700,279 +2700,279 @@
         <v>4.239999771118164</v>
       </c>
       <c r="B116">
-        <v>4.329999923706055</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="C116">
-        <v>4.050000190734863</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="D116">
-        <v>4.210000038146973</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="E116">
-        <v>4.210000038146973</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="F116">
-        <v>5364400</v>
+        <v>5623600</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>4.329999923706055</v>
+        <v>4.5</v>
       </c>
       <c r="B117">
-        <v>4.369999885559082</v>
+        <v>4.514999866485596</v>
       </c>
       <c r="C117">
-        <v>4</v>
+        <v>4.230000019073486</v>
       </c>
       <c r="D117">
-        <v>4.059999942779541</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="E117">
-        <v>4.059999942779541</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="F117">
-        <v>7823800</v>
+        <v>4132600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>4.079999923706055</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B118">
-        <v>4.091000080108643</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="C118">
-        <v>3.769999980926514</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="D118">
-        <v>3.789999961853027</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="E118">
-        <v>3.789999961853027</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="F118">
-        <v>7487400</v>
+        <v>4458800</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>3.779999971389771</v>
+        <v>4</v>
       </c>
       <c r="B119">
-        <v>3.940000057220459</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="C119">
-        <v>3.710000038146973</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="D119">
-        <v>3.910000085830688</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E119">
-        <v>3.910000085830688</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F119">
-        <v>6932500</v>
+        <v>5577500</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>3.924999952316284</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B120">
-        <v>4.269999980926514</v>
+        <v>4.416999816894531</v>
       </c>
       <c r="C120">
-        <v>3.869999885559082</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="D120">
-        <v>4.159999847412109</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="E120">
-        <v>4.159999847412109</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="F120">
-        <v>7851200</v>
+        <v>3897300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>4.239999771118164</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="B121">
-        <v>4.559999942779541</v>
+        <v>4.224999904632568</v>
       </c>
       <c r="C121">
-        <v>4.139999866485596</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="D121">
-        <v>4.46999979019165</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="E121">
-        <v>4.46999979019165</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="F121">
-        <v>5623600</v>
+        <v>3210300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>4.5</v>
+        <v>4.277999877929688</v>
       </c>
       <c r="B122">
-        <v>4.514999866485596</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C122">
-        <v>4.230000019073486</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="D122">
-        <v>4.260000228881836</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E122">
-        <v>4.260000228881836</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F122">
-        <v>4132600</v>
+        <v>6697000</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>4.139999866485596</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="B123">
-        <v>4.21999979019165</v>
+        <v>4.824999809265137</v>
       </c>
       <c r="C123">
-        <v>3.950000047683716</v>
+        <v>4.440000057220459</v>
       </c>
       <c r="D123">
-        <v>3.960000038146973</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="E123">
-        <v>3.960000038146973</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="F123">
-        <v>4458800</v>
+        <v>9350700</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>4</v>
+        <v>4.480000019073486</v>
       </c>
       <c r="B124">
-        <v>4.239999771118164</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="C124">
-        <v>3.920000076293945</v>
+        <v>4.284999847412109</v>
       </c>
       <c r="D124">
-        <v>4.210000038146973</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="E124">
-        <v>4.210000038146973</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="F124">
-        <v>5577500</v>
+        <v>15361700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>4.21999979019165</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B125">
-        <v>4.416999816894531</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="C125">
-        <v>4.159999847412109</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="D125">
-        <v>4.179999828338623</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="E125">
-        <v>4.179999828338623</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="F125">
-        <v>3897300</v>
+        <v>5225300</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4.159999847412109</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="B126">
-        <v>4.224999904632568</v>
+        <v>4.65500020980835</v>
       </c>
       <c r="C126">
-        <v>4.070000171661377</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="D126">
-        <v>4.170000076293945</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="E126">
-        <v>4.170000076293945</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="F126">
-        <v>3210300</v>
+        <v>4397800</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>4.277999877929688</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="B127">
-        <v>4.650000095367432</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="C127">
-        <v>4.260000228881836</v>
+        <v>4.534999847412109</v>
       </c>
       <c r="D127">
-        <v>4.639999866485596</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="E127">
-        <v>4.639999866485596</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="F127">
-        <v>6697000</v>
+        <v>5462800</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>4.510000228881836</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="B128">
-        <v>4.824999809265137</v>
+        <v>4.71999979019165</v>
       </c>
       <c r="C128">
-        <v>4.440000057220459</v>
+        <v>4.340000152587891</v>
       </c>
       <c r="D128">
-        <v>4.590000152587891</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="E128">
-        <v>4.590000152587891</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="F128">
-        <v>9350700</v>
+        <v>4525600</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>4.480000019073486</v>
+        <v>4.420000076293945</v>
       </c>
       <c r="B129">
-        <v>4.809999942779541</v>
+        <v>4.436999797821045</v>
       </c>
       <c r="C129">
-        <v>4.284999847412109</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="D129">
-        <v>4.489999771118164</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E129">
-        <v>4.489999771118164</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F129">
-        <v>15361700</v>
+        <v>4853000</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/ACB/HighLow.xlsx
+++ b/Stocks/ACB/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+  <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,313 +417,313 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>6.610000133514404</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="B2">
-        <v>6.679999828338623</v>
+        <v>7.25</v>
       </c>
       <c r="C2">
-        <v>6.380000114440918</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="D2">
-        <v>6.440000057220459</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>6.440000057220459</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>3915200</v>
+        <v>3931200</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>6.440000057220459</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="B3">
-        <v>6.739999771118164</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="C3">
-        <v>6.364999771118164</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="D3">
-        <v>6.679999828338623</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E3">
-        <v>6.679999828338623</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F3">
-        <v>5468000</v>
+        <v>3855200</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>6.730000019073486</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B4">
-        <v>7.099999904632568</v>
+        <v>7.229000091552734</v>
       </c>
       <c r="C4">
-        <v>6.684999942779541</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="D4">
-        <v>6.949999809265137</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="E4">
-        <v>6.949999809265137</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="F4">
-        <v>3965800</v>
+        <v>2992500</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6.989999771118164</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="B5">
-        <v>7.260000228881836</v>
+        <v>7.619999885559082</v>
       </c>
       <c r="C5">
-        <v>6.880000114440918</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="D5">
-        <v>7.230000019073486</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="E5">
-        <v>7.230000019073486</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="F5">
-        <v>5279000</v>
+        <v>5830500</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>7.099999904632568</v>
+        <v>7.489999771118164</v>
       </c>
       <c r="B6">
+        <v>7.590000152587891</v>
+      </c>
+      <c r="C6">
+        <v>7.144999980926514</v>
+      </c>
+      <c r="D6">
         <v>7.199999809265137</v>
       </c>
-      <c r="C6">
-        <v>6.900000095367432</v>
-      </c>
-      <c r="D6">
-        <v>7.099999904632568</v>
-      </c>
       <c r="E6">
-        <v>7.099999904632568</v>
+        <v>7.199999809265137</v>
       </c>
       <c r="F6">
-        <v>3254900</v>
+        <v>4164800</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>7.079999923706055</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="B7">
-        <v>7.25</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="C7">
-        <v>6.889999866485596</v>
+        <v>7.204999923706055</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="F7">
-        <v>3931200</v>
+        <v>4084600</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6.989999771118164</v>
+        <v>7.460000038146973</v>
       </c>
       <c r="B8">
-        <v>7.210000038146973</v>
+        <v>7.735000133514404</v>
       </c>
       <c r="C8">
-        <v>6.900000095367432</v>
+        <v>7.335000038146973</v>
       </c>
       <c r="D8">
-        <v>7.179999828338623</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="E8">
-        <v>7.179999828338623</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="F8">
-        <v>3855200</v>
+        <v>5841500</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>7.179999828338623</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="B9">
-        <v>7.229000091552734</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C9">
-        <v>6.989999771118164</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D9">
-        <v>7.139999866485596</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="E9">
-        <v>7.139999866485596</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="F9">
-        <v>2992500</v>
+        <v>4135100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>7.139999866485596</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B10">
-        <v>7.619999885559082</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C10">
-        <v>7.079999923706055</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D10">
-        <v>7.420000076293945</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E10">
-        <v>7.420000076293945</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F10">
-        <v>5830500</v>
+        <v>5370900</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>7.489999771118164</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="B11">
-        <v>7.590000152587891</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="C11">
-        <v>7.144999980926514</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D11">
-        <v>7.199999809265137</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="E11">
-        <v>7.199999809265137</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="F11">
-        <v>4164800</v>
+        <v>4079600</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>7.239999771118164</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B12">
-        <v>7.570000171661377</v>
+        <v>6.994999885559082</v>
       </c>
       <c r="C12">
-        <v>7.204999923706055</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D12">
-        <v>7.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E12">
-        <v>7.440000057220459</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F12">
-        <v>4084600</v>
+        <v>4302200</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>7.460000038146973</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B13">
-        <v>7.735000133514404</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="C13">
-        <v>7.335000038146973</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="D13">
-        <v>7.389999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E13">
-        <v>7.389999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F13">
-        <v>5841500</v>
+        <v>5296600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>7.340000152587891</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B14">
-        <v>7.550000190734863</v>
+        <v>6.701000213623047</v>
       </c>
       <c r="C14">
-        <v>7.130000114440918</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D14">
-        <v>7.159999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="E14">
-        <v>7.159999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="F14">
-        <v>4135100</v>
+        <v>4081100</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>7.110000133514404</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B15">
-        <v>7.159999847412109</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C15">
-        <v>6.829999923706055</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D15">
-        <v>6.889999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E15">
-        <v>6.889999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F15">
-        <v>5370900</v>
+        <v>3412000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>6.869999885559082</v>
+        <v>6.638999938964844</v>
       </c>
       <c r="B16">
-        <v>7.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C16">
-        <v>6.829999923706055</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D16">
-        <v>6.909999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E16">
-        <v>6.909999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F16">
-        <v>4079600</v>
+        <v>2144100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>6.980000019073486</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B17">
-        <v>6.994999885559082</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C17">
-        <v>6.619999885559082</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D17">
         <v>6.630000114440918</v>
@@ -732,1518 +732,1518 @@
         <v>6.630000114440918</v>
       </c>
       <c r="F17">
-        <v>4302200</v>
+        <v>3191300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6.670000076293945</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B18">
-        <v>6.730000019073486</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C18">
-        <v>6.460000038146973</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D18">
-        <v>6.630000114440918</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E18">
-        <v>6.630000114440918</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="F18">
-        <v>5296600</v>
+        <v>6981800</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.619999885559082</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B19">
-        <v>6.701000213623047</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C19">
-        <v>6.400000095367432</v>
+        <v>5.985000133514404</v>
       </c>
       <c r="D19">
-        <v>6.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E19">
-        <v>6.5</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F19">
-        <v>4081100</v>
+        <v>9683300</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6.480000019073486</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B20">
-        <v>6.710000038146973</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="C20">
-        <v>6.429999828338623</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D20">
-        <v>6.679999828338623</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E20">
-        <v>6.679999828338623</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F20">
-        <v>3412000</v>
+        <v>8517800</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>6.638999938964844</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B21">
-        <v>6.739999771118164</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="C21">
-        <v>6.559999942779541</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D21">
-        <v>6.619999885559082</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E21">
-        <v>6.619999885559082</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F21">
-        <v>2144100</v>
+        <v>5399300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>6.630000114440918</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B22">
-        <v>6.679999828338623</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C22">
-        <v>6.429999828338623</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D22">
-        <v>6.630000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E22">
-        <v>6.630000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F22">
-        <v>3191300</v>
+        <v>5322300</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>6.409999847412109</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B23">
-        <v>6.409999847412109</v>
+        <v>6.5</v>
       </c>
       <c r="C23">
-        <v>6.010000228881836</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D23">
-        <v>6.130000114440918</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="E23">
-        <v>6.130000114440918</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="F23">
-        <v>6981800</v>
+        <v>11547700</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>6.159999847412109</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B24">
-        <v>6.349999904632568</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="C24">
-        <v>5.985000133514404</v>
+        <v>6.25</v>
       </c>
       <c r="D24">
-        <v>6.03000020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="E24">
-        <v>6.03000020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="F24">
-        <v>9683300</v>
+        <v>13804600</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>6.010000228881836</v>
+        <v>6.75</v>
       </c>
       <c r="B25">
-        <v>6.110000133514404</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C25">
-        <v>5.849999904632568</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D25">
-        <v>6.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="E25">
-        <v>6.010000228881836</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="F25">
-        <v>8517800</v>
+        <v>6806600</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>6.119999885559082</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B26">
-        <v>6.224999904632568</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C26">
-        <v>6.079999923706055</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D26">
-        <v>6.150000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E26">
-        <v>6.150000095367432</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F26">
-        <v>5399300</v>
+        <v>5328000</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>6.070000171661377</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B27">
-        <v>6.099999904632568</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="C27">
-        <v>5.920000076293945</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D27">
-        <v>5.949999809265137</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E27">
-        <v>5.949999809265137</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F27">
-        <v>5322300</v>
+        <v>4481100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>6.010000228881836</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B28">
-        <v>6.5</v>
+        <v>7.09499979019165</v>
       </c>
       <c r="C28">
-        <v>5.889999866485596</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D28">
-        <v>6.385000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E28">
-        <v>6.385000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F28">
-        <v>11547700</v>
+        <v>4141300</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>6.289999961853027</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>6.989999771118164</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C29">
-        <v>6.25</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D29">
-        <v>6.809999942779541</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E29">
-        <v>6.809999942779541</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F29">
-        <v>13804600</v>
+        <v>5011000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>6.75</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B30">
-        <v>6.840000152587891</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C30">
-        <v>6.480000019073486</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D30">
-        <v>6.739999771118164</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E30">
-        <v>6.739999771118164</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F30">
-        <v>6806600</v>
+        <v>3260100</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>6.630000114440918</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B31">
-        <v>6.980000019073486</v>
+        <v>7.5</v>
       </c>
       <c r="C31">
-        <v>6.610000133514404</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="D31">
-        <v>6.920000076293945</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E31">
-        <v>6.920000076293945</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F31">
-        <v>5328000</v>
+        <v>3162800</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>6.880000114440918</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B32">
-        <v>7.119999885559082</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C32">
-        <v>6.815000057220459</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D32">
-        <v>7.079999923706055</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E32">
-        <v>7.079999923706055</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F32">
-        <v>4481100</v>
+        <v>3929200</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>7.019999980926514</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B33">
-        <v>7.09499979019165</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="C33">
-        <v>6.920000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D33">
-        <v>7.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E33">
-        <v>7.039999961853027</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F33">
-        <v>4141300</v>
+        <v>1903700</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>7</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B34">
-        <v>7.449999809265137</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C34">
-        <v>6.980000019073486</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D34">
-        <v>7.300000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E34">
-        <v>7.300000190734863</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F34">
-        <v>5011000</v>
+        <v>2073800</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>7.179999828338623</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B35">
-        <v>7.400000095367432</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C35">
-        <v>7.179999828338623</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>7.349999904632568</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E35">
-        <v>7.349999904632568</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F35">
-        <v>3260100</v>
+        <v>1730900</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>7.420000076293945</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B36">
-        <v>7.5</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C36">
-        <v>7.230000019073486</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D36">
-        <v>7.380000114440918</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="E36">
-        <v>7.380000114440918</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="F36">
-        <v>3162800</v>
+        <v>3378300</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>7.369999885559082</v>
+        <v>7.276999950408936</v>
       </c>
       <c r="B37">
-        <v>7.599999904632568</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C37">
-        <v>7.170000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D37">
-        <v>7.210000038146973</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E37">
-        <v>7.210000038146973</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F37">
-        <v>3929200</v>
+        <v>2760200</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>7.170000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B38">
-        <v>7.21999979019165</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C38">
-        <v>7.010000228881836</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D38">
-        <v>7.010000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E38">
-        <v>7.010000228881836</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F38">
-        <v>1903700</v>
+        <v>3212700</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>7.090000152587891</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="B39">
-        <v>7.170000076293945</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C39">
-        <v>6.96999979019165</v>
+        <v>6.90500020980835</v>
       </c>
       <c r="D39">
-        <v>7.019999980926514</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E39">
-        <v>7.019999980926514</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="F39">
-        <v>2073800</v>
+        <v>5392400</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.090000152587891</v>
+        <v>7.402999877929688</v>
       </c>
       <c r="B40">
-        <v>7.170000076293945</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D40">
-        <v>7.110000133514404</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E40">
-        <v>7.110000133514404</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="F40">
-        <v>1730900</v>
+        <v>7013500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>7.170000076293945</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="B41">
-        <v>7.440000057220459</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="C41">
-        <v>7.139999866485596</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="D41">
-        <v>7.260000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="E41">
-        <v>7.260000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="F41">
-        <v>3378300</v>
+        <v>5693300</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>7.276999950408936</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="B42">
-        <v>7.289999961853027</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C42">
-        <v>7.010000228881836</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="D42">
-        <v>7.03000020980835</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E42">
-        <v>7.03000020980835</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F42">
-        <v>2760200</v>
+        <v>3465700</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>7.010000228881836</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B43">
+        <v>7.239999771118164</v>
+      </c>
+      <c r="C43">
         <v>7.03000020980835</v>
       </c>
-      <c r="C43">
-        <v>6.869999885559082</v>
-      </c>
       <c r="D43">
-        <v>6.920000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E43">
-        <v>6.920000076293945</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F43">
-        <v>3212700</v>
+        <v>2620400</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>6.949999809265137</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B44">
-        <v>7.449999809265137</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="C44">
-        <v>6.90500020980835</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D44">
-        <v>7.449999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E44">
-        <v>7.449999809265137</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F44">
-        <v>5392400</v>
+        <v>5378800</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.402999877929688</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B45">
-        <v>7.800000190734863</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C45">
-        <v>7.300000190734863</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="D45">
-        <v>7.659999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E45">
-        <v>7.659999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F45">
-        <v>7013500</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>7.599999904632568</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="B46">
-        <v>7.880000114440918</v>
+        <v>7</v>
       </c>
       <c r="C46">
-        <v>7.369999885559082</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="D46">
-        <v>7.369999885559082</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="E46">
-        <v>7.369999885559082</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="F46">
-        <v>5693300</v>
+        <v>2371800</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>7.329999923706055</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="B47">
-        <v>7.389999866485596</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>7.039999961853027</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D47">
-        <v>7.070000171661377</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E47">
-        <v>7.070000171661377</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F47">
-        <v>3465700</v>
+        <v>2863000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>7.070000171661377</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B48">
-        <v>7.239999771118164</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C48">
-        <v>7.03000020980835</v>
+        <v>6.561999797821045</v>
       </c>
       <c r="D48">
-        <v>7.179999828338623</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="E48">
-        <v>7.179999828338623</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="F48">
-        <v>2620400</v>
+        <v>3819900</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>7.210000038146973</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B49">
-        <v>7.269999980926514</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C49">
-        <v>6.880000114440918</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D49">
-        <v>7.03000020980835</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="E49">
-        <v>7.03000020980835</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F49">
-        <v>5378800</v>
+        <v>2454900</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>7.010000228881836</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B50">
-        <v>7.099999904632568</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C50">
-        <v>6.789999961853027</v>
+        <v>6.810999870300293</v>
       </c>
       <c r="D50">
-        <v>6.840000152587891</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E50">
-        <v>6.840000152587891</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F50">
-        <v>3129400</v>
+        <v>4095900</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
+        <v>7.010000228881836</v>
+      </c>
+      <c r="B51">
+        <v>7.070000171661377</v>
+      </c>
+      <c r="C51">
+        <v>6.78000020980835</v>
+      </c>
+      <c r="D51">
         <v>6.849999904632568</v>
       </c>
-      <c r="B51">
-        <v>7</v>
-      </c>
-      <c r="C51">
-        <v>6.809999942779541</v>
-      </c>
-      <c r="D51">
-        <v>6.880000114440918</v>
-      </c>
       <c r="E51">
-        <v>6.880000114440918</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="F51">
-        <v>2371800</v>
+        <v>3208900</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>6.889999866485596</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C52">
-        <v>6.630000114440918</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D52">
-        <v>6.630000114440918</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E52">
-        <v>6.630000114440918</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F52">
-        <v>2863000</v>
+        <v>6610600</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>6.699999809265137</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B53">
-        <v>7.079999923706055</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C53">
-        <v>6.561999797821045</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D53">
-        <v>6.989999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E53">
-        <v>6.989999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F53">
-        <v>3819900</v>
+        <v>11837300</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>6.980000019073486</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B54">
-        <v>6.980000019073486</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C54">
-        <v>6.78000020980835</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D54">
-        <v>6.900000095367432</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="E54">
-        <v>6.900000095367432</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="F54">
-        <v>2454900</v>
+        <v>7869700</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>6.880000114440918</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B55">
-        <v>7.159999847412109</v>
+        <v>7.5</v>
       </c>
       <c r="C55">
-        <v>6.810999870300293</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D55">
-        <v>6.940000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E55">
-        <v>6.940000057220459</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F55">
-        <v>4095900</v>
+        <v>6218500</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>7.010000228881836</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="B56">
-        <v>7.070000171661377</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C56">
-        <v>6.78000020980835</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D56">
-        <v>6.849999904632568</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E56">
-        <v>6.849999904632568</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F56">
-        <v>3208900</v>
+        <v>6070700</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>6.829999923706055</v>
+        <v>7.75</v>
       </c>
       <c r="B57">
-        <v>6.840000152587891</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C57">
-        <v>6.429999828338623</v>
+        <v>7.730000019073486</v>
       </c>
       <c r="D57">
-        <v>6.659999847412109</v>
+        <v>8.5</v>
       </c>
       <c r="E57">
-        <v>6.659999847412109</v>
+        <v>8.5</v>
       </c>
       <c r="F57">
-        <v>6610600</v>
+        <v>19189200</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>6.619999885559082</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="B58">
-        <v>7.329999923706055</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="C58">
-        <v>6.619999885559082</v>
+        <v>8.074999809265137</v>
       </c>
       <c r="D58">
-        <v>7.300000190734863</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E58">
-        <v>7.300000190734863</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F58">
-        <v>11837300</v>
+        <v>14281800</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>7.21999979019165</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="B59">
-        <v>7.590000152587891</v>
+        <v>8.470000267028809</v>
       </c>
       <c r="C59">
-        <v>6.940000057220459</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="D59">
-        <v>7.480000019073486</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="E59">
-        <v>7.480000019073486</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="F59">
-        <v>7869700</v>
+        <v>7032200</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>7.050000190734863</v>
+        <v>8.210000038146973</v>
       </c>
       <c r="B60">
-        <v>7.5</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C60">
-        <v>6.980000019073486</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D60">
-        <v>7.099999904632568</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="E60">
-        <v>7.099999904632568</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="F60">
-        <v>6218500</v>
+        <v>6631100</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>7.119999885559082</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="B61">
-        <v>7.659999847412109</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C61">
-        <v>7.090000152587891</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D61">
-        <v>7.570000171661377</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E61">
-        <v>7.570000171661377</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F61">
-        <v>6070700</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>7.75</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="B62">
-        <v>8.579999923706055</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C62">
-        <v>7.730000019073486</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D62">
-        <v>8.5</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E62">
-        <v>8.5</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F62">
-        <v>19189200</v>
+        <v>5401800</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>8.609999656677246</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B63">
-        <v>8.689999580383301</v>
+        <v>7.067999839782715</v>
       </c>
       <c r="C63">
-        <v>8.074999809265137</v>
+        <v>6.59499979019165</v>
       </c>
       <c r="D63">
-        <v>8.109999656677246</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="E63">
-        <v>8.109999656677246</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="F63">
-        <v>14281800</v>
+        <v>6519900</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>8.060000419616699</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="B64">
-        <v>8.470000267028809</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="C64">
-        <v>7.78000020980835</v>
+        <v>6.519999980926514</v>
       </c>
       <c r="D64">
-        <v>8.319999694824219</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E64">
-        <v>8.319999694824219</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F64">
-        <v>7032200</v>
+        <v>4861700</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>8.210000038146973</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B65">
-        <v>8.399999618530273</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="C65">
-        <v>7.840000152587891</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D65">
-        <v>7.889999866485596</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E65">
-        <v>7.889999866485596</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F65">
-        <v>6631100</v>
+        <v>4687500</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>7.860000133514404</v>
+        <v>6.5</v>
       </c>
       <c r="B66">
-        <v>7.940000057220459</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C66">
-        <v>6.980000019073486</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="D66">
-        <v>7.010000228881836</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="E66">
-        <v>7.010000228881836</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="F66">
-        <v>9810000</v>
+        <v>3386100</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>7.289999961853027</v>
+        <v>6.815999984741211</v>
       </c>
       <c r="B67">
-        <v>7.389999866485596</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C67">
-        <v>6.980000019073486</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="D67">
-        <v>7.039999961853027</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E67">
-        <v>7.039999961853027</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F67">
-        <v>5401800</v>
+        <v>6041200</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>7.050000190734863</v>
+        <v>6.40500020980835</v>
       </c>
       <c r="B68">
-        <v>7.067999839782715</v>
+        <v>6.63100004196167</v>
       </c>
       <c r="C68">
-        <v>6.59499979019165</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="D68">
-        <v>6.699999809265137</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E68">
-        <v>6.699999809265137</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F68">
-        <v>6519900</v>
+        <v>4554000</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>6.71999979019165</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B69">
-        <v>6.880000114440918</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="C69">
-        <v>6.519999980926514</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D69">
-        <v>6.630000114440918</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E69">
-        <v>6.630000114440918</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F69">
-        <v>4861700</v>
+        <v>5549000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>6.630000114440918</v>
+        <v>6</v>
       </c>
       <c r="B70">
-        <v>6.940000057220459</v>
+        <v>6.25</v>
       </c>
       <c r="C70">
-        <v>6.480000019073486</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D70">
-        <v>6.78000020980835</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E70">
-        <v>6.78000020980835</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F70">
-        <v>4687500</v>
+        <v>7263500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>6.5</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="B71">
-        <v>6.800000190734863</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="C71">
-        <v>6.489999771118164</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="D71">
-        <v>6.789999961853027</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E71">
-        <v>6.789999961853027</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F71">
-        <v>3386100</v>
+        <v>5836100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>6.815999984741211</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="B72">
-        <v>6.840000152587891</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C72">
-        <v>6.389999866485596</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D72">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E72">
-        <v>6.440000057220459</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F72">
-        <v>6041200</v>
+        <v>5358700</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>6.40500020980835</v>
+        <v>6.111000061035156</v>
       </c>
       <c r="B73">
-        <v>6.63100004196167</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="C73">
-        <v>6.099999904632568</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>6.420000076293945</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="E73">
-        <v>6.420000076293945</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="F73">
-        <v>4554000</v>
+        <v>4829000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>6.510000228881836</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="B74">
-        <v>6.539999961853027</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C74">
-        <v>5.96999979019165</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="D74">
-        <v>6.010000228881836</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E74">
-        <v>6.010000228881836</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F74">
-        <v>5549000</v>
+        <v>3954400</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>6</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="B75">
-        <v>6.25</v>
+        <v>6.664999961853027</v>
       </c>
       <c r="C75">
-        <v>5.900000095367432</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="D75">
-        <v>6.139999866485596</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E75">
-        <v>6.139999866485596</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F75">
-        <v>7263500</v>
+        <v>3042900</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>6.110000133514404</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B76">
-        <v>6.159999847412109</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C76">
-        <v>5.730000019073486</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D76">
-        <v>5.820000171661377</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E76">
-        <v>5.820000171661377</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F76">
-        <v>5836100</v>
+        <v>2992000</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>5.769999980926514</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="B77">
-        <v>6.090000152587891</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="C77">
-        <v>5.550000190734863</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D77">
-        <v>5.96999979019165</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="E77">
-        <v>5.96999979019165</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="F77">
-        <v>5358700</v>
+        <v>3199300</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>6.111000061035156</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="B78">
-        <v>6.489999771118164</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="D78">
-        <v>6.380000114440918</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E78">
-        <v>6.380000114440918</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F78">
-        <v>4829000</v>
+        <v>3528800</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>6.380000114440918</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="B79">
-        <v>6.739999771118164</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C79">
-        <v>6.224999904632568</v>
+        <v>5.422999858856201</v>
       </c>
       <c r="D79">
-        <v>6.570000171661377</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E79">
-        <v>6.570000171661377</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F79">
-        <v>3954400</v>
+        <v>6450500</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>6.53000020980835</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B80">
-        <v>6.664999961853027</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="C80">
-        <v>6.21999979019165</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D80">
-        <v>6.28000020980835</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E80">
-        <v>6.28000020980835</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F80">
-        <v>3042900</v>
+        <v>4319900</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>6.289999961853027</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="B81">
-        <v>6.480000019073486</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="C81">
-        <v>6.059999942779541</v>
+        <v>5.543000221252441</v>
       </c>
       <c r="D81">
-        <v>6.119999885559082</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="E81">
-        <v>6.119999885559082</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F81">
-        <v>2992000</v>
+        <v>4024100</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>6.135000228881836</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B82">
-        <v>6.135000228881836</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="C82">
-        <v>5.855000019073486</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D82">
-        <v>5.989999771118164</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="E82">
-        <v>5.989999771118164</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="F82">
-        <v>3199300</v>
+        <v>3678200</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>5.889999866485596</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="B83">
-        <v>6.090000152587891</v>
+        <v>6.034999847412109</v>
       </c>
       <c r="C83">
-        <v>5.835000038146973</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="D83">
-        <v>5.869999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E83">
-        <v>5.869999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F83">
-        <v>3528800</v>
+        <v>4298400</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>5.849999904632568</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B84">
-        <v>5.869999885559082</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C84">
-        <v>5.422999858856201</v>
+        <v>5.75</v>
       </c>
       <c r="D84">
-        <v>5.78000020980835</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="E84">
-        <v>5.78000020980835</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="F84">
-        <v>6450500</v>
+        <v>2991900</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>5.860000133514404</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B85">
-        <v>5.960000038146973</v>
+        <v>6.188000202178955</v>
       </c>
       <c r="C85">
-        <v>5.630000114440918</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D85">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E85">
-        <v>5.71999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F85">
-        <v>4319900</v>
+        <v>4050200</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>5.630000114440918</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B86">
-        <v>5.949999809265137</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C86">
-        <v>5.543000221252441</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="D86">
-        <v>5.849999904632568</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="E86">
-        <v>5.849999904632568</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="F86">
-        <v>4024100</v>
+        <v>3964200</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>5.699999809265137</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="B87">
-        <v>5.789999961853027</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C87">
-        <v>5.53000020980835</v>
+        <v>5.710000038146973</v>
       </c>
       <c r="D87">
-        <v>5.659999847412109</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="E87">
-        <v>5.659999847412109</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="F87">
-        <v>3678200</v>
+        <v>3673500</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>5.679999828338623</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B88">
-        <v>6.034999847412109</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C88">
-        <v>5.670000076293945</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="D88">
-        <v>5.949999809265137</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="E88">
-        <v>5.949999809265137</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="F88">
-        <v>4298400</v>
+        <v>8242700</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>5.909999847412109</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="B89">
-        <v>6.010000228881836</v>
+        <v>5.718999862670898</v>
       </c>
       <c r="C89">
-        <v>5.75</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D89">
-        <v>5.929999828338623</v>
+        <v>5.5</v>
       </c>
       <c r="E89">
-        <v>5.929999828338623</v>
+        <v>5.5</v>
       </c>
       <c r="F89">
-        <v>2991900</v>
+        <v>6141000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>5.909999847412109</v>
+        <v>5.519000053405762</v>
       </c>
       <c r="B90">
-        <v>6.188000202178955</v>
+        <v>5.688000202178955</v>
       </c>
       <c r="C90">
-        <v>5.855000019073486</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D90">
-        <v>6.119999885559082</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="E90">
-        <v>6.119999885559082</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="F90">
-        <v>4050200</v>
+        <v>4716800</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>6.070000171661377</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B91">
-        <v>6.099999904632568</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C91">
-        <v>5.880000114440918</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="D91">
-        <v>5.940000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="E91">
-        <v>5.940000057220459</v>
+        <v>5.75</v>
       </c>
       <c r="F91">
-        <v>3964200</v>
+        <v>5207000</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>5.880000114440918</v>
+        <v>5.75</v>
       </c>
       <c r="B92">
-        <v>6.050000190734863</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="C92">
-        <v>5.710000038146973</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="D92">
-        <v>5.730000019073486</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="E92">
-        <v>5.730000019073486</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="F92">
-        <v>3673500</v>
+        <v>4137000</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>5.699999809265137</v>
+        <v>5.75</v>
       </c>
       <c r="B93">
-        <v>5.849999904632568</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C93">
-        <v>5.420000076293945</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D93">
         <v>5.449999809265137</v>
@@ -2252,138 +2252,138 @@
         <v>5.449999809265137</v>
       </c>
       <c r="F93">
-        <v>8242700</v>
+        <v>4337400</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>5.449999809265137</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="B94">
-        <v>5.718999862670898</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="C94">
-        <v>5.429999828338623</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="D94">
-        <v>5.5</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="E94">
-        <v>5.5</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="F94">
-        <v>6141000</v>
+        <v>4924300</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>5.519000053405762</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="B95">
-        <v>5.688000202178955</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="C95">
         <v>5.389999866485596</v>
       </c>
       <c r="D95">
-        <v>5.409999847412109</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="E95">
-        <v>5.409999847412109</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="F95">
-        <v>4716800</v>
+        <v>5843900</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>5.510000228881836</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="B96">
-        <v>5.96999979019165</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="C96">
-        <v>5.449999809265137</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="D96">
-        <v>5.75</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E96">
-        <v>5.75</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F96">
-        <v>5207000</v>
+        <v>9293000</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>5.75</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B97">
-        <v>5.829999923706055</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C97">
-        <v>5.539999961853027</v>
+        <v>5.635000228881836</v>
       </c>
       <c r="D97">
-        <v>5.769999980926514</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="E97">
-        <v>5.769999980926514</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="F97">
-        <v>4137000</v>
+        <v>6060200</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>5.75</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="B98">
-        <v>5.869999885559082</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="C98">
-        <v>5.429999828338623</v>
+        <v>5.743000030517578</v>
       </c>
       <c r="D98">
-        <v>5.449999809265137</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E98">
-        <v>5.449999809265137</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F98">
-        <v>4337400</v>
+        <v>5084800</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>5.46999979019165</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B99">
-        <v>5.590000152587891</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="C99">
-        <v>5.21999979019165</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D99">
-        <v>5.369999885559082</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="E99">
-        <v>5.369999885559082</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="F99">
-        <v>4924300</v>
+        <v>4056400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>5.389999866485596</v>
+        <v>5.5</v>
       </c>
       <c r="B100">
-        <v>5.699999809265137</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="C100">
-        <v>5.389999866485596</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="D100">
         <v>5.510000228881836</v>
@@ -2392,207 +2392,207 @@
         <v>5.510000228881836</v>
       </c>
       <c r="F100">
-        <v>5843900</v>
+        <v>5796200</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>5.590000152587891</v>
+        <v>5.5</v>
       </c>
       <c r="B101">
-        <v>5.835000038146973</v>
+        <v>5.5</v>
       </c>
       <c r="C101">
-        <v>5.409999847412109</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="D101">
-        <v>5.760000228881836</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E101">
-        <v>5.760000228881836</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F101">
-        <v>9293000</v>
+        <v>7419400</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>5.659999847412109</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="B102">
-        <v>6.050000190734863</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C102">
-        <v>5.635000228881836</v>
+        <v>4.849999904632568</v>
       </c>
       <c r="D102">
-        <v>5.889999866485596</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="E102">
-        <v>5.889999866485596</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="F102">
-        <v>6060200</v>
+        <v>7596600</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>5.949999809265137</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="B103">
-        <v>6.03000020980835</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="C103">
-        <v>5.743000030517578</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="D103">
-        <v>5.760000228881836</v>
+        <v>4.75</v>
       </c>
       <c r="E103">
-        <v>5.760000228881836</v>
+        <v>4.75</v>
       </c>
       <c r="F103">
-        <v>5084800</v>
+        <v>6937800</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>5.760000228881836</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="B104">
-        <v>5.800000190734863</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="C104">
-        <v>5.53000020980835</v>
+        <v>4.410999774932861</v>
       </c>
       <c r="D104">
-        <v>5.539999961853027</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E104">
-        <v>5.539999961853027</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F104">
-        <v>4056400</v>
+        <v>6445600</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>5.5</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B105">
-        <v>5.579999923706055</v>
+        <v>4.385000228881836</v>
       </c>
       <c r="C105">
-        <v>5.380000114440918</v>
+        <v>3.964999914169312</v>
       </c>
       <c r="D105">
-        <v>5.510000228881836</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="E105">
-        <v>5.510000228881836</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="F105">
-        <v>5796200</v>
+        <v>16513600</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>5.5</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="B106">
-        <v>5.5</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C106">
-        <v>5.110000133514404</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D106">
-        <v>5.110000133514404</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E106">
-        <v>5.110000133514404</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F106">
-        <v>7419400</v>
+        <v>5364400</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>5.150000095367432</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B107">
-        <v>5.199999809265137</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="C107">
-        <v>4.849999904632568</v>
+        <v>4</v>
       </c>
       <c r="D107">
-        <v>4.860000133514404</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="E107">
-        <v>4.860000133514404</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="F107">
-        <v>7596600</v>
+        <v>7823800</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>4.909999847412109</v>
+        <v>4.079999923706055</v>
       </c>
       <c r="B108">
-        <v>5.110000133514404</v>
+        <v>4.091000080108643</v>
       </c>
       <c r="C108">
-        <v>4.739999771118164</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="D108">
-        <v>4.75</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="E108">
-        <v>4.75</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="F108">
-        <v>6937800</v>
+        <v>7487400</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>4.699999809265137</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="B109">
-        <v>4.739999771118164</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="C109">
-        <v>4.410999774932861</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="D109">
-        <v>4.460000038146973</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="E109">
-        <v>4.460000038146973</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="F109">
-        <v>6445600</v>
+        <v>6932500</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>4.369999885559082</v>
+        <v>3.924999952316284</v>
       </c>
       <c r="B110">
-        <v>4.385000228881836</v>
+        <v>4.269999980926514</v>
       </c>
       <c r="C110">
-        <v>3.964999914169312</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="D110">
-        <v>4.320000171661377</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="E110">
-        <v>4.320000171661377</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="F110">
-        <v>16513600</v>
+        <v>7851200</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2600,379 +2600,359 @@
         <v>4.239999771118164</v>
       </c>
       <c r="B111">
-        <v>4.329999923706055</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="C111">
-        <v>4.050000190734863</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="D111">
-        <v>4.210000038146973</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="E111">
-        <v>4.210000038146973</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="F111">
-        <v>5364400</v>
+        <v>5623600</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>4.329999923706055</v>
+        <v>4.5</v>
       </c>
       <c r="B112">
-        <v>4.369999885559082</v>
+        <v>4.514999866485596</v>
       </c>
       <c r="C112">
-        <v>4</v>
+        <v>4.230000019073486</v>
       </c>
       <c r="D112">
-        <v>4.059999942779541</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="E112">
-        <v>4.059999942779541</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="F112">
-        <v>7823800</v>
+        <v>4132600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>4.079999923706055</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B113">
-        <v>4.091000080108643</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="C113">
-        <v>3.769999980926514</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="D113">
-        <v>3.789999961853027</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="E113">
-        <v>3.789999961853027</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="F113">
-        <v>7487400</v>
+        <v>4458800</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>3.779999971389771</v>
+        <v>4</v>
       </c>
       <c r="B114">
-        <v>3.940000057220459</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="C114">
-        <v>3.710000038146973</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="D114">
-        <v>3.910000085830688</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E114">
-        <v>3.910000085830688</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F114">
-        <v>6932500</v>
+        <v>5577500</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>3.924999952316284</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B115">
-        <v>4.269999980926514</v>
+        <v>4.416999816894531</v>
       </c>
       <c r="C115">
-        <v>3.869999885559082</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="D115">
-        <v>4.159999847412109</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="E115">
-        <v>4.159999847412109</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="F115">
-        <v>7851200</v>
+        <v>3897300</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>4.239999771118164</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="B116">
-        <v>4.559999942779541</v>
+        <v>4.224999904632568</v>
       </c>
       <c r="C116">
-        <v>4.139999866485596</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="D116">
-        <v>4.46999979019165</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="E116">
-        <v>4.46999979019165</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="F116">
-        <v>5623600</v>
+        <v>3210300</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>4.5</v>
+        <v>4.277999877929688</v>
       </c>
       <c r="B117">
-        <v>4.514999866485596</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C117">
-        <v>4.230000019073486</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="D117">
-        <v>4.260000228881836</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E117">
-        <v>4.260000228881836</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F117">
-        <v>4132600</v>
+        <v>6697000</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>4.139999866485596</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="B118">
-        <v>4.21999979019165</v>
+        <v>4.824999809265137</v>
       </c>
       <c r="C118">
-        <v>3.950000047683716</v>
+        <v>4.440000057220459</v>
       </c>
       <c r="D118">
-        <v>3.960000038146973</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="E118">
-        <v>3.960000038146973</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="F118">
-        <v>4458800</v>
+        <v>9350700</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>4</v>
+        <v>4.480000019073486</v>
       </c>
       <c r="B119">
-        <v>4.239999771118164</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="C119">
-        <v>3.920000076293945</v>
+        <v>4.284999847412109</v>
       </c>
       <c r="D119">
-        <v>4.210000038146973</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="E119">
-        <v>4.210000038146973</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="F119">
-        <v>5577500</v>
+        <v>15361700</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>4.21999979019165</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B120">
-        <v>4.416999816894531</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="C120">
-        <v>4.159999847412109</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="D120">
-        <v>4.179999828338623</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="E120">
-        <v>4.179999828338623</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="F120">
-        <v>3897300</v>
+        <v>5225300</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>4.159999847412109</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="B121">
-        <v>4.224999904632568</v>
+        <v>4.65500020980835</v>
       </c>
       <c r="C121">
-        <v>4.070000171661377</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="D121">
-        <v>4.170000076293945</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="E121">
-        <v>4.170000076293945</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="F121">
-        <v>3210300</v>
+        <v>4397800</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>4.277999877929688</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="B122">
-        <v>4.650000095367432</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="C122">
-        <v>4.260000228881836</v>
+        <v>4.534999847412109</v>
       </c>
       <c r="D122">
-        <v>4.639999866485596</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="E122">
-        <v>4.639999866485596</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="F122">
-        <v>6697000</v>
+        <v>5462800</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>4.510000228881836</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="B123">
-        <v>4.824999809265137</v>
+        <v>4.71999979019165</v>
       </c>
       <c r="C123">
-        <v>4.440000057220459</v>
+        <v>4.340000152587891</v>
       </c>
       <c r="D123">
-        <v>4.590000152587891</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="E123">
-        <v>4.590000152587891</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="F123">
-        <v>9350700</v>
+        <v>4525600</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>4.480000019073486</v>
+        <v>4.420000076293945</v>
       </c>
       <c r="B124">
-        <v>4.809999942779541</v>
+        <v>4.436999797821045</v>
       </c>
       <c r="C124">
-        <v>4.284999847412109</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="D124">
-        <v>4.489999771118164</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E124">
-        <v>4.489999771118164</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F124">
-        <v>15361700</v>
+        <v>4853000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>4.369999885559082</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="B125">
-        <v>4.659999847412109</v>
+        <v>4.097000122070312</v>
       </c>
       <c r="C125">
-        <v>4.309999942779541</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D125">
-        <v>4.329999923706055</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="E125">
-        <v>4.329999923706055</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="F125">
-        <v>5225300</v>
+        <v>5798700</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4.460000038146973</v>
+        <v>4</v>
       </c>
       <c r="B126">
-        <v>4.65500020980835</v>
+        <v>4.060999870300293</v>
       </c>
       <c r="C126">
-        <v>4.400000095367432</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="D126">
-        <v>4.630000114440918</v>
+        <v>3.740000009536743</v>
       </c>
       <c r="E126">
-        <v>4.630000114440918</v>
+        <v>3.740000009536743</v>
       </c>
       <c r="F126">
-        <v>4397800</v>
+        <v>4866900</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>4.690000057220459</v>
+        <v>3.529999971389771</v>
       </c>
       <c r="B127">
-        <v>4.900000095367432</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="C127">
-        <v>4.534999847412109</v>
+        <v>3.470000028610229</v>
       </c>
       <c r="D127">
-        <v>4.699999809265137</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="E127">
-        <v>4.699999809265137</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="F127">
-        <v>5462800</v>
+        <v>6833700</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>4.619999885559082</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="B128">
-        <v>4.71999979019165</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="C128">
-        <v>4.340000152587891</v>
+        <v>3.654999971389771</v>
       </c>
       <c r="D128">
-        <v>4.380000114440918</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="E128">
-        <v>4.380000114440918</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="F128">
-        <v>4525600</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>4.420000076293945</v>
-      </c>
-      <c r="B129">
-        <v>4.436999797821045</v>
-      </c>
-      <c r="C129">
-        <v>4.099999904632568</v>
-      </c>
-      <c r="D129">
-        <v>4.130000114440918</v>
-      </c>
-      <c r="E129">
-        <v>4.130000114440918</v>
-      </c>
-      <c r="F129">
-        <v>4853000</v>
+        <v>4120700</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/ACB/HighLow.xlsx
+++ b/Stocks/ACB/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,713 +417,713 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>7.079999923706055</v>
+        <v>7.340000152587891</v>
       </c>
       <c r="B2">
-        <v>7.25</v>
+        <v>7.550000190734863</v>
       </c>
       <c r="C2">
-        <v>6.889999866485596</v>
+        <v>7.130000114440918</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="F2">
-        <v>3931200</v>
+        <v>4135100</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>6.989999771118164</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="B3">
-        <v>7.210000038146973</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C3">
-        <v>6.900000095367432</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D3">
-        <v>7.179999828338623</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="E3">
-        <v>7.179999828338623</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="F3">
-        <v>3855200</v>
+        <v>5370900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>7.179999828338623</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="B4">
-        <v>7.229000091552734</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="C4">
-        <v>6.989999771118164</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="D4">
-        <v>7.139999866485596</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="E4">
-        <v>7.139999866485596</v>
+        <v>6.909999847412109</v>
       </c>
       <c r="F4">
-        <v>2992500</v>
+        <v>4079600</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>7.139999866485596</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B5">
-        <v>7.619999885559082</v>
+        <v>6.994999885559082</v>
       </c>
       <c r="C5">
-        <v>7.079999923706055</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D5">
-        <v>7.420000076293945</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E5">
-        <v>7.420000076293945</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F5">
-        <v>5830500</v>
+        <v>4302200</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>7.489999771118164</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B6">
-        <v>7.590000152587891</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="C6">
-        <v>7.144999980926514</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="D6">
-        <v>7.199999809265137</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E6">
-        <v>7.199999809265137</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F6">
-        <v>4164800</v>
+        <v>5296600</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>7.239999771118164</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B7">
-        <v>7.570000171661377</v>
+        <v>6.701000213623047</v>
       </c>
       <c r="C7">
-        <v>7.204999923706055</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D7">
-        <v>7.440000057220459</v>
+        <v>6.5</v>
       </c>
       <c r="E7">
-        <v>7.440000057220459</v>
+        <v>6.5</v>
       </c>
       <c r="F7">
-        <v>4084600</v>
+        <v>4081100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>7.460000038146973</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B8">
-        <v>7.735000133514404</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C8">
-        <v>7.335000038146973</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D8">
-        <v>7.389999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E8">
-        <v>7.389999866485596</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F8">
-        <v>5841500</v>
+        <v>3412000</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>7.340000152587891</v>
+        <v>6.638999938964844</v>
       </c>
       <c r="B9">
-        <v>7.550000190734863</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C9">
-        <v>7.130000114440918</v>
+        <v>6.559999942779541</v>
       </c>
       <c r="D9">
-        <v>7.159999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="E9">
-        <v>7.159999847412109</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F9">
-        <v>4135100</v>
+        <v>2144100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>7.110000133514404</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B10">
-        <v>7.159999847412109</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C10">
-        <v>6.829999923706055</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D10">
-        <v>6.889999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E10">
-        <v>6.889999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F10">
-        <v>5370900</v>
+        <v>3191300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>6.869999885559082</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B11">
-        <v>7.010000228881836</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C11">
-        <v>6.829999923706055</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D11">
-        <v>6.909999847412109</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E11">
-        <v>6.909999847412109</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="F11">
-        <v>4079600</v>
+        <v>6981800</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>6.980000019073486</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B12">
-        <v>6.994999885559082</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C12">
-        <v>6.619999885559082</v>
+        <v>5.985000133514404</v>
       </c>
       <c r="D12">
-        <v>6.630000114440918</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E12">
-        <v>6.630000114440918</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F12">
-        <v>4302200</v>
+        <v>9683300</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>6.670000076293945</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B13">
-        <v>6.730000019073486</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="C13">
-        <v>6.460000038146973</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D13">
-        <v>6.630000114440918</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E13">
-        <v>6.630000114440918</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F13">
-        <v>5296600</v>
+        <v>8517800</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>6.619999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B14">
-        <v>6.701000213623047</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="C14">
-        <v>6.400000095367432</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D14">
-        <v>6.5</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E14">
-        <v>6.5</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F14">
-        <v>4081100</v>
+        <v>5399300</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>6.480000019073486</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B15">
-        <v>6.710000038146973</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C15">
-        <v>6.429999828338623</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D15">
-        <v>6.679999828338623</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E15">
-        <v>6.679999828338623</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F15">
-        <v>3412000</v>
+        <v>5322300</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>6.638999938964844</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B16">
-        <v>6.739999771118164</v>
+        <v>6.5</v>
       </c>
       <c r="C16">
-        <v>6.559999942779541</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D16">
-        <v>6.619999885559082</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="E16">
-        <v>6.619999885559082</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="F16">
-        <v>2144100</v>
+        <v>11547700</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>6.630000114440918</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B17">
-        <v>6.679999828338623</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="C17">
-        <v>6.429999828338623</v>
+        <v>6.25</v>
       </c>
       <c r="D17">
-        <v>6.630000114440918</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="E17">
-        <v>6.630000114440918</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="F17">
-        <v>3191300</v>
+        <v>13804600</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6.409999847412109</v>
+        <v>6.75</v>
       </c>
       <c r="B18">
-        <v>6.409999847412109</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C18">
-        <v>6.010000228881836</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D18">
-        <v>6.130000114440918</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="E18">
-        <v>6.130000114440918</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="F18">
-        <v>6981800</v>
+        <v>6806600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.159999847412109</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B19">
-        <v>6.349999904632568</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C19">
-        <v>5.985000133514404</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D19">
-        <v>6.03000020980835</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E19">
-        <v>6.03000020980835</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F19">
-        <v>9683300</v>
+        <v>5328000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6.010000228881836</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B20">
-        <v>6.110000133514404</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="C20">
-        <v>5.849999904632568</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D20">
-        <v>6.010000228881836</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E20">
-        <v>6.010000228881836</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F20">
-        <v>8517800</v>
+        <v>4481100</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>6.119999885559082</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B21">
-        <v>6.224999904632568</v>
+        <v>7.09499979019165</v>
       </c>
       <c r="C21">
-        <v>6.079999923706055</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D21">
-        <v>6.150000095367432</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E21">
-        <v>6.150000095367432</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F21">
-        <v>5399300</v>
+        <v>4141300</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>6.070000171661377</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>6.099999904632568</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C22">
-        <v>5.920000076293945</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D22">
-        <v>5.949999809265137</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E22">
-        <v>5.949999809265137</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F22">
-        <v>5322300</v>
+        <v>5011000</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>6.010000228881836</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B23">
-        <v>6.5</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C23">
-        <v>5.889999866485596</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D23">
-        <v>6.385000228881836</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E23">
-        <v>6.385000228881836</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F23">
-        <v>11547700</v>
+        <v>3260100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>6.289999961853027</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B24">
-        <v>6.989999771118164</v>
+        <v>7.5</v>
       </c>
       <c r="C24">
-        <v>6.25</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="D24">
-        <v>6.809999942779541</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E24">
-        <v>6.809999942779541</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F24">
-        <v>13804600</v>
+        <v>3162800</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>6.75</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B25">
-        <v>6.840000152587891</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C25">
-        <v>6.480000019073486</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D25">
-        <v>6.739999771118164</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E25">
-        <v>6.739999771118164</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F25">
-        <v>6806600</v>
+        <v>3929200</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>6.630000114440918</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B26">
-        <v>6.980000019073486</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="C26">
-        <v>6.610000133514404</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D26">
-        <v>6.920000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E26">
-        <v>6.920000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F26">
-        <v>5328000</v>
+        <v>1903700</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>6.880000114440918</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B27">
-        <v>7.119999885559082</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C27">
-        <v>6.815000057220459</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D27">
-        <v>7.079999923706055</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E27">
-        <v>7.079999923706055</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F27">
-        <v>4481100</v>
+        <v>2073800</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>7.019999980926514</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B28">
-        <v>7.09499979019165</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C28">
-        <v>6.920000076293945</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>7.039999961853027</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E28">
-        <v>7.039999961853027</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F28">
-        <v>4141300</v>
+        <v>1730900</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>7</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B29">
-        <v>7.449999809265137</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C29">
-        <v>6.980000019073486</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D29">
-        <v>7.300000190734863</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="E29">
-        <v>7.300000190734863</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="F29">
-        <v>5011000</v>
+        <v>3378300</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>7.179999828338623</v>
+        <v>7.276999950408936</v>
       </c>
       <c r="B30">
-        <v>7.400000095367432</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C30">
-        <v>7.179999828338623</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D30">
-        <v>7.349999904632568</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E30">
-        <v>7.349999904632568</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F30">
-        <v>3260100</v>
+        <v>2760200</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>7.420000076293945</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B31">
-        <v>7.5</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C31">
-        <v>7.230000019073486</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D31">
-        <v>7.380000114440918</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E31">
-        <v>7.380000114440918</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F31">
-        <v>3162800</v>
+        <v>3212700</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>7.369999885559082</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="B32">
-        <v>7.599999904632568</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C32">
-        <v>7.170000076293945</v>
+        <v>6.90500020980835</v>
       </c>
       <c r="D32">
-        <v>7.210000038146973</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E32">
-        <v>7.210000038146973</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="F32">
-        <v>3929200</v>
+        <v>5392400</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>7.170000076293945</v>
+        <v>7.402999877929688</v>
       </c>
       <c r="B33">
-        <v>7.21999979019165</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="C33">
-        <v>7.010000228881836</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D33">
-        <v>7.010000228881836</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E33">
-        <v>7.010000228881836</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="F33">
-        <v>1903700</v>
+        <v>7013500</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>7.090000152587891</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="B34">
-        <v>7.170000076293945</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="C34">
-        <v>6.96999979019165</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="D34">
-        <v>7.019999980926514</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="E34">
-        <v>7.019999980926514</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="F34">
-        <v>2073800</v>
+        <v>5693300</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>7.090000152587891</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="B35">
-        <v>7.170000076293945</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="D35">
-        <v>7.110000133514404</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E35">
-        <v>7.110000133514404</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F35">
-        <v>1730900</v>
+        <v>3465700</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>7.170000076293945</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B36">
-        <v>7.440000057220459</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C36">
-        <v>7.139999866485596</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D36">
-        <v>7.260000228881836</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E36">
-        <v>7.260000228881836</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F36">
-        <v>3378300</v>
+        <v>2620400</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>7.276999950408936</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B37">
-        <v>7.289999961853027</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="C37">
-        <v>7.010000228881836</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D37">
         <v>7.03000020980835</v>
@@ -1132,7 +1132,7 @@
         <v>7.03000020980835</v>
       </c>
       <c r="F37">
-        <v>2760200</v>
+        <v>5378800</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1140,1819 +1140,1779 @@
         <v>7.010000228881836</v>
       </c>
       <c r="B38">
-        <v>7.03000020980835</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C38">
-        <v>6.869999885559082</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="D38">
-        <v>6.920000076293945</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E38">
-        <v>6.920000076293945</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F38">
-        <v>3212700</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>6.949999809265137</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="B39">
-        <v>7.449999809265137</v>
+        <v>7</v>
       </c>
       <c r="C39">
-        <v>6.90500020980835</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="D39">
-        <v>7.449999809265137</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="E39">
-        <v>7.449999809265137</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="F39">
-        <v>5392400</v>
+        <v>2371800</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>7.402999877929688</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="B40">
-        <v>7.800000190734863</v>
+        <v>7</v>
       </c>
       <c r="C40">
-        <v>7.300000190734863</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D40">
-        <v>7.659999847412109</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E40">
-        <v>7.659999847412109</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F40">
-        <v>7013500</v>
+        <v>2863000</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>7.599999904632568</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B41">
-        <v>7.880000114440918</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C41">
-        <v>7.369999885559082</v>
+        <v>6.561999797821045</v>
       </c>
       <c r="D41">
-        <v>7.369999885559082</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="E41">
-        <v>7.369999885559082</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="F41">
-        <v>5693300</v>
+        <v>3819900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>7.329999923706055</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B42">
-        <v>7.389999866485596</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C42">
-        <v>7.039999961853027</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D42">
-        <v>7.070000171661377</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="E42">
-        <v>7.070000171661377</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F42">
-        <v>3465700</v>
+        <v>2454900</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>7.070000171661377</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B43">
-        <v>7.239999771118164</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C43">
-        <v>7.03000020980835</v>
+        <v>6.810999870300293</v>
       </c>
       <c r="D43">
-        <v>7.179999828338623</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E43">
-        <v>7.179999828338623</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F43">
-        <v>2620400</v>
+        <v>4095900</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>7.210000038146973</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B44">
-        <v>7.269999980926514</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="C44">
-        <v>6.880000114440918</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D44">
-        <v>7.03000020980835</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="E44">
-        <v>7.03000020980835</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="F44">
-        <v>5378800</v>
+        <v>3208900</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>7.010000228881836</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="B45">
-        <v>7.099999904632568</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C45">
-        <v>6.789999961853027</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D45">
-        <v>6.840000152587891</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E45">
-        <v>6.840000152587891</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F45">
-        <v>3129400</v>
+        <v>6610600</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>6.849999904632568</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B46">
-        <v>7</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C46">
-        <v>6.809999942779541</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D46">
-        <v>6.880000114440918</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E46">
-        <v>6.880000114440918</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F46">
-        <v>2371800</v>
+        <v>11837300</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>6.889999866485596</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C47">
-        <v>6.630000114440918</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D47">
-        <v>6.630000114440918</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="E47">
-        <v>6.630000114440918</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="F47">
-        <v>2863000</v>
+        <v>7869700</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>6.699999809265137</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B48">
-        <v>7.079999923706055</v>
+        <v>7.5</v>
       </c>
       <c r="C48">
-        <v>6.561999797821045</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D48">
-        <v>6.989999771118164</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E48">
-        <v>6.989999771118164</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F48">
-        <v>3819900</v>
+        <v>6218500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>6.980000019073486</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="B49">
-        <v>6.980000019073486</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C49">
-        <v>6.78000020980835</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D49">
-        <v>6.900000095367432</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E49">
-        <v>6.900000095367432</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F49">
-        <v>2454900</v>
+        <v>6070700</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>6.880000114440918</v>
+        <v>7.75</v>
       </c>
       <c r="B50">
-        <v>7.159999847412109</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C50">
-        <v>6.810999870300293</v>
+        <v>7.730000019073486</v>
       </c>
       <c r="D50">
-        <v>6.940000057220459</v>
+        <v>8.5</v>
       </c>
       <c r="E50">
-        <v>6.940000057220459</v>
+        <v>8.5</v>
       </c>
       <c r="F50">
-        <v>4095900</v>
+        <v>19189200</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>7.010000228881836</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="B51">
-        <v>7.070000171661377</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="C51">
-        <v>6.78000020980835</v>
+        <v>8.074999809265137</v>
       </c>
       <c r="D51">
-        <v>6.849999904632568</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E51">
-        <v>6.849999904632568</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F51">
-        <v>3208900</v>
+        <v>14281800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>6.829999923706055</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="B52">
-        <v>6.840000152587891</v>
+        <v>8.470000267028809</v>
       </c>
       <c r="C52">
-        <v>6.429999828338623</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="D52">
-        <v>6.659999847412109</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="E52">
-        <v>6.659999847412109</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="F52">
-        <v>6610600</v>
+        <v>7032200</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>6.619999885559082</v>
+        <v>8.210000038146973</v>
       </c>
       <c r="B53">
-        <v>7.329999923706055</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C53">
-        <v>6.619999885559082</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D53">
-        <v>7.300000190734863</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="E53">
-        <v>7.300000190734863</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="F53">
-        <v>11837300</v>
+        <v>6631100</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>7.21999979019165</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="B54">
-        <v>7.590000152587891</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C54">
-        <v>6.940000057220459</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D54">
-        <v>7.480000019073486</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E54">
-        <v>7.480000019073486</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F54">
-        <v>7869700</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>7.050000190734863</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="B55">
-        <v>7.5</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C55">
         <v>6.980000019073486</v>
       </c>
       <c r="D55">
-        <v>7.099999904632568</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E55">
-        <v>7.099999904632568</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F55">
-        <v>6218500</v>
+        <v>5401800</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>7.119999885559082</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B56">
-        <v>7.659999847412109</v>
+        <v>7.067999839782715</v>
       </c>
       <c r="C56">
-        <v>7.090000152587891</v>
+        <v>6.59499979019165</v>
       </c>
       <c r="D56">
-        <v>7.570000171661377</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="E56">
-        <v>7.570000171661377</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="F56">
-        <v>6070700</v>
+        <v>6519900</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>7.75</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="B57">
-        <v>8.579999923706055</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="C57">
-        <v>7.730000019073486</v>
+        <v>6.519999980926514</v>
       </c>
       <c r="D57">
-        <v>8.5</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E57">
-        <v>8.5</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F57">
-        <v>19189200</v>
+        <v>4861700</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>8.609999656677246</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B58">
-        <v>8.689999580383301</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="C58">
-        <v>8.074999809265137</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D58">
-        <v>8.109999656677246</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E58">
-        <v>8.109999656677246</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F58">
-        <v>14281800</v>
+        <v>4687500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>8.060000419616699</v>
+        <v>6.5</v>
       </c>
       <c r="B59">
-        <v>8.470000267028809</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C59">
-        <v>7.78000020980835</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="D59">
-        <v>8.319999694824219</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="E59">
-        <v>8.319999694824219</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="F59">
-        <v>7032200</v>
+        <v>3386100</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>8.210000038146973</v>
+        <v>6.815999984741211</v>
       </c>
       <c r="B60">
-        <v>8.399999618530273</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C60">
-        <v>7.840000152587891</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="D60">
-        <v>7.889999866485596</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E60">
-        <v>7.889999866485596</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F60">
-        <v>6631100</v>
+        <v>6041200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>7.860000133514404</v>
+        <v>6.40500020980835</v>
       </c>
       <c r="B61">
-        <v>7.940000057220459</v>
+        <v>6.63100004196167</v>
       </c>
       <c r="C61">
-        <v>6.980000019073486</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="D61">
-        <v>7.010000228881836</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E61">
-        <v>7.010000228881836</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F61">
-        <v>9810000</v>
+        <v>4554000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>7.289999961853027</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B62">
-        <v>7.389999866485596</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="C62">
-        <v>6.980000019073486</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D62">
-        <v>7.039999961853027</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E62">
-        <v>7.039999961853027</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F62">
-        <v>5401800</v>
+        <v>5549000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>7.050000190734863</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>7.067999839782715</v>
+        <v>6.25</v>
       </c>
       <c r="C63">
-        <v>6.59499979019165</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D63">
-        <v>6.699999809265137</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E63">
-        <v>6.699999809265137</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F63">
-        <v>6519900</v>
+        <v>7263500</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>6.71999979019165</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="B64">
-        <v>6.880000114440918</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="C64">
-        <v>6.519999980926514</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="D64">
-        <v>6.630000114440918</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E64">
-        <v>6.630000114440918</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F64">
-        <v>4861700</v>
+        <v>5836100</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>6.630000114440918</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="B65">
-        <v>6.940000057220459</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C65">
-        <v>6.480000019073486</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D65">
-        <v>6.78000020980835</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E65">
-        <v>6.78000020980835</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F65">
-        <v>4687500</v>
+        <v>5358700</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>6.5</v>
+        <v>6.111000061035156</v>
       </c>
       <c r="B66">
-        <v>6.800000190734863</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="C66">
-        <v>6.489999771118164</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>6.789999961853027</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="E66">
-        <v>6.789999961853027</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="F66">
-        <v>3386100</v>
+        <v>4829000</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>6.815999984741211</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="B67">
-        <v>6.840000152587891</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C67">
-        <v>6.389999866485596</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="D67">
-        <v>6.440000057220459</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E67">
-        <v>6.440000057220459</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F67">
-        <v>6041200</v>
+        <v>3954400</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>6.40500020980835</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="B68">
-        <v>6.63100004196167</v>
+        <v>6.664999961853027</v>
       </c>
       <c r="C68">
-        <v>6.099999904632568</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="D68">
-        <v>6.420000076293945</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E68">
-        <v>6.420000076293945</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F68">
-        <v>4554000</v>
+        <v>3042900</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>6.510000228881836</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B69">
-        <v>6.539999961853027</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C69">
-        <v>5.96999979019165</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D69">
-        <v>6.010000228881836</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E69">
-        <v>6.010000228881836</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F69">
-        <v>5549000</v>
+        <v>2992000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>6</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="B70">
-        <v>6.25</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="C70">
-        <v>5.900000095367432</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D70">
-        <v>6.139999866485596</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="E70">
-        <v>6.139999866485596</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="F70">
-        <v>7263500</v>
+        <v>3199300</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>6.110000133514404</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="B71">
-        <v>6.159999847412109</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C71">
-        <v>5.730000019073486</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="D71">
-        <v>5.820000171661377</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E71">
-        <v>5.820000171661377</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F71">
-        <v>5836100</v>
+        <v>3528800</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>5.769999980926514</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="B72">
-        <v>6.090000152587891</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C72">
-        <v>5.550000190734863</v>
+        <v>5.422999858856201</v>
       </c>
       <c r="D72">
-        <v>5.96999979019165</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E72">
-        <v>5.96999979019165</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F72">
-        <v>5358700</v>
+        <v>6450500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>6.111000061035156</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B73">
-        <v>6.489999771118164</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D73">
-        <v>6.380000114440918</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E73">
-        <v>6.380000114440918</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F73">
-        <v>4829000</v>
+        <v>4319900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>6.380000114440918</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="B74">
-        <v>6.739999771118164</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="C74">
-        <v>6.224999904632568</v>
+        <v>5.543000221252441</v>
       </c>
       <c r="D74">
-        <v>6.570000171661377</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="E74">
-        <v>6.570000171661377</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F74">
-        <v>3954400</v>
+        <v>4024100</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>6.53000020980835</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B75">
-        <v>6.664999961853027</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="C75">
-        <v>6.21999979019165</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D75">
-        <v>6.28000020980835</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="E75">
-        <v>6.28000020980835</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="F75">
-        <v>3042900</v>
+        <v>3678200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>6.289999961853027</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="B76">
-        <v>6.480000019073486</v>
+        <v>6.034999847412109</v>
       </c>
       <c r="C76">
-        <v>6.059999942779541</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="D76">
-        <v>6.119999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E76">
-        <v>6.119999885559082</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F76">
-        <v>2992000</v>
+        <v>4298400</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>6.135000228881836</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B77">
-        <v>6.135000228881836</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C77">
-        <v>5.855000019073486</v>
+        <v>5.75</v>
       </c>
       <c r="D77">
-        <v>5.989999771118164</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="E77">
-        <v>5.989999771118164</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="F77">
-        <v>3199300</v>
+        <v>2991900</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>5.889999866485596</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B78">
-        <v>6.090000152587891</v>
+        <v>6.188000202178955</v>
       </c>
       <c r="C78">
-        <v>5.835000038146973</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D78">
-        <v>5.869999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E78">
-        <v>5.869999885559082</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F78">
-        <v>3528800</v>
+        <v>4050200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>5.849999904632568</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B79">
-        <v>5.869999885559082</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C79">
-        <v>5.422999858856201</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="D79">
-        <v>5.78000020980835</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="E79">
-        <v>5.78000020980835</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="F79">
-        <v>6450500</v>
+        <v>3964200</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>5.860000133514404</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="B80">
-        <v>5.960000038146973</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C80">
-        <v>5.630000114440918</v>
+        <v>5.710000038146973</v>
       </c>
       <c r="D80">
-        <v>5.71999979019165</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="E80">
-        <v>5.71999979019165</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="F80">
-        <v>4319900</v>
+        <v>3673500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>5.630000114440918</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B81">
-        <v>5.949999809265137</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C81">
-        <v>5.543000221252441</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="D81">
-        <v>5.849999904632568</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="E81">
-        <v>5.849999904632568</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="F81">
-        <v>4024100</v>
+        <v>8242700</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>5.699999809265137</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="B82">
-        <v>5.789999961853027</v>
+        <v>5.718999862670898</v>
       </c>
       <c r="C82">
-        <v>5.53000020980835</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D82">
-        <v>5.659999847412109</v>
+        <v>5.5</v>
       </c>
       <c r="E82">
-        <v>5.659999847412109</v>
+        <v>5.5</v>
       </c>
       <c r="F82">
-        <v>3678200</v>
+        <v>6141000</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>5.679999828338623</v>
+        <v>5.519000053405762</v>
       </c>
       <c r="B83">
-        <v>6.034999847412109</v>
+        <v>5.688000202178955</v>
       </c>
       <c r="C83">
-        <v>5.670000076293945</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D83">
-        <v>5.949999809265137</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="E83">
-        <v>5.949999809265137</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="F83">
-        <v>4298400</v>
+        <v>4716800</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>5.909999847412109</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B84">
-        <v>6.010000228881836</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C84">
+        <v>5.449999809265137</v>
+      </c>
+      <c r="D84">
         <v>5.75</v>
       </c>
-      <c r="D84">
-        <v>5.929999828338623</v>
-      </c>
       <c r="E84">
-        <v>5.929999828338623</v>
+        <v>5.75</v>
       </c>
       <c r="F84">
-        <v>2991900</v>
+        <v>5207000</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>5.909999847412109</v>
+        <v>5.75</v>
       </c>
       <c r="B85">
-        <v>6.188000202178955</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="C85">
-        <v>5.855000019073486</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="D85">
-        <v>6.119999885559082</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="E85">
-        <v>6.119999885559082</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="F85">
-        <v>4050200</v>
+        <v>4137000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>6.070000171661377</v>
+        <v>5.75</v>
       </c>
       <c r="B86">
-        <v>6.099999904632568</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C86">
-        <v>5.880000114440918</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D86">
-        <v>5.940000057220459</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="E86">
-        <v>5.940000057220459</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="F86">
-        <v>3964200</v>
+        <v>4337400</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>5.880000114440918</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="B87">
-        <v>6.050000190734863</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="C87">
-        <v>5.710000038146973</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="D87">
-        <v>5.730000019073486</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="E87">
-        <v>5.730000019073486</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="F87">
-        <v>3673500</v>
+        <v>4924300</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
+        <v>5.389999866485596</v>
+      </c>
+      <c r="B88">
         <v>5.699999809265137</v>
       </c>
-      <c r="B88">
-        <v>5.849999904632568</v>
-      </c>
       <c r="C88">
-        <v>5.420000076293945</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D88">
-        <v>5.449999809265137</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="E88">
-        <v>5.449999809265137</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="F88">
-        <v>8242700</v>
+        <v>5843900</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>5.449999809265137</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="B89">
-        <v>5.718999862670898</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="C89">
-        <v>5.429999828338623</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="D89">
-        <v>5.5</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E89">
-        <v>5.5</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F89">
-        <v>6141000</v>
+        <v>9293000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>5.519000053405762</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B90">
-        <v>5.688000202178955</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C90">
-        <v>5.389999866485596</v>
+        <v>5.635000228881836</v>
       </c>
       <c r="D90">
-        <v>5.409999847412109</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="E90">
-        <v>5.409999847412109</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="F90">
-        <v>4716800</v>
+        <v>6060200</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>5.510000228881836</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="B91">
-        <v>5.96999979019165</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="C91">
-        <v>5.449999809265137</v>
+        <v>5.743000030517578</v>
       </c>
       <c r="D91">
-        <v>5.75</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E91">
-        <v>5.75</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F91">
-        <v>5207000</v>
+        <v>5084800</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>5.75</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B92">
-        <v>5.829999923706055</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="C92">
+        <v>5.53000020980835</v>
+      </c>
+      <c r="D92">
         <v>5.539999961853027</v>
       </c>
-      <c r="D92">
-        <v>5.769999980926514</v>
-      </c>
       <c r="E92">
-        <v>5.769999980926514</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="F92">
-        <v>4137000</v>
+        <v>4056400</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="B93">
-        <v>5.869999885559082</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="C93">
-        <v>5.429999828338623</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="D93">
-        <v>5.449999809265137</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="E93">
-        <v>5.449999809265137</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="F93">
-        <v>4337400</v>
+        <v>5796200</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>5.46999979019165</v>
+        <v>5.5</v>
       </c>
       <c r="B94">
-        <v>5.590000152587891</v>
+        <v>5.5</v>
       </c>
       <c r="C94">
-        <v>5.21999979019165</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="D94">
-        <v>5.369999885559082</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E94">
-        <v>5.369999885559082</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F94">
-        <v>4924300</v>
+        <v>7419400</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>5.389999866485596</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="B95">
-        <v>5.699999809265137</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C95">
-        <v>5.389999866485596</v>
+        <v>4.849999904632568</v>
       </c>
       <c r="D95">
-        <v>5.510000228881836</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="E95">
-        <v>5.510000228881836</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="F95">
-        <v>5843900</v>
+        <v>7596600</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>5.590000152587891</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="B96">
-        <v>5.835000038146973</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="C96">
-        <v>5.409999847412109</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="D96">
-        <v>5.760000228881836</v>
+        <v>4.75</v>
       </c>
       <c r="E96">
-        <v>5.760000228881836</v>
+        <v>4.75</v>
       </c>
       <c r="F96">
-        <v>9293000</v>
+        <v>6937800</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>5.659999847412109</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="B97">
-        <v>6.050000190734863</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="C97">
-        <v>5.635000228881836</v>
+        <v>4.410999774932861</v>
       </c>
       <c r="D97">
-        <v>5.889999866485596</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E97">
-        <v>5.889999866485596</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F97">
-        <v>6060200</v>
+        <v>6445600</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>5.949999809265137</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B98">
-        <v>6.03000020980835</v>
+        <v>4.385000228881836</v>
       </c>
       <c r="C98">
-        <v>5.743000030517578</v>
+        <v>3.964999914169312</v>
       </c>
       <c r="D98">
-        <v>5.760000228881836</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="E98">
-        <v>5.760000228881836</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="F98">
-        <v>5084800</v>
+        <v>16513600</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>5.760000228881836</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="B99">
-        <v>5.800000190734863</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C99">
-        <v>5.53000020980835</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D99">
-        <v>5.539999961853027</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E99">
-        <v>5.539999961853027</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F99">
-        <v>4056400</v>
+        <v>5364400</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>5.5</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B100">
-        <v>5.579999923706055</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="C100">
-        <v>5.380000114440918</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>5.510000228881836</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="E100">
-        <v>5.510000228881836</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="F100">
-        <v>5796200</v>
+        <v>7823800</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>5.5</v>
+        <v>4.079999923706055</v>
       </c>
       <c r="B101">
-        <v>5.5</v>
+        <v>4.091000080108643</v>
       </c>
       <c r="C101">
-        <v>5.110000133514404</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="D101">
-        <v>5.110000133514404</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="E101">
-        <v>5.110000133514404</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="F101">
-        <v>7419400</v>
+        <v>7487400</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>5.150000095367432</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="B102">
-        <v>5.199999809265137</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="C102">
-        <v>4.849999904632568</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="D102">
-        <v>4.860000133514404</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="E102">
-        <v>4.860000133514404</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="F102">
-        <v>7596600</v>
+        <v>6932500</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>4.909999847412109</v>
+        <v>3.924999952316284</v>
       </c>
       <c r="B103">
-        <v>5.110000133514404</v>
+        <v>4.269999980926514</v>
       </c>
       <c r="C103">
-        <v>4.739999771118164</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="D103">
-        <v>4.75</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="E103">
-        <v>4.75</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="F103">
-        <v>6937800</v>
+        <v>7851200</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>4.699999809265137</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="B104">
-        <v>4.739999771118164</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="C104">
-        <v>4.410999774932861</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="D104">
-        <v>4.460000038146973</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="E104">
-        <v>4.460000038146973</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="F104">
-        <v>6445600</v>
+        <v>5623600</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>4.369999885559082</v>
+        <v>4.5</v>
       </c>
       <c r="B105">
-        <v>4.385000228881836</v>
+        <v>4.514999866485596</v>
       </c>
       <c r="C105">
-        <v>3.964999914169312</v>
+        <v>4.230000019073486</v>
       </c>
       <c r="D105">
-        <v>4.320000171661377</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="E105">
-        <v>4.320000171661377</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="F105">
-        <v>16513600</v>
+        <v>4132600</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>4.239999771118164</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B106">
-        <v>4.329999923706055</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="C106">
-        <v>4.050000190734863</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="D106">
-        <v>4.210000038146973</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="E106">
-        <v>4.210000038146973</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="F106">
-        <v>5364400</v>
+        <v>4458800</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>4.329999923706055</v>
+        <v>4</v>
       </c>
       <c r="B107">
-        <v>4.369999885559082</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="C107">
-        <v>4</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="D107">
-        <v>4.059999942779541</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E107">
-        <v>4.059999942779541</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F107">
-        <v>7823800</v>
+        <v>5577500</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>4.079999923706055</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B108">
-        <v>4.091000080108643</v>
+        <v>4.416999816894531</v>
       </c>
       <c r="C108">
-        <v>3.769999980926514</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="D108">
-        <v>3.789999961853027</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="E108">
-        <v>3.789999961853027</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="F108">
-        <v>7487400</v>
+        <v>3897300</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>3.779999971389771</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="B109">
-        <v>3.940000057220459</v>
+        <v>4.224999904632568</v>
       </c>
       <c r="C109">
-        <v>3.710000038146973</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="D109">
-        <v>3.910000085830688</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="E109">
-        <v>3.910000085830688</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="F109">
-        <v>6932500</v>
+        <v>3210300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>3.924999952316284</v>
+        <v>4.277999877929688</v>
       </c>
       <c r="B110">
-        <v>4.269999980926514</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C110">
-        <v>3.869999885559082</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="D110">
-        <v>4.159999847412109</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E110">
-        <v>4.159999847412109</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F110">
-        <v>7851200</v>
+        <v>6697000</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>4.239999771118164</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="B111">
-        <v>4.559999942779541</v>
+        <v>4.824999809265137</v>
       </c>
       <c r="C111">
-        <v>4.139999866485596</v>
+        <v>4.440000057220459</v>
       </c>
       <c r="D111">
-        <v>4.46999979019165</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="E111">
-        <v>4.46999979019165</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="F111">
-        <v>5623600</v>
+        <v>9350700</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>4.5</v>
+        <v>4.480000019073486</v>
       </c>
       <c r="B112">
-        <v>4.514999866485596</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="C112">
-        <v>4.230000019073486</v>
+        <v>4.284999847412109</v>
       </c>
       <c r="D112">
-        <v>4.260000228881836</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="E112">
-        <v>4.260000228881836</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="F112">
-        <v>4132600</v>
+        <v>15361700</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>4.139999866485596</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B113">
-        <v>4.21999979019165</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="C113">
-        <v>3.950000047683716</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="D113">
-        <v>3.960000038146973</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="E113">
-        <v>3.960000038146973</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="F113">
-        <v>4458800</v>
+        <v>5225300</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>4</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="B114">
-        <v>4.239999771118164</v>
+        <v>4.65500020980835</v>
       </c>
       <c r="C114">
-        <v>3.920000076293945</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="D114">
-        <v>4.210000038146973</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="E114">
-        <v>4.210000038146973</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="F114">
-        <v>5577500</v>
+        <v>4397800</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>4.21999979019165</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="B115">
-        <v>4.416999816894531</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="C115">
-        <v>4.159999847412109</v>
+        <v>4.534999847412109</v>
       </c>
       <c r="D115">
-        <v>4.179999828338623</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="E115">
-        <v>4.179999828338623</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="F115">
-        <v>3897300</v>
+        <v>5462800</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>4.159999847412109</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="B116">
-        <v>4.224999904632568</v>
+        <v>4.71999979019165</v>
       </c>
       <c r="C116">
-        <v>4.070000171661377</v>
+        <v>4.340000152587891</v>
       </c>
       <c r="D116">
-        <v>4.170000076293945</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="E116">
-        <v>4.170000076293945</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="F116">
-        <v>3210300</v>
+        <v>4525600</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>4.277999877929688</v>
+        <v>4.420000076293945</v>
       </c>
       <c r="B117">
-        <v>4.650000095367432</v>
+        <v>4.436999797821045</v>
       </c>
       <c r="C117">
-        <v>4.260000228881836</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="D117">
-        <v>4.639999866485596</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E117">
-        <v>4.639999866485596</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F117">
-        <v>6697000</v>
+        <v>4862200</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>4.510000228881836</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="B118">
-        <v>4.824999809265137</v>
+        <v>4.097000122070312</v>
       </c>
       <c r="C118">
-        <v>4.440000057220459</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D118">
-        <v>4.590000152587891</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="E118">
-        <v>4.590000152587891</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="F118">
-        <v>9350700</v>
+        <v>5798700</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>4.480000019073486</v>
+        <v>4</v>
       </c>
       <c r="B119">
-        <v>4.809999942779541</v>
+        <v>4.060999870300293</v>
       </c>
       <c r="C119">
-        <v>4.284999847412109</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="D119">
-        <v>4.489999771118164</v>
+        <v>3.740000009536743</v>
       </c>
       <c r="E119">
-        <v>4.489999771118164</v>
+        <v>3.740000009536743</v>
       </c>
       <c r="F119">
-        <v>15361700</v>
+        <v>4866900</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>4.369999885559082</v>
+        <v>3.529999971389771</v>
       </c>
       <c r="B120">
-        <v>4.659999847412109</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="C120">
-        <v>4.309999942779541</v>
+        <v>3.470000028610229</v>
       </c>
       <c r="D120">
-        <v>4.329999923706055</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="E120">
-        <v>4.329999923706055</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="F120">
-        <v>5225300</v>
+        <v>6833700</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>4.460000038146973</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="B121">
-        <v>4.65500020980835</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="C121">
-        <v>4.400000095367432</v>
+        <v>3.654999971389771</v>
       </c>
       <c r="D121">
-        <v>4.630000114440918</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="E121">
-        <v>4.630000114440918</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="F121">
-        <v>4397800</v>
+        <v>4128600</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>4.690000057220459</v>
+        <v>3.70199990272522</v>
       </c>
       <c r="B122">
-        <v>4.900000095367432</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="C122">
-        <v>4.534999847412109</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="D122">
-        <v>4.699999809265137</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="E122">
-        <v>4.699999809265137</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="F122">
-        <v>5462800</v>
+        <v>3491100</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>4.619999885559082</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="B123">
-        <v>4.71999979019165</v>
+        <v>3.825999975204468</v>
       </c>
       <c r="C123">
-        <v>4.340000152587891</v>
+        <v>3.630000114440918</v>
       </c>
       <c r="D123">
-        <v>4.380000114440918</v>
+        <v>3.660000085830688</v>
       </c>
       <c r="E123">
-        <v>4.380000114440918</v>
+        <v>3.660000085830688</v>
       </c>
       <c r="F123">
-        <v>4525600</v>
+        <v>3848800</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>4.420000076293945</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="B124">
-        <v>4.436999797821045</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C124">
-        <v>4.099999904632568</v>
+        <v>3.519999980926514</v>
       </c>
       <c r="D124">
-        <v>4.130000114440918</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="E124">
-        <v>4.130000114440918</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="F124">
-        <v>4853000</v>
+        <v>3929000</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>4.010000228881836</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="B125">
-        <v>4.097000122070312</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="C125">
-        <v>3.849999904632568</v>
+        <v>3.505000114440918</v>
       </c>
       <c r="D125">
-        <v>3.890000104904175</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="E125">
-        <v>3.890000104904175</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="F125">
-        <v>5798700</v>
+        <v>4045000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>4</v>
+        <v>3.509999990463257</v>
       </c>
       <c r="B126">
-        <v>4.060999870300293</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="C126">
-        <v>3.730000019073486</v>
+        <v>3.289999961853027</v>
       </c>
       <c r="D126">
-        <v>3.740000009536743</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="E126">
-        <v>3.740000009536743</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="F126">
-        <v>4866900</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>3.529999971389771</v>
-      </c>
-      <c r="B127">
-        <v>3.859999895095825</v>
-      </c>
-      <c r="C127">
-        <v>3.470000028610229</v>
-      </c>
-      <c r="D127">
-        <v>3.839999914169312</v>
-      </c>
-      <c r="E127">
-        <v>3.839999914169312</v>
-      </c>
-      <c r="F127">
-        <v>6833700</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>3.890000104904175</v>
-      </c>
-      <c r="B128">
-        <v>3.900000095367432</v>
-      </c>
-      <c r="C128">
-        <v>3.654999971389771</v>
-      </c>
-      <c r="D128">
-        <v>3.769999980926514</v>
-      </c>
-      <c r="E128">
-        <v>3.769999980926514</v>
-      </c>
-      <c r="F128">
-        <v>4120700</v>
+        <v>4517868</v>
       </c>
     </row>
   </sheetData>

--- a/Stocks/ACB/HighLow.xlsx
+++ b/Stocks/ACB/HighLow.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,93 +417,93 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>7.340000152587891</v>
+        <v>6.670000076293945</v>
       </c>
       <c r="B2">
-        <v>7.550000190734863</v>
+        <v>6.730000019073486</v>
       </c>
       <c r="C2">
-        <v>7.130000114440918</v>
+        <v>6.460000038146973</v>
       </c>
       <c r="D2">
-        <v>7.159999847412109</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E2">
-        <v>7.159999847412109</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F2">
-        <v>4135100</v>
+        <v>5296600</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>7.110000133514404</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B3">
-        <v>7.159999847412109</v>
+        <v>6.701000213623047</v>
       </c>
       <c r="C3">
-        <v>6.829999923706055</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="D3">
-        <v>6.889999866485596</v>
+        <v>6.5</v>
       </c>
       <c r="E3">
-        <v>6.889999866485596</v>
+        <v>6.5</v>
       </c>
       <c r="F3">
-        <v>5370900</v>
+        <v>4081100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>6.869999885559082</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="B4">
-        <v>7.010000228881836</v>
+        <v>6.710000038146973</v>
       </c>
       <c r="C4">
-        <v>6.829999923706055</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D4">
-        <v>6.909999847412109</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="E4">
-        <v>6.909999847412109</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="F4">
-        <v>4079600</v>
+        <v>3412000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>6.980000019073486</v>
+        <v>6.638999938964844</v>
       </c>
       <c r="B5">
-        <v>6.994999885559082</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C5">
+        <v>6.559999942779541</v>
+      </c>
+      <c r="D5">
         <v>6.619999885559082</v>
       </c>
-      <c r="D5">
-        <v>6.630000114440918</v>
-      </c>
       <c r="E5">
-        <v>6.630000114440918</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="F5">
-        <v>4302200</v>
+        <v>2144100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>6.670000076293945</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B6">
-        <v>6.730000019073486</v>
+        <v>6.679999828338623</v>
       </c>
       <c r="C6">
-        <v>6.460000038146973</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D6">
         <v>6.630000114440918</v>
@@ -512,2407 +512,2427 @@
         <v>6.630000114440918</v>
       </c>
       <c r="F6">
-        <v>5296600</v>
+        <v>3191300</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>6.619999885559082</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="B7">
-        <v>6.701000213623047</v>
+        <v>6.409999847412109</v>
       </c>
       <c r="C7">
-        <v>6.400000095367432</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="D7">
-        <v>6.5</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="E7">
-        <v>6.5</v>
+        <v>6.130000114440918</v>
       </c>
       <c r="F7">
-        <v>4081100</v>
+        <v>6981800</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>6.480000019073486</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="B8">
-        <v>6.710000038146973</v>
+        <v>6.349999904632568</v>
       </c>
       <c r="C8">
-        <v>6.429999828338623</v>
+        <v>5.985000133514404</v>
       </c>
       <c r="D8">
-        <v>6.679999828338623</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="E8">
-        <v>6.679999828338623</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="F8">
-        <v>3412000</v>
+        <v>9683300</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>6.638999938964844</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B9">
-        <v>6.739999771118164</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="C9">
-        <v>6.559999942779541</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="D9">
-        <v>6.619999885559082</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E9">
-        <v>6.619999885559082</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F9">
-        <v>2144100</v>
+        <v>8517800</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>6.630000114440918</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="B10">
-        <v>6.679999828338623</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="C10">
-        <v>6.429999828338623</v>
+        <v>6.079999923706055</v>
       </c>
       <c r="D10">
-        <v>6.630000114440918</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="E10">
-        <v>6.630000114440918</v>
+        <v>6.150000095367432</v>
       </c>
       <c r="F10">
-        <v>3191300</v>
+        <v>5399300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>6.409999847412109</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B11">
-        <v>6.409999847412109</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C11">
-        <v>6.010000228881836</v>
+        <v>5.920000076293945</v>
       </c>
       <c r="D11">
-        <v>6.130000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E11">
-        <v>6.130000114440918</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F11">
-        <v>6981800</v>
+        <v>5322300</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>6.159999847412109</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="B12">
-        <v>6.349999904632568</v>
+        <v>6.5</v>
       </c>
       <c r="C12">
-        <v>5.985000133514404</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="D12">
-        <v>6.03000020980835</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="E12">
-        <v>6.03000020980835</v>
+        <v>6.385000228881836</v>
       </c>
       <c r="F12">
-        <v>9683300</v>
+        <v>11547700</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>6.010000228881836</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B13">
-        <v>6.110000133514404</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="C13">
-        <v>5.849999904632568</v>
+        <v>6.25</v>
       </c>
       <c r="D13">
-        <v>6.010000228881836</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="E13">
-        <v>6.010000228881836</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="F13">
-        <v>8517800</v>
+        <v>13804600</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>6.119999885559082</v>
+        <v>6.75</v>
       </c>
       <c r="B14">
-        <v>6.224999904632568</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C14">
-        <v>6.079999923706055</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D14">
-        <v>6.150000095367432</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="E14">
-        <v>6.150000095367432</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="F14">
-        <v>5399300</v>
+        <v>6806600</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>6.070000171661377</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B15">
-        <v>6.099999904632568</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C15">
-        <v>5.920000076293945</v>
+        <v>6.610000133514404</v>
       </c>
       <c r="D15">
-        <v>5.949999809265137</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E15">
-        <v>5.949999809265137</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F15">
-        <v>5322300</v>
+        <v>5328000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>6.010000228881836</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B16">
-        <v>6.5</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="C16">
-        <v>5.889999866485596</v>
+        <v>6.815000057220459</v>
       </c>
       <c r="D16">
-        <v>6.385000228881836</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="E16">
-        <v>6.385000228881836</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="F16">
-        <v>11547700</v>
+        <v>4481100</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>6.289999961853027</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="B17">
-        <v>6.989999771118164</v>
+        <v>7.09499979019165</v>
       </c>
       <c r="C17">
-        <v>6.25</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="D17">
-        <v>6.809999942779541</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E17">
-        <v>6.809999942779541</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F17">
-        <v>13804600</v>
+        <v>4141300</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>6.840000152587891</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C18">
-        <v>6.480000019073486</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D18">
-        <v>6.739999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E18">
-        <v>6.739999771118164</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F18">
-        <v>6806600</v>
+        <v>5011000</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>6.630000114440918</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="B19">
-        <v>6.980000019073486</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="C19">
-        <v>6.610000133514404</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="D19">
-        <v>6.920000076293945</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="E19">
-        <v>6.920000076293945</v>
+        <v>7.349999904632568</v>
       </c>
       <c r="F19">
-        <v>5328000</v>
+        <v>3260100</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>6.880000114440918</v>
+        <v>7.420000076293945</v>
       </c>
       <c r="B20">
-        <v>7.119999885559082</v>
+        <v>7.5</v>
       </c>
       <c r="C20">
-        <v>6.815000057220459</v>
+        <v>7.230000019073486</v>
       </c>
       <c r="D20">
-        <v>7.079999923706055</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="E20">
-        <v>7.079999923706055</v>
+        <v>7.380000114440918</v>
       </c>
       <c r="F20">
-        <v>4481100</v>
+        <v>3162800</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>7.019999980926514</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="B21">
-        <v>7.09499979019165</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="C21">
-        <v>6.920000076293945</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="D21">
-        <v>7.039999961853027</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="E21">
-        <v>7.039999961853027</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="F21">
-        <v>4141300</v>
+        <v>3932200</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>7</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B22">
-        <v>7.449999809265137</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="C22">
-        <v>6.980000019073486</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="D22">
-        <v>7.300000190734863</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E22">
-        <v>7.300000190734863</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F22">
-        <v>5011000</v>
+        <v>1903700</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>7.179999828338623</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B23">
-        <v>7.400000095367432</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C23">
-        <v>7.179999828338623</v>
+        <v>6.96999979019165</v>
       </c>
       <c r="D23">
-        <v>7.349999904632568</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="E23">
-        <v>7.349999904632568</v>
+        <v>7.019999980926514</v>
       </c>
       <c r="F23">
-        <v>3260100</v>
+        <v>2073800</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>7.420000076293945</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="B24">
-        <v>7.5</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="C24">
-        <v>7.230000019073486</v>
+        <v>7</v>
       </c>
       <c r="D24">
-        <v>7.380000114440918</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="E24">
-        <v>7.380000114440918</v>
+        <v>7.110000133514404</v>
       </c>
       <c r="F24">
-        <v>3162800</v>
+        <v>1730900</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>7.369999885559082</v>
+        <v>7.170000076293945</v>
       </c>
       <c r="B25">
-        <v>7.599999904632568</v>
+        <v>7.440000057220459</v>
       </c>
       <c r="C25">
-        <v>7.170000076293945</v>
+        <v>7.139999866485596</v>
       </c>
       <c r="D25">
-        <v>7.210000038146973</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="E25">
-        <v>7.210000038146973</v>
+        <v>7.260000228881836</v>
       </c>
       <c r="F25">
-        <v>3929200</v>
+        <v>3378300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>7.170000076293945</v>
+        <v>7.276999950408936</v>
       </c>
       <c r="B26">
-        <v>7.21999979019165</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="C26">
         <v>7.010000228881836</v>
       </c>
       <c r="D26">
-        <v>7.010000228881836</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E26">
-        <v>7.010000228881836</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F26">
-        <v>1903700</v>
+        <v>2765300</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>7.090000152587891</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B27">
-        <v>7.170000076293945</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="C27">
-        <v>6.96999979019165</v>
+        <v>6.869999885559082</v>
       </c>
       <c r="D27">
-        <v>7.019999980926514</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="E27">
-        <v>7.019999980926514</v>
+        <v>6.920000076293945</v>
       </c>
       <c r="F27">
-        <v>2073800</v>
+        <v>3212700</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>7.090000152587891</v>
+        <v>6.949999809265137</v>
       </c>
       <c r="B28">
-        <v>7.170000076293945</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>6.90500020980835</v>
       </c>
       <c r="D28">
-        <v>7.110000133514404</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="E28">
-        <v>7.110000133514404</v>
+        <v>7.449999809265137</v>
       </c>
       <c r="F28">
-        <v>1730900</v>
+        <v>5392400</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>7.170000076293945</v>
+        <v>7.402999877929688</v>
       </c>
       <c r="B29">
-        <v>7.440000057220459</v>
+        <v>7.800000190734863</v>
       </c>
       <c r="C29">
-        <v>7.139999866485596</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="D29">
-        <v>7.260000228881836</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="E29">
-        <v>7.260000228881836</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="F29">
-        <v>3378300</v>
+        <v>7013500</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>7.276999950408936</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="B30">
-        <v>7.289999961853027</v>
+        <v>7.880000114440918</v>
       </c>
       <c r="C30">
-        <v>7.010000228881836</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="D30">
-        <v>7.03000020980835</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="E30">
-        <v>7.03000020980835</v>
+        <v>7.369999885559082</v>
       </c>
       <c r="F30">
-        <v>2760200</v>
+        <v>5693300</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>7.010000228881836</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="B31">
-        <v>7.03000020980835</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C31">
-        <v>6.869999885559082</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="D31">
-        <v>6.920000076293945</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="E31">
-        <v>6.920000076293945</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="F31">
-        <v>3212700</v>
+        <v>3465700</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>6.949999809265137</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="B32">
-        <v>7.449999809265137</v>
+        <v>7.239999771118164</v>
       </c>
       <c r="C32">
-        <v>6.90500020980835</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="D32">
-        <v>7.449999809265137</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="E32">
-        <v>7.449999809265137</v>
+        <v>7.179999828338623</v>
       </c>
       <c r="F32">
-        <v>5392400</v>
+        <v>2620400</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>7.402999877929688</v>
+        <v>7.210000038146973</v>
       </c>
       <c r="B33">
-        <v>7.800000190734863</v>
+        <v>7.269999980926514</v>
       </c>
       <c r="C33">
-        <v>7.300000190734863</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="D33">
-        <v>7.659999847412109</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="E33">
-        <v>7.659999847412109</v>
+        <v>7.03000020980835</v>
       </c>
       <c r="F33">
-        <v>7013500</v>
+        <v>5378800</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>7.599999904632568</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B34">
-        <v>7.880000114440918</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="C34">
-        <v>7.369999885559082</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="D34">
-        <v>7.369999885559082</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="E34">
-        <v>7.369999885559082</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="F34">
-        <v>5693300</v>
+        <v>3129400</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>7.329999923706055</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="B35">
-        <v>7.389999866485596</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>7.039999961853027</v>
+        <v>6.809999942779541</v>
       </c>
       <c r="D35">
-        <v>7.070000171661377</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="E35">
-        <v>7.070000171661377</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="F35">
-        <v>3465700</v>
+        <v>2371800</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>7.070000171661377</v>
+        <v>6.889999866485596</v>
       </c>
       <c r="B36">
-        <v>7.239999771118164</v>
+        <v>7</v>
       </c>
       <c r="C36">
-        <v>7.03000020980835</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="D36">
-        <v>7.179999828338623</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E36">
-        <v>7.179999828338623</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F36">
-        <v>2620400</v>
+        <v>2863000</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>7.210000038146973</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="B37">
-        <v>7.269999980926514</v>
+        <v>7.079999923706055</v>
       </c>
       <c r="C37">
-        <v>6.880000114440918</v>
+        <v>6.561999797821045</v>
       </c>
       <c r="D37">
-        <v>7.03000020980835</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="E37">
-        <v>7.03000020980835</v>
+        <v>6.989999771118164</v>
       </c>
       <c r="F37">
-        <v>5378800</v>
+        <v>3819900</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>7.010000228881836</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="B38">
-        <v>7.099999904632568</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="C38">
-        <v>6.789999961853027</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D38">
-        <v>6.840000152587891</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="E38">
-        <v>6.840000152587891</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="F38">
-        <v>3129400</v>
+        <v>2454900</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>6.849999904632568</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="B39">
-        <v>7</v>
+        <v>7.159999847412109</v>
       </c>
       <c r="C39">
-        <v>6.809999942779541</v>
+        <v>6.810999870300293</v>
       </c>
       <c r="D39">
-        <v>6.880000114440918</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="E39">
-        <v>6.880000114440918</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="F39">
-        <v>2371800</v>
+        <v>4095900</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>6.889999866485596</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="B40">
-        <v>7</v>
+        <v>7.070000171661377</v>
       </c>
       <c r="C40">
-        <v>6.630000114440918</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="D40">
-        <v>6.630000114440918</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="E40">
-        <v>6.630000114440918</v>
+        <v>6.849999904632568</v>
       </c>
       <c r="F40">
-        <v>2863000</v>
+        <v>3208900</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>6.699999809265137</v>
+        <v>6.829999923706055</v>
       </c>
       <c r="B41">
-        <v>7.079999923706055</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C41">
-        <v>6.561999797821045</v>
+        <v>6.429999828338623</v>
       </c>
       <c r="D41">
-        <v>6.989999771118164</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="E41">
-        <v>6.989999771118164</v>
+        <v>6.659999847412109</v>
       </c>
       <c r="F41">
-        <v>3819900</v>
+        <v>6723900</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>6.980000019073486</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="B42">
-        <v>6.980000019073486</v>
+        <v>7.329999923706055</v>
       </c>
       <c r="C42">
-        <v>6.78000020980835</v>
+        <v>6.619999885559082</v>
       </c>
       <c r="D42">
-        <v>6.900000095367432</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="E42">
-        <v>6.900000095367432</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="F42">
-        <v>2454900</v>
+        <v>11837300</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>6.880000114440918</v>
+        <v>7.21999979019165</v>
       </c>
       <c r="B43">
-        <v>7.159999847412109</v>
+        <v>7.590000152587891</v>
       </c>
       <c r="C43">
-        <v>6.810999870300293</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="D43">
-        <v>6.940000057220459</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="E43">
-        <v>6.940000057220459</v>
+        <v>7.480000019073486</v>
       </c>
       <c r="F43">
-        <v>4095900</v>
+        <v>7869700</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>7.010000228881836</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B44">
-        <v>7.070000171661377</v>
+        <v>7.5</v>
       </c>
       <c r="C44">
-        <v>6.78000020980835</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D44">
-        <v>6.849999904632568</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="E44">
-        <v>6.849999904632568</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="F44">
-        <v>3208900</v>
+        <v>6218500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>6.829999923706055</v>
+        <v>7.119999885559082</v>
       </c>
       <c r="B45">
-        <v>6.840000152587891</v>
+        <v>7.659999847412109</v>
       </c>
       <c r="C45">
-        <v>6.429999828338623</v>
+        <v>7.090000152587891</v>
       </c>
       <c r="D45">
-        <v>6.659999847412109</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="E45">
-        <v>6.659999847412109</v>
+        <v>7.570000171661377</v>
       </c>
       <c r="F45">
-        <v>6610600</v>
+        <v>6070700</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>6.619999885559082</v>
+        <v>7.75</v>
       </c>
       <c r="B46">
-        <v>7.329999923706055</v>
+        <v>8.579999923706055</v>
       </c>
       <c r="C46">
-        <v>6.619999885559082</v>
+        <v>7.730000019073486</v>
       </c>
       <c r="D46">
-        <v>7.300000190734863</v>
+        <v>8.5</v>
       </c>
       <c r="E46">
-        <v>7.300000190734863</v>
+        <v>8.5</v>
       </c>
       <c r="F46">
-        <v>11837300</v>
+        <v>19251400</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>7.21999979019165</v>
+        <v>8.609999656677246</v>
       </c>
       <c r="B47">
-        <v>7.590000152587891</v>
+        <v>8.689999580383301</v>
       </c>
       <c r="C47">
-        <v>6.940000057220459</v>
+        <v>8.074999809265137</v>
       </c>
       <c r="D47">
-        <v>7.480000019073486</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="E47">
-        <v>7.480000019073486</v>
+        <v>8.109999656677246</v>
       </c>
       <c r="F47">
-        <v>7869700</v>
+        <v>14281800</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>7.050000190734863</v>
+        <v>8.060000419616699</v>
       </c>
       <c r="B48">
-        <v>7.5</v>
+        <v>8.470000267028809</v>
       </c>
       <c r="C48">
-        <v>6.980000019073486</v>
+        <v>7.78000020980835</v>
       </c>
       <c r="D48">
-        <v>7.099999904632568</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="E48">
-        <v>7.099999904632568</v>
+        <v>8.319999694824219</v>
       </c>
       <c r="F48">
-        <v>6218500</v>
+        <v>7032200</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>7.119999885559082</v>
+        <v>8.210000038146973</v>
       </c>
       <c r="B49">
-        <v>7.659999847412109</v>
+        <v>8.399999618530273</v>
       </c>
       <c r="C49">
-        <v>7.090000152587891</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D49">
-        <v>7.570000171661377</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="E49">
-        <v>7.570000171661377</v>
+        <v>7.889999866485596</v>
       </c>
       <c r="F49">
-        <v>6070700</v>
+        <v>6631100</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>7.75</v>
+        <v>7.860000133514404</v>
       </c>
       <c r="B50">
-        <v>8.579999923706055</v>
+        <v>7.940000057220459</v>
       </c>
       <c r="C50">
-        <v>7.730000019073486</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D50">
-        <v>8.5</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="E50">
-        <v>8.5</v>
+        <v>7.010000228881836</v>
       </c>
       <c r="F50">
-        <v>19189200</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>8.609999656677246</v>
+        <v>7.289999961853027</v>
       </c>
       <c r="B51">
-        <v>8.689999580383301</v>
+        <v>7.389999866485596</v>
       </c>
       <c r="C51">
-        <v>8.074999809265137</v>
+        <v>6.980000019073486</v>
       </c>
       <c r="D51">
-        <v>8.109999656677246</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="E51">
-        <v>8.109999656677246</v>
+        <v>7.039999961853027</v>
       </c>
       <c r="F51">
-        <v>14281800</v>
+        <v>5401800</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>8.060000419616699</v>
+        <v>7.050000190734863</v>
       </c>
       <c r="B52">
-        <v>8.470000267028809</v>
+        <v>7.067999839782715</v>
       </c>
       <c r="C52">
-        <v>7.78000020980835</v>
+        <v>6.59499979019165</v>
       </c>
       <c r="D52">
-        <v>8.319999694824219</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="E52">
-        <v>8.319999694824219</v>
+        <v>6.699999809265137</v>
       </c>
       <c r="F52">
-        <v>7032200</v>
+        <v>6519900</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>8.210000038146973</v>
+        <v>6.71999979019165</v>
       </c>
       <c r="B53">
-        <v>8.399999618530273</v>
+        <v>6.880000114440918</v>
       </c>
       <c r="C53">
-        <v>7.840000152587891</v>
+        <v>6.519999980926514</v>
       </c>
       <c r="D53">
-        <v>7.889999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="E53">
-        <v>7.889999866485596</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="F53">
-        <v>6631100</v>
+        <v>4861700</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>7.860000133514404</v>
+        <v>6.630000114440918</v>
       </c>
       <c r="B54">
-        <v>7.940000057220459</v>
+        <v>6.940000057220459</v>
       </c>
       <c r="C54">
-        <v>6.980000019073486</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="D54">
-        <v>7.010000228881836</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="E54">
-        <v>7.010000228881836</v>
+        <v>6.78000020980835</v>
       </c>
       <c r="F54">
-        <v>9810000</v>
+        <v>4687500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>7.289999961853027</v>
+        <v>6.5</v>
       </c>
       <c r="B55">
-        <v>7.389999866485596</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="C55">
-        <v>6.980000019073486</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="D55">
-        <v>7.039999961853027</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="E55">
-        <v>7.039999961853027</v>
+        <v>6.789999961853027</v>
       </c>
       <c r="F55">
-        <v>5401800</v>
+        <v>3386100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>7.050000190734863</v>
+        <v>6.815999984741211</v>
       </c>
       <c r="B56">
-        <v>7.067999839782715</v>
+        <v>6.840000152587891</v>
       </c>
       <c r="C56">
-        <v>6.59499979019165</v>
+        <v>6.389999866485596</v>
       </c>
       <c r="D56">
-        <v>6.699999809265137</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="E56">
-        <v>6.699999809265137</v>
+        <v>6.440000057220459</v>
       </c>
       <c r="F56">
-        <v>6519900</v>
+        <v>6041200</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>6.71999979019165</v>
+        <v>6.40500020980835</v>
       </c>
       <c r="B57">
-        <v>6.880000114440918</v>
+        <v>6.63100004196167</v>
       </c>
       <c r="C57">
-        <v>6.519999980926514</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="D57">
-        <v>6.630000114440918</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="E57">
-        <v>6.630000114440918</v>
+        <v>6.420000076293945</v>
       </c>
       <c r="F57">
-        <v>4861700</v>
+        <v>4554000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>6.630000114440918</v>
+        <v>6.510000228881836</v>
       </c>
       <c r="B58">
-        <v>6.940000057220459</v>
+        <v>6.539999961853027</v>
       </c>
       <c r="C58">
-        <v>6.480000019073486</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="D58">
-        <v>6.78000020980835</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="E58">
-        <v>6.78000020980835</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="F58">
-        <v>4687500</v>
+        <v>5549000</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>6.800000190734863</v>
+        <v>6.25</v>
       </c>
       <c r="C59">
-        <v>6.489999771118164</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="D59">
-        <v>6.789999961853027</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="E59">
-        <v>6.789999961853027</v>
+        <v>6.139999866485596</v>
       </c>
       <c r="F59">
-        <v>3386100</v>
+        <v>7263500</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>6.815999984741211</v>
+        <v>6.110000133514404</v>
       </c>
       <c r="B60">
-        <v>6.840000152587891</v>
+        <v>6.159999847412109</v>
       </c>
       <c r="C60">
-        <v>6.389999866485596</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="D60">
-        <v>6.440000057220459</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="E60">
-        <v>6.440000057220459</v>
+        <v>5.820000171661377</v>
       </c>
       <c r="F60">
-        <v>6041200</v>
+        <v>5840200</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>6.40500020980835</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="B61">
-        <v>6.63100004196167</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C61">
-        <v>6.099999904632568</v>
+        <v>5.550000190734863</v>
       </c>
       <c r="D61">
-        <v>6.420000076293945</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="E61">
-        <v>6.420000076293945</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="F61">
-        <v>4554000</v>
+        <v>5358700</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>6.510000228881836</v>
+        <v>6.111000061035156</v>
       </c>
       <c r="B62">
-        <v>6.539999961853027</v>
+        <v>6.489999771118164</v>
       </c>
       <c r="C62">
-        <v>5.96999979019165</v>
+        <v>6</v>
       </c>
       <c r="D62">
-        <v>6.010000228881836</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="E62">
-        <v>6.010000228881836</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="F62">
-        <v>5549000</v>
+        <v>4829000</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>6</v>
+        <v>6.380000114440918</v>
       </c>
       <c r="B63">
-        <v>6.25</v>
+        <v>6.739999771118164</v>
       </c>
       <c r="C63">
-        <v>5.900000095367432</v>
+        <v>6.224999904632568</v>
       </c>
       <c r="D63">
-        <v>6.139999866485596</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="E63">
-        <v>6.139999866485596</v>
+        <v>6.570000171661377</v>
       </c>
       <c r="F63">
-        <v>7263500</v>
+        <v>3954400</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>6.110000133514404</v>
+        <v>6.53000020980835</v>
       </c>
       <c r="B64">
-        <v>6.159999847412109</v>
+        <v>6.664999961853027</v>
       </c>
       <c r="C64">
-        <v>5.730000019073486</v>
+        <v>6.21999979019165</v>
       </c>
       <c r="D64">
-        <v>5.820000171661377</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="E64">
-        <v>5.820000171661377</v>
+        <v>6.28000020980835</v>
       </c>
       <c r="F64">
-        <v>5836100</v>
+        <v>3042900</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>5.769999980926514</v>
+        <v>6.289999961853027</v>
       </c>
       <c r="B65">
-        <v>6.090000152587891</v>
+        <v>6.480000019073486</v>
       </c>
       <c r="C65">
-        <v>5.550000190734863</v>
+        <v>6.059999942779541</v>
       </c>
       <c r="D65">
-        <v>5.96999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E65">
-        <v>5.96999979019165</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F65">
-        <v>5358700</v>
+        <v>2997100</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>6.111000061035156</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="B66">
-        <v>6.489999771118164</v>
+        <v>6.135000228881836</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D66">
-        <v>6.380000114440918</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="E66">
-        <v>6.380000114440918</v>
+        <v>5.989999771118164</v>
       </c>
       <c r="F66">
-        <v>4829000</v>
+        <v>3199300</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>6.380000114440918</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="B67">
-        <v>6.739999771118164</v>
+        <v>6.090000152587891</v>
       </c>
       <c r="C67">
-        <v>6.224999904632568</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="D67">
-        <v>6.570000171661377</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="E67">
-        <v>6.570000171661377</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="F67">
-        <v>3954400</v>
+        <v>3528800</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>6.53000020980835</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="B68">
-        <v>6.664999961853027</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C68">
-        <v>6.21999979019165</v>
+        <v>5.422999858856201</v>
       </c>
       <c r="D68">
-        <v>6.28000020980835</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="E68">
-        <v>6.28000020980835</v>
+        <v>5.78000020980835</v>
       </c>
       <c r="F68">
-        <v>3042900</v>
+        <v>6450500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>6.289999961853027</v>
+        <v>5.860000133514404</v>
       </c>
       <c r="B69">
-        <v>6.480000019073486</v>
+        <v>5.960000038146973</v>
       </c>
       <c r="C69">
-        <v>6.059999942779541</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="D69">
-        <v>6.119999885559082</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="E69">
-        <v>6.119999885559082</v>
+        <v>5.71999979019165</v>
       </c>
       <c r="F69">
-        <v>2992000</v>
+        <v>4319900</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>6.135000228881836</v>
+        <v>5.630000114440918</v>
       </c>
       <c r="B70">
-        <v>6.135000228881836</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="C70">
-        <v>5.855000019073486</v>
+        <v>5.543000221252441</v>
       </c>
       <c r="D70">
-        <v>5.989999771118164</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="E70">
-        <v>5.989999771118164</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="F70">
-        <v>3199300</v>
+        <v>4024100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>5.889999866485596</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B71">
-        <v>6.090000152587891</v>
+        <v>5.789999961853027</v>
       </c>
       <c r="C71">
-        <v>5.835000038146973</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D71">
-        <v>5.869999885559082</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="E71">
-        <v>5.869999885559082</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="F71">
-        <v>3528800</v>
+        <v>3678200</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>5.849999904632568</v>
+        <v>5.679999828338623</v>
       </c>
       <c r="B72">
-        <v>5.869999885559082</v>
+        <v>6.034999847412109</v>
       </c>
       <c r="C72">
-        <v>5.422999858856201</v>
+        <v>5.670000076293945</v>
       </c>
       <c r="D72">
-        <v>5.78000020980835</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="E72">
-        <v>5.78000020980835</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="F72">
-        <v>6450500</v>
+        <v>4298400</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>5.860000133514404</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B73">
-        <v>5.960000038146973</v>
+        <v>6.010000228881836</v>
       </c>
       <c r="C73">
-        <v>5.630000114440918</v>
+        <v>5.75</v>
       </c>
       <c r="D73">
-        <v>5.71999979019165</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="E73">
-        <v>5.71999979019165</v>
+        <v>5.929999828338623</v>
       </c>
       <c r="F73">
-        <v>4319900</v>
+        <v>2991900</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>5.630000114440918</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="B74">
-        <v>5.949999809265137</v>
+        <v>6.188000202178955</v>
       </c>
       <c r="C74">
-        <v>5.543000221252441</v>
+        <v>5.855000019073486</v>
       </c>
       <c r="D74">
-        <v>5.849999904632568</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="E74">
-        <v>5.849999904632568</v>
+        <v>6.119999885559082</v>
       </c>
       <c r="F74">
-        <v>4024100</v>
+        <v>4050200</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>5.699999809265137</v>
+        <v>6.070000171661377</v>
       </c>
       <c r="B75">
-        <v>5.789999961853027</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="C75">
-        <v>5.53000020980835</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="D75">
-        <v>5.659999847412109</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="E75">
-        <v>5.659999847412109</v>
+        <v>5.940000057220459</v>
       </c>
       <c r="F75">
-        <v>3678200</v>
+        <v>3964200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>5.679999828338623</v>
+        <v>5.880000114440918</v>
       </c>
       <c r="B76">
-        <v>6.034999847412109</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C76">
-        <v>5.670000076293945</v>
+        <v>5.710000038146973</v>
       </c>
       <c r="D76">
-        <v>5.949999809265137</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="E76">
-        <v>5.949999809265137</v>
+        <v>5.730000019073486</v>
       </c>
       <c r="F76">
-        <v>4298400</v>
+        <v>3673500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>5.909999847412109</v>
+        <v>5.699999809265137</v>
       </c>
       <c r="B77">
-        <v>6.010000228881836</v>
+        <v>5.849999904632568</v>
       </c>
       <c r="C77">
-        <v>5.75</v>
+        <v>5.420000076293945</v>
       </c>
       <c r="D77">
-        <v>5.929999828338623</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="E77">
-        <v>5.929999828338623</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="F77">
-        <v>2991900</v>
+        <v>8242700</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>5.909999847412109</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="B78">
-        <v>6.188000202178955</v>
+        <v>5.718999862670898</v>
       </c>
       <c r="C78">
-        <v>5.855000019073486</v>
+        <v>5.429999828338623</v>
       </c>
       <c r="D78">
-        <v>6.119999885559082</v>
+        <v>5.5</v>
       </c>
       <c r="E78">
-        <v>6.119999885559082</v>
+        <v>5.5</v>
       </c>
       <c r="F78">
-        <v>4050200</v>
+        <v>6141000</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>6.070000171661377</v>
+        <v>5.519000053405762</v>
       </c>
       <c r="B79">
-        <v>6.099999904632568</v>
+        <v>5.688000202178955</v>
       </c>
       <c r="C79">
-        <v>5.880000114440918</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D79">
-        <v>5.940000057220459</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="E79">
-        <v>5.940000057220459</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="F79">
-        <v>3964200</v>
+        <v>4716800</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>5.880000114440918</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="B80">
-        <v>6.050000190734863</v>
+        <v>5.96999979019165</v>
       </c>
       <c r="C80">
-        <v>5.710000038146973</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="D80">
-        <v>5.730000019073486</v>
+        <v>5.75</v>
       </c>
       <c r="E80">
-        <v>5.730000019073486</v>
+        <v>5.75</v>
       </c>
       <c r="F80">
-        <v>3673500</v>
+        <v>5207000</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>5.699999809265137</v>
+        <v>5.75</v>
       </c>
       <c r="B81">
-        <v>5.849999904632568</v>
+        <v>5.829999923706055</v>
       </c>
       <c r="C81">
-        <v>5.420000076293945</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="D81">
-        <v>5.449999809265137</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="E81">
-        <v>5.449999809265137</v>
+        <v>5.769999980926514</v>
       </c>
       <c r="F81">
-        <v>8242700</v>
+        <v>4137000</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>5.449999809265137</v>
+        <v>5.75</v>
       </c>
       <c r="B82">
-        <v>5.718999862670898</v>
+        <v>5.869999885559082</v>
       </c>
       <c r="C82">
         <v>5.429999828338623</v>
       </c>
       <c r="D82">
-        <v>5.5</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="E82">
-        <v>5.5</v>
+        <v>5.449999809265137</v>
       </c>
       <c r="F82">
-        <v>6141000</v>
+        <v>4337400</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>5.519000053405762</v>
+        <v>5.46999979019165</v>
       </c>
       <c r="B83">
-        <v>5.688000202178955</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="C83">
-        <v>5.389999866485596</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="D83">
-        <v>5.409999847412109</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="E83">
-        <v>5.409999847412109</v>
+        <v>5.369999885559082</v>
       </c>
       <c r="F83">
-        <v>4716800</v>
+        <v>4924300</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
+        <v>5.389999866485596</v>
+      </c>
+      <c r="B84">
+        <v>5.699999809265137</v>
+      </c>
+      <c r="C84">
+        <v>5.389999866485596</v>
+      </c>
+      <c r="D84">
         <v>5.510000228881836</v>
       </c>
-      <c r="B84">
-        <v>5.96999979019165</v>
-      </c>
-      <c r="C84">
-        <v>5.449999809265137</v>
-      </c>
-      <c r="D84">
-        <v>5.75</v>
-      </c>
       <c r="E84">
-        <v>5.75</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="F84">
-        <v>5207000</v>
+        <v>5851900</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>5.75</v>
+        <v>5.590000152587891</v>
       </c>
       <c r="B85">
-        <v>5.829999923706055</v>
+        <v>5.835000038146973</v>
       </c>
       <c r="C85">
-        <v>5.539999961853027</v>
+        <v>5.409999847412109</v>
       </c>
       <c r="D85">
-        <v>5.769999980926514</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E85">
-        <v>5.769999980926514</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F85">
-        <v>4137000</v>
+        <v>9293000</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>5.75</v>
+        <v>5.659999847412109</v>
       </c>
       <c r="B86">
-        <v>5.869999885559082</v>
+        <v>6.050000190734863</v>
       </c>
       <c r="C86">
-        <v>5.429999828338623</v>
+        <v>5.635000228881836</v>
       </c>
       <c r="D86">
-        <v>5.449999809265137</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="E86">
-        <v>5.449999809265137</v>
+        <v>5.889999866485596</v>
       </c>
       <c r="F86">
-        <v>4337400</v>
+        <v>6060200</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>5.46999979019165</v>
+        <v>5.949999809265137</v>
       </c>
       <c r="B87">
-        <v>5.590000152587891</v>
+        <v>6.03000020980835</v>
       </c>
       <c r="C87">
-        <v>5.21999979019165</v>
+        <v>5.743000030517578</v>
       </c>
       <c r="D87">
-        <v>5.369999885559082</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="E87">
-        <v>5.369999885559082</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="F87">
-        <v>4924300</v>
+        <v>5084800</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>5.389999866485596</v>
+        <v>5.760000228881836</v>
       </c>
       <c r="B88">
-        <v>5.699999809265137</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="C88">
-        <v>5.389999866485596</v>
+        <v>5.53000020980835</v>
       </c>
       <c r="D88">
-        <v>5.510000228881836</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="E88">
-        <v>5.510000228881836</v>
+        <v>5.539999961853027</v>
       </c>
       <c r="F88">
-        <v>5843900</v>
+        <v>4056400</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>5.590000152587891</v>
+        <v>5.5</v>
       </c>
       <c r="B89">
-        <v>5.835000038146973</v>
+        <v>5.579999923706055</v>
       </c>
       <c r="C89">
-        <v>5.409999847412109</v>
+        <v>5.380000114440918</v>
       </c>
       <c r="D89">
-        <v>5.760000228881836</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="E89">
-        <v>5.760000228881836</v>
+        <v>5.510000228881836</v>
       </c>
       <c r="F89">
-        <v>9293000</v>
+        <v>5808000</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>5.659999847412109</v>
+        <v>5.5</v>
       </c>
       <c r="B90">
-        <v>6.050000190734863</v>
+        <v>5.5</v>
       </c>
       <c r="C90">
-        <v>5.635000228881836</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="D90">
-        <v>5.889999866485596</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="E90">
-        <v>5.889999866485596</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="F90">
-        <v>6060200</v>
+        <v>7419400</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>5.949999809265137</v>
+        <v>5.150000095367432</v>
       </c>
       <c r="B91">
-        <v>6.03000020980835</v>
+        <v>5.199999809265137</v>
       </c>
       <c r="C91">
-        <v>5.743000030517578</v>
+        <v>4.849999904632568</v>
       </c>
       <c r="D91">
-        <v>5.760000228881836</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="E91">
-        <v>5.760000228881836</v>
+        <v>4.860000133514404</v>
       </c>
       <c r="F91">
-        <v>5084800</v>
+        <v>7596600</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>5.760000228881836</v>
+        <v>4.909999847412109</v>
       </c>
       <c r="B92">
-        <v>5.800000190734863</v>
+        <v>5.110000133514404</v>
       </c>
       <c r="C92">
-        <v>5.53000020980835</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="D92">
-        <v>5.539999961853027</v>
+        <v>4.75</v>
       </c>
       <c r="E92">
-        <v>5.539999961853027</v>
+        <v>4.75</v>
       </c>
       <c r="F92">
-        <v>4056400</v>
+        <v>6937800</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>5.5</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="B93">
-        <v>5.579999923706055</v>
+        <v>4.739999771118164</v>
       </c>
       <c r="C93">
-        <v>5.380000114440918</v>
+        <v>4.410999774932861</v>
       </c>
       <c r="D93">
-        <v>5.510000228881836</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="E93">
-        <v>5.510000228881836</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="F93">
-        <v>5796200</v>
+        <v>6445600</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>5.5</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B94">
-        <v>5.5</v>
+        <v>4.385000228881836</v>
       </c>
       <c r="C94">
-        <v>5.110000133514404</v>
+        <v>3.964999914169312</v>
       </c>
       <c r="D94">
-        <v>5.110000133514404</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="E94">
-        <v>5.110000133514404</v>
+        <v>4.320000171661377</v>
       </c>
       <c r="F94">
-        <v>7419400</v>
+        <v>16513600</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>5.150000095367432</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="B95">
-        <v>5.199999809265137</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C95">
-        <v>4.849999904632568</v>
+        <v>4.050000190734863</v>
       </c>
       <c r="D95">
-        <v>4.860000133514404</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E95">
-        <v>4.860000133514404</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F95">
-        <v>7596600</v>
+        <v>5364400</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>4.909999847412109</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="B96">
-        <v>5.110000133514404</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="C96">
-        <v>4.739999771118164</v>
+        <v>4</v>
       </c>
       <c r="D96">
-        <v>4.75</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="E96">
-        <v>4.75</v>
+        <v>4.059999942779541</v>
       </c>
       <c r="F96">
-        <v>6937800</v>
+        <v>7823800</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>4.699999809265137</v>
+        <v>4.079999923706055</v>
       </c>
       <c r="B97">
-        <v>4.739999771118164</v>
+        <v>4.091000080108643</v>
       </c>
       <c r="C97">
-        <v>4.410999774932861</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="D97">
-        <v>4.460000038146973</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="E97">
-        <v>4.460000038146973</v>
+        <v>3.789999961853027</v>
       </c>
       <c r="F97">
-        <v>6445600</v>
+        <v>7487400</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>4.369999885559082</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="B98">
-        <v>4.385000228881836</v>
+        <v>3.940000057220459</v>
       </c>
       <c r="C98">
-        <v>3.964999914169312</v>
+        <v>3.710000038146973</v>
       </c>
       <c r="D98">
-        <v>4.320000171661377</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="E98">
-        <v>4.320000171661377</v>
+        <v>3.910000085830688</v>
       </c>
       <c r="F98">
-        <v>16513600</v>
+        <v>6932500</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>4.239999771118164</v>
+        <v>3.924999952316284</v>
       </c>
       <c r="B99">
-        <v>4.329999923706055</v>
+        <v>4.269999980926514</v>
       </c>
       <c r="C99">
-        <v>4.050000190734863</v>
+        <v>3.869999885559082</v>
       </c>
       <c r="D99">
-        <v>4.210000038146973</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="E99">
-        <v>4.210000038146973</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="F99">
-        <v>5364400</v>
+        <v>7851200</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>4.329999923706055</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="B100">
-        <v>4.369999885559082</v>
+        <v>4.559999942779541</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="D100">
-        <v>4.059999942779541</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="E100">
-        <v>4.059999942779541</v>
+        <v>4.46999979019165</v>
       </c>
       <c r="F100">
-        <v>7823800</v>
+        <v>5623600</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>4.079999923706055</v>
+        <v>4.5</v>
       </c>
       <c r="B101">
-        <v>4.091000080108643</v>
+        <v>4.514999866485596</v>
       </c>
       <c r="C101">
-        <v>3.769999980926514</v>
+        <v>4.230000019073486</v>
       </c>
       <c r="D101">
-        <v>3.789999961853027</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="E101">
-        <v>3.789999961853027</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="F101">
-        <v>7487400</v>
+        <v>4132600</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>3.779999971389771</v>
+        <v>4.139999866485596</v>
       </c>
       <c r="B102">
-        <v>3.940000057220459</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="C102">
-        <v>3.710000038146973</v>
+        <v>3.950000047683716</v>
       </c>
       <c r="D102">
-        <v>3.910000085830688</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="E102">
-        <v>3.910000085830688</v>
+        <v>3.960000038146973</v>
       </c>
       <c r="F102">
-        <v>6932500</v>
+        <v>4458800</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>3.924999952316284</v>
+        <v>4</v>
       </c>
       <c r="B103">
-        <v>4.269999980926514</v>
+        <v>4.239999771118164</v>
       </c>
       <c r="C103">
-        <v>3.869999885559082</v>
+        <v>3.920000076293945</v>
       </c>
       <c r="D103">
-        <v>4.159999847412109</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="E103">
-        <v>4.159999847412109</v>
+        <v>4.210000038146973</v>
       </c>
       <c r="F103">
-        <v>7851200</v>
+        <v>5580900</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>4.239999771118164</v>
+        <v>4.21999979019165</v>
       </c>
       <c r="B104">
-        <v>4.559999942779541</v>
+        <v>4.416999816894531</v>
       </c>
       <c r="C104">
-        <v>4.139999866485596</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="D104">
-        <v>4.46999979019165</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="E104">
-        <v>4.46999979019165</v>
+        <v>4.179999828338623</v>
       </c>
       <c r="F104">
-        <v>5623600</v>
+        <v>3897300</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>4.5</v>
+        <v>4.159999847412109</v>
       </c>
       <c r="B105">
-        <v>4.514999866485596</v>
+        <v>4.224999904632568</v>
       </c>
       <c r="C105">
-        <v>4.230000019073486</v>
+        <v>4.070000171661377</v>
       </c>
       <c r="D105">
-        <v>4.260000228881836</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="E105">
-        <v>4.260000228881836</v>
+        <v>4.170000076293945</v>
       </c>
       <c r="F105">
-        <v>4132600</v>
+        <v>3210300</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>4.139999866485596</v>
+        <v>4.277999877929688</v>
       </c>
       <c r="B106">
-        <v>4.21999979019165</v>
+        <v>4.650000095367432</v>
       </c>
       <c r="C106">
-        <v>3.950000047683716</v>
+        <v>4.260000228881836</v>
       </c>
       <c r="D106">
-        <v>3.960000038146973</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="E106">
-        <v>3.960000038146973</v>
+        <v>4.639999866485596</v>
       </c>
       <c r="F106">
-        <v>4458800</v>
+        <v>6697000</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>4</v>
+        <v>4.510000228881836</v>
       </c>
       <c r="B107">
-        <v>4.239999771118164</v>
+        <v>4.824999809265137</v>
       </c>
       <c r="C107">
-        <v>3.920000076293945</v>
+        <v>4.440000057220459</v>
       </c>
       <c r="D107">
-        <v>4.210000038146973</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="E107">
-        <v>4.210000038146973</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="F107">
-        <v>5577500</v>
+        <v>9350700</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>4.21999979019165</v>
+        <v>4.480000019073486</v>
       </c>
       <c r="B108">
-        <v>4.416999816894531</v>
+        <v>4.809999942779541</v>
       </c>
       <c r="C108">
-        <v>4.159999847412109</v>
+        <v>4.284999847412109</v>
       </c>
       <c r="D108">
-        <v>4.179999828338623</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="E108">
-        <v>4.179999828338623</v>
+        <v>4.489999771118164</v>
       </c>
       <c r="F108">
-        <v>3897300</v>
+        <v>15367500</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>4.159999847412109</v>
+        <v>4.369999885559082</v>
       </c>
       <c r="B109">
-        <v>4.224999904632568</v>
+        <v>4.659999847412109</v>
       </c>
       <c r="C109">
-        <v>4.070000171661377</v>
+        <v>4.309999942779541</v>
       </c>
       <c r="D109">
-        <v>4.170000076293945</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="E109">
-        <v>4.170000076293945</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="F109">
-        <v>3210300</v>
+        <v>5225300</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>4.277999877929688</v>
+        <v>4.460000038146973</v>
       </c>
       <c r="B110">
-        <v>4.650000095367432</v>
+        <v>4.65500020980835</v>
       </c>
       <c r="C110">
-        <v>4.260000228881836</v>
+        <v>4.400000095367432</v>
       </c>
       <c r="D110">
-        <v>4.639999866485596</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="E110">
-        <v>4.639999866485596</v>
+        <v>4.630000114440918</v>
       </c>
       <c r="F110">
-        <v>6697000</v>
+        <v>4397800</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>4.510000228881836</v>
+        <v>4.690000057220459</v>
       </c>
       <c r="B111">
-        <v>4.824999809265137</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="C111">
-        <v>4.440000057220459</v>
+        <v>4.534999847412109</v>
       </c>
       <c r="D111">
-        <v>4.590000152587891</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="E111">
-        <v>4.590000152587891</v>
+        <v>4.699999809265137</v>
       </c>
       <c r="F111">
-        <v>9350700</v>
+        <v>5462800</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>4.480000019073486</v>
+        <v>4.619999885559082</v>
       </c>
       <c r="B112">
-        <v>4.809999942779541</v>
+        <v>4.71999979019165</v>
       </c>
       <c r="C112">
-        <v>4.284999847412109</v>
+        <v>4.340000152587891</v>
       </c>
       <c r="D112">
-        <v>4.489999771118164</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="E112">
-        <v>4.489999771118164</v>
+        <v>4.380000114440918</v>
       </c>
       <c r="F112">
-        <v>15361700</v>
+        <v>4525600</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>4.369999885559082</v>
+        <v>4.420000076293945</v>
       </c>
       <c r="B113">
-        <v>4.659999847412109</v>
+        <v>4.436999797821045</v>
       </c>
       <c r="C113">
-        <v>4.309999942779541</v>
+        <v>4.099999904632568</v>
       </c>
       <c r="D113">
-        <v>4.329999923706055</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="E113">
-        <v>4.329999923706055</v>
+        <v>4.130000114440918</v>
       </c>
       <c r="F113">
-        <v>5225300</v>
+        <v>4862200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>4.460000038146973</v>
+        <v>4.010000228881836</v>
       </c>
       <c r="B114">
-        <v>4.65500020980835</v>
+        <v>4.097000122070312</v>
       </c>
       <c r="C114">
-        <v>4.400000095367432</v>
+        <v>3.849999904632568</v>
       </c>
       <c r="D114">
-        <v>4.630000114440918</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="E114">
-        <v>4.630000114440918</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="F114">
-        <v>4397800</v>
+        <v>5798700</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>4.690000057220459</v>
+        <v>4</v>
       </c>
       <c r="B115">
-        <v>4.900000095367432</v>
+        <v>4.060999870300293</v>
       </c>
       <c r="C115">
-        <v>4.534999847412109</v>
+        <v>3.730000019073486</v>
       </c>
       <c r="D115">
-        <v>4.699999809265137</v>
+        <v>3.740000009536743</v>
       </c>
       <c r="E115">
-        <v>4.699999809265137</v>
+        <v>3.740000009536743</v>
       </c>
       <c r="F115">
-        <v>5462800</v>
+        <v>4866900</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>4.619999885559082</v>
+        <v>3.529999971389771</v>
       </c>
       <c r="B116">
-        <v>4.71999979019165</v>
+        <v>3.859999895095825</v>
       </c>
       <c r="C116">
-        <v>4.340000152587891</v>
+        <v>3.470000028610229</v>
       </c>
       <c r="D116">
-        <v>4.380000114440918</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="E116">
-        <v>4.380000114440918</v>
+        <v>3.839999914169312</v>
       </c>
       <c r="F116">
-        <v>4525600</v>
+        <v>6833700</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>4.420000076293945</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="B117">
-        <v>4.436999797821045</v>
+        <v>3.900000095367432</v>
       </c>
       <c r="C117">
-        <v>4.099999904632568</v>
+        <v>3.654999971389771</v>
       </c>
       <c r="D117">
-        <v>4.130000114440918</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="E117">
-        <v>4.130000114440918</v>
+        <v>3.769999980926514</v>
       </c>
       <c r="F117">
-        <v>4862200</v>
+        <v>4128600</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>4.010000228881836</v>
+        <v>3.70199990272522</v>
       </c>
       <c r="B118">
-        <v>4.097000122070312</v>
+        <v>3.890000104904175</v>
       </c>
       <c r="C118">
-        <v>3.849999904632568</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="D118">
-        <v>3.890000104904175</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="E118">
-        <v>3.890000104904175</v>
+        <v>3.799999952316284</v>
       </c>
       <c r="F118">
-        <v>5798700</v>
+        <v>3491100</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>4</v>
+        <v>3.779999971389771</v>
       </c>
       <c r="B119">
-        <v>4.060999870300293</v>
+        <v>3.825999975204468</v>
       </c>
       <c r="C119">
-        <v>3.730000019073486</v>
+        <v>3.630000114440918</v>
       </c>
       <c r="D119">
-        <v>3.740000009536743</v>
+        <v>3.660000085830688</v>
       </c>
       <c r="E119">
-        <v>3.740000009536743</v>
+        <v>3.660000085830688</v>
       </c>
       <c r="F119">
-        <v>4866900</v>
+        <v>3848800</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>3.529999971389771</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="B120">
-        <v>3.859999895095825</v>
+        <v>3.700000047683716</v>
       </c>
       <c r="C120">
-        <v>3.470000028610229</v>
+        <v>3.519999980926514</v>
       </c>
       <c r="D120">
-        <v>3.839999914169312</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="E120">
-        <v>3.839999914169312</v>
+        <v>3.680000066757202</v>
       </c>
       <c r="F120">
-        <v>6833700</v>
+        <v>3929000</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>3.890000104904175</v>
+        <v>3.650000095367432</v>
       </c>
       <c r="B121">
-        <v>3.900000095367432</v>
+        <v>3.720000028610229</v>
       </c>
       <c r="C121">
-        <v>3.654999971389771</v>
+        <v>3.505000114440918</v>
       </c>
       <c r="D121">
-        <v>3.769999980926514</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="E121">
-        <v>3.769999980926514</v>
+        <v>3.549999952316284</v>
       </c>
       <c r="F121">
-        <v>4128600</v>
+        <v>4050300</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>3.70199990272522</v>
+        <v>3.509999990463257</v>
       </c>
       <c r="B122">
-        <v>3.890000104904175</v>
+        <v>3.559999942779541</v>
       </c>
       <c r="C122">
-        <v>3.650000095367432</v>
+        <v>3.289999961853027</v>
       </c>
       <c r="D122">
-        <v>3.799999952316284</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="E122">
-        <v>3.799999952316284</v>
+        <v>3.339999914169312</v>
       </c>
       <c r="F122">
-        <v>3491100</v>
+        <v>4503600</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>3.779999971389771</v>
+        <v>3.299999952316284</v>
       </c>
       <c r="B123">
-        <v>3.825999975204468</v>
+        <v>3.359999895095825</v>
       </c>
       <c r="C123">
-        <v>3.630000114440918</v>
+        <v>3.140000104904175</v>
       </c>
       <c r="D123">
-        <v>3.660000085830688</v>
+        <v>3.150000095367432</v>
       </c>
       <c r="E123">
-        <v>3.660000085830688</v>
+        <v>3.150000095367432</v>
       </c>
       <c r="F123">
-        <v>3848800</v>
+        <v>5930000</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>3.680000066757202</v>
+        <v>3.190000057220459</v>
       </c>
       <c r="B124">
-        <v>3.700000047683716</v>
+        <v>3.380000114440918</v>
       </c>
       <c r="C124">
-        <v>3.519999980926514</v>
+        <v>3.119999885559082</v>
       </c>
       <c r="D124">
-        <v>3.680000066757202</v>
+        <v>3.279999971389771</v>
       </c>
       <c r="E124">
-        <v>3.680000066757202</v>
+        <v>3.279999971389771</v>
       </c>
       <c r="F124">
-        <v>3929000</v>
+        <v>7213100</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>3.650000095367432</v>
+        <v>3.380000114440918</v>
       </c>
       <c r="B125">
-        <v>3.720000028610229</v>
+        <v>3.480000019073486</v>
       </c>
       <c r="C125">
-        <v>3.505000114440918</v>
+        <v>3.309999942779541</v>
       </c>
       <c r="D125">
-        <v>3.549999952316284</v>
+        <v>3.420000076293945</v>
       </c>
       <c r="E125">
-        <v>3.549999952316284</v>
+        <v>3.420000076293945</v>
       </c>
       <c r="F125">
-        <v>4045000</v>
+        <v>5902000</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>3.509999990463257</v>
+        <v>3.359999895095825</v>
       </c>
       <c r="B126">
-        <v>3.559999942779541</v>
+        <v>3.388000011444092</v>
       </c>
       <c r="C126">
-        <v>3.289999961853027</v>
+        <v>3.210000038146973</v>
       </c>
       <c r="D126">
-        <v>3.339999914169312</v>
+        <v>3.329999923706055</v>
       </c>
       <c r="E126">
-        <v>3.339999914169312</v>
+        <v>3.329999923706055</v>
       </c>
       <c r="F126">
-        <v>4517868</v>
+        <v>3861200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>3.369999885559082</v>
+      </c>
+      <c r="B127">
+        <v>3.369999885559082</v>
+      </c>
+      <c r="C127">
+        <v>3.160000085830688</v>
+      </c>
+      <c r="D127">
+        <v>3.170000076293945</v>
+      </c>
+      <c r="E127">
+        <v>3.170000076293945</v>
+      </c>
+      <c r="F127">
+        <v>2676617</v>
       </c>
     </row>
   </sheetData>
